--- a/config/PDDCalib.xlsx
+++ b/config/PDDCalib.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\salud.madrid.org\HOSPDepartamentales\HFLRDepartamentales\Radiofisica\csr\stFilmQAp\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hflraria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26670" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2333,2152 +2333,2152 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="716"/>
                 <c:pt idx="0">
-                  <c:v>3.9806089999999998</c:v>
+                  <c:v>2.9365841549999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4370079999999996</c:v>
+                  <c:v>3.2994213599999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6583139999999998</c:v>
+                  <c:v>3.4753596299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.757606</c:v>
+                  <c:v>3.5542967700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8568809999999996</c:v>
+                  <c:v>3.6332203949999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9561409999999997</c:v>
+                  <c:v>3.7121320949999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0553860000000004</c:v>
+                  <c:v>3.7910318699999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1546139999999996</c:v>
+                  <c:v>3.8699181299999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2538270000000002</c:v>
+                  <c:v>3.9487924649999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3530239999999996</c:v>
+                  <c:v>4.0276540800000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4522050000000002</c:v>
+                  <c:v>4.1065029750000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5513700000000004</c:v>
+                  <c:v>4.1853391500000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6112729999999997</c:v>
+                  <c:v>4.2329620349999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.651834</c:v>
+                  <c:v>4.2652080300000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6923779999999997</c:v>
+                  <c:v>4.2974405100000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7329030000000003</c:v>
+                  <c:v>4.3296578850000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7734100000000002</c:v>
+                  <c:v>4.3618609500000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.813898</c:v>
+                  <c:v>4.3940489100000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.854368</c:v>
+                  <c:v>4.4262225600000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8948200000000002</c:v>
+                  <c:v>4.4583819000000009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9352530000000003</c:v>
+                  <c:v>4.4905261350000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.9756679999999998</c:v>
+                  <c:v>4.5226560600000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9989179999999998</c:v>
+                  <c:v>4.5411398100000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0141530000000003</c:v>
+                  <c:v>4.5532516350000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0293760000000001</c:v>
+                  <c:v>4.5653539200000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0445890000000002</c:v>
+                  <c:v>4.5774482550000011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0597899999999996</c:v>
+                  <c:v>4.58953305</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0749810000000002</c:v>
+                  <c:v>4.6016098950000011</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0901610000000002</c:v>
+                  <c:v>4.6136779950000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1053290000000002</c:v>
+                  <c:v>4.6257365550000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1204869999999998</c:v>
+                  <c:v>4.6377871650000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.1356339999999996</c:v>
+                  <c:v>4.6498290300000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1428830000000003</c:v>
+                  <c:v>4.6555919850000009</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1466390000000004</c:v>
+                  <c:v>4.6585780050000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1503899999999998</c:v>
+                  <c:v>4.6615600500000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1541350000000001</c:v>
+                  <c:v>4.6645373250000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1578739999999996</c:v>
+                  <c:v>4.6675098300000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1616070000000001</c:v>
+                  <c:v>4.6704775650000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.1653339999999996</c:v>
+                  <c:v>4.6734405300000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.1690560000000003</c:v>
+                  <c:v>4.6763995200000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.172771</c:v>
+                  <c:v>4.6793529450000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.1764809999999999</c:v>
+                  <c:v>4.6823023950000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.1762050000000004</c:v>
+                  <c:v>4.682082975000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1742600000000003</c:v>
+                  <c:v>4.6805367000000011</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1723129999999999</c:v>
+                  <c:v>4.6789888350000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.1703619999999999</c:v>
+                  <c:v>4.6774377900000008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.1684080000000003</c:v>
+                  <c:v>4.6758843600000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.1664519999999996</c:v>
+                  <c:v>4.6743293399999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1644920000000001</c:v>
+                  <c:v>4.6727711400000009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.1625290000000001</c:v>
+                  <c:v>4.6712105550000009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.1605629999999998</c:v>
+                  <c:v>4.6696475849999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1585939999999999</c:v>
+                  <c:v>4.6680822300000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.1546240000000001</c:v>
+                  <c:v>4.6649260800000008</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.1498619999999997</c:v>
+                  <c:v>4.6611402900000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1450979999999999</c:v>
+                  <c:v>4.6573529100000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.1403319999999999</c:v>
+                  <c:v>4.6535639400000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.1355639999999996</c:v>
+                  <c:v>4.6497733800000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.1307939999999999</c:v>
+                  <c:v>4.6459812300000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.1260219999999999</c:v>
+                  <c:v>4.6421874900000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.1212479999999996</c:v>
+                  <c:v>4.6383921600000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.116473</c:v>
+                  <c:v>4.6345960350000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.1116950000000001</c:v>
+                  <c:v>4.6307975250000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.105308</c:v>
+                  <c:v>4.6257198600000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.0983219999999996</c:v>
+                  <c:v>4.6201659900000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.0913349999999999</c:v>
+                  <c:v>4.6146113250000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.084346</c:v>
+                  <c:v>4.6090550700000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.077356</c:v>
+                  <c:v>4.6034980200000009</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.0703639999999996</c:v>
+                  <c:v>4.5979393800000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.0633720000000002</c:v>
+                  <c:v>4.5923807400000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0563779999999996</c:v>
+                  <c:v>4.5868205099999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.0493829999999997</c:v>
+                  <c:v>4.5812594850000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.0423869999999997</c:v>
+                  <c:v>4.5756976649999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.0352560000000004</c:v>
+                  <c:v>4.570028520000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.0280779999999998</c:v>
+                  <c:v>4.5643220100000006</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.0209000000000001</c:v>
+                  <c:v>4.5586155000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.0137210000000003</c:v>
+                  <c:v>4.5529081950000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.0065410000000004</c:v>
+                  <c:v>4.5472000950000009</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.9993600000000002</c:v>
+                  <c:v>4.5414912000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.992178</c:v>
+                  <c:v>4.5357815100000005</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.9849959999999998</c:v>
+                  <c:v>4.5300718199999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.9778130000000003</c:v>
+                  <c:v>4.5243613350000009</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.9706289999999997</c:v>
+                  <c:v>4.5186500550000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.9630169999999998</c:v>
+                  <c:v>4.5125985150000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.9552620000000003</c:v>
+                  <c:v>4.5064332900000004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.947508</c:v>
+                  <c:v>4.5002688600000003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.9397529999999996</c:v>
+                  <c:v>4.4941036350000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.931997</c:v>
+                  <c:v>4.4879376150000008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.9242410000000003</c:v>
+                  <c:v>4.4817715950000006</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.9164849999999998</c:v>
+                  <c:v>4.4756055750000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.9087290000000001</c:v>
+                  <c:v>4.469439555000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.9009710000000002</c:v>
+                  <c:v>4.4632719450000007</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.8932140000000004</c:v>
+                  <c:v>4.4571051300000004</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.8850790000000002</c:v>
+                  <c:v>4.4506378050000004</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.8768279999999997</c:v>
+                  <c:v>4.4440782600000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.868576</c:v>
+                  <c:v>4.4375179200000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.8603240000000003</c:v>
+                  <c:v>4.4309575800000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.8520719999999997</c:v>
+                  <c:v>4.4243972400000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.84382</c:v>
+                  <c:v>4.4178369000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.8355670000000002</c:v>
+                  <c:v>4.411275765000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8273149999999996</c:v>
+                  <c:v>4.404715425</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.8190619999999997</c:v>
+                  <c:v>4.3981542899999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.8108079999999998</c:v>
+                  <c:v>4.3915923600000006</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.8024279999999999</c:v>
+                  <c:v>4.38493026</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.7940100000000001</c:v>
+                  <c:v>4.3782379500000008</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.7855920000000003</c:v>
+                  <c:v>4.3715456400000008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.7771730000000003</c:v>
+                  <c:v>4.3648525350000007</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.7687549999999996</c:v>
+                  <c:v>4.3581602249999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.7603359999999997</c:v>
+                  <c:v>4.3514671200000006</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.7519169999999997</c:v>
+                  <c:v>4.3447740150000005</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.7434979999999998</c:v>
+                  <c:v>4.3380809100000004</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.7350779999999997</c:v>
+                  <c:v>4.3313870100000003</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.7266589999999997</c:v>
+                  <c:v>4.3246939050000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5.7185560000000004</c:v>
+                  <c:v>4.318252020000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.7105389999999998</c:v>
+                  <c:v>4.3118785050000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.7025220000000001</c:v>
+                  <c:v>4.3055049900000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5.6945050000000004</c:v>
+                  <c:v>4.2991314750000011</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5.6864879999999998</c:v>
+                  <c:v>4.2927579600000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5.6784699999999999</c:v>
+                  <c:v>4.2863836500000003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.6704530000000002</c:v>
+                  <c:v>4.2800101350000004</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.6624350000000003</c:v>
+                  <c:v>4.2736358250000004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.6544179999999997</c:v>
+                  <c:v>4.2672623100000004</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5.6463999999999999</c:v>
+                  <c:v>4.2608880000000005</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5.6383460000000003</c:v>
+                  <c:v>4.2544850700000003</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.6302830000000004</c:v>
+                  <c:v>4.2480749850000006</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.6222200000000004</c:v>
+                  <c:v>4.2416649000000008</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.6141569999999996</c:v>
+                  <c:v>4.2352548150000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.6060939999999997</c:v>
+                  <c:v>4.2288447300000005</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.5980299999999996</c:v>
+                  <c:v>4.2224338499999998</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.5899669999999997</c:v>
+                  <c:v>4.2160237650000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.5819029999999996</c:v>
+                  <c:v>4.2096128850000003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5.5738390000000004</c:v>
+                  <c:v>4.2032020050000005</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5.5657750000000004</c:v>
+                  <c:v>4.1967911250000007</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.5575650000000003</c:v>
+                  <c:v>4.1902641750000011</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5.5493209999999999</c:v>
+                  <c:v>4.1837101950000006</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5.5410769999999996</c:v>
+                  <c:v>4.1771562150000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5.5328330000000001</c:v>
+                  <c:v>4.1706022350000005</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.5245879999999996</c:v>
+                  <c:v>4.1640474599999999</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5.5163440000000001</c:v>
+                  <c:v>4.1574934800000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.5080989999999996</c:v>
+                  <c:v>4.1509387049999997</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5.4998550000000002</c:v>
+                  <c:v>4.144384725000001</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.4916099999999997</c:v>
+                  <c:v>4.1378299500000004</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.4833660000000002</c:v>
+                  <c:v>4.1312759700000008</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5.474901</c:v>
+                  <c:v>4.1245462950000009</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5.4663880000000002</c:v>
+                  <c:v>4.1177784600000003</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.4578759999999997</c:v>
+                  <c:v>4.1110114200000005</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5.449363</c:v>
+                  <c:v>4.1042435850000007</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5.4408510000000003</c:v>
+                  <c:v>4.097476545000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5.4323379999999997</c:v>
+                  <c:v>4.0907087100000004</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5.423826</c:v>
+                  <c:v>4.0839416700000006</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5.4153130000000003</c:v>
+                  <c:v>4.0771738350000009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5.4067999999999996</c:v>
+                  <c:v>4.0704060000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.398288</c:v>
+                  <c:v>4.0636389600000005</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5.3901479999999999</c:v>
+                  <c:v>4.0571676600000002</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5.3820819999999996</c:v>
+                  <c:v>4.0507551900000003</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>5.3740160000000001</c:v>
+                  <c:v>4.0443427200000004</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5.3659509999999999</c:v>
+                  <c:v>4.0379310450000006</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5.3578849999999996</c:v>
+                  <c:v>4.0315185749999998</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5.3498190000000001</c:v>
+                  <c:v>4.0251061050000008</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.3417529999999998</c:v>
+                  <c:v>4.018693635</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5.3336870000000003</c:v>
+                  <c:v>4.012281165000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5.3256209999999999</c:v>
+                  <c:v>4.0058686950000002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>5.3175549999999996</c:v>
+                  <c:v>3.9994562249999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5.3097649999999996</c:v>
+                  <c:v>3.9932631749999996</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>5.3020240000000003</c:v>
+                  <c:v>3.9871090800000002</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5.2942840000000002</c:v>
+                  <c:v>3.9809557799999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>5.286543</c:v>
+                  <c:v>3.9748016849999996</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5.2788029999999999</c:v>
+                  <c:v>3.9686483850000003</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5.2710629999999998</c:v>
+                  <c:v>3.962495085</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>5.2633219999999996</c:v>
+                  <c:v>3.9563409899999997</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>5.2555820000000004</c:v>
+                  <c:v>3.9501876900000004</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5.2478410000000002</c:v>
+                  <c:v>3.9440335950000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>5.2401010000000001</c:v>
+                  <c:v>3.9378802949999998</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5.2322569999999997</c:v>
+                  <c:v>3.9316443150000002</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5.2243950000000003</c:v>
+                  <c:v>3.9253940250000006</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5.2165340000000002</c:v>
+                  <c:v>3.9191445300000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>5.2086730000000001</c:v>
+                  <c:v>3.9128950350000005</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5.2008109999999999</c:v>
+                  <c:v>3.9066447449999999</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5.1929499999999997</c:v>
+                  <c:v>3.9003952499999994</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5.1850889999999996</c:v>
+                  <c:v>3.8941457549999998</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>5.1772270000000002</c:v>
+                  <c:v>3.8878954650000002</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5.1693660000000001</c:v>
+                  <c:v>3.8816459699999997</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5.161505</c:v>
+                  <c:v>3.8753964750000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>5.1535229999999999</c:v>
+                  <c:v>3.8690507850000002</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5.145524</c:v>
+                  <c:v>3.8626915800000003</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>5.1375250000000001</c:v>
+                  <c:v>3.8563323750000005</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>5.1295260000000003</c:v>
+                  <c:v>3.8499731700000006</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5.1215279999999996</c:v>
+                  <c:v>3.8436147599999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.1135289999999998</c:v>
+                  <c:v>3.837255555</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.1055299999999999</c:v>
+                  <c:v>3.8308963500000002</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.0975320000000002</c:v>
+                  <c:v>3.8245379400000004</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5.0895330000000003</c:v>
+                  <c:v>3.8181787350000005</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5.0815349999999997</c:v>
+                  <c:v>3.8118203249999998</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.0741050000000003</c:v>
+                  <c:v>3.8059134750000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.0667520000000001</c:v>
+                  <c:v>3.8000678400000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.059399</c:v>
+                  <c:v>3.7942222050000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5.0520459999999998</c:v>
+                  <c:v>3.7883765700000001</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.0446939999999998</c:v>
+                  <c:v>3.7825317300000001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.0373409999999996</c:v>
+                  <c:v>3.7766860950000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.0299880000000003</c:v>
+                  <c:v>3.7708404600000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0226360000000003</c:v>
+                  <c:v>3.7649956200000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0152830000000002</c:v>
+                  <c:v>3.7591499850000001</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5.0079310000000001</c:v>
+                  <c:v>3.7533051450000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5.0009199999999998</c:v>
+                  <c:v>3.7477313999999997</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>4.9939499999999999</c:v>
+                  <c:v>3.7421902499999997</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4.9869810000000001</c:v>
+                  <c:v>3.7366498950000002</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>4.9800110000000002</c:v>
+                  <c:v>3.7311087450000002</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4.9730420000000004</c:v>
+                  <c:v>3.7255683900000003</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4.9660719999999996</c:v>
+                  <c:v>3.7200272399999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.9591019999999997</c:v>
+                  <c:v>3.7144860899999999</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.9521329999999999</c:v>
+                  <c:v>3.7089457349999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4.945163</c:v>
+                  <c:v>3.7034045849999999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.9381940000000002</c:v>
+                  <c:v>3.69786423</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.9312100000000001</c:v>
+                  <c:v>3.6923119500000001</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4.924226</c:v>
+                  <c:v>3.6867596699999998</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.9172419999999999</c:v>
+                  <c:v>3.68120739</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.9102579999999998</c:v>
+                  <c:v>3.6756551099999997</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>4.9032739999999997</c:v>
+                  <c:v>3.6701028299999998</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4.8962899999999996</c:v>
+                  <c:v>3.6645505499999995</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.8893069999999996</c:v>
+                  <c:v>3.6589990649999997</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4.8823239999999997</c:v>
+                  <c:v>3.6534475799999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4.8753399999999996</c:v>
+                  <c:v>3.6478952999999996</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>4.8683569999999996</c:v>
+                  <c:v>3.6423438149999998</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>4.8615389999999996</c:v>
+                  <c:v>3.6369235049999995</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>4.8547349999999998</c:v>
+                  <c:v>3.6315143249999999</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>4.847931</c:v>
+                  <c:v>3.6261051449999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4.8411270000000002</c:v>
+                  <c:v>3.6206959650000003</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>4.8343230000000004</c:v>
+                  <c:v>3.6152867850000003</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>4.8275180000000004</c:v>
+                  <c:v>3.6098768100000003</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>4.8207139999999997</c:v>
+                  <c:v>3.6044676299999998</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>4.8139099999999999</c:v>
+                  <c:v>3.5990584499999998</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>4.807105</c:v>
+                  <c:v>3.5936484750000002</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>4.8003010000000002</c:v>
+                  <c:v>3.5882392950000002</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>4.7933349999999999</c:v>
+                  <c:v>3.5827013249999999</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4.7863569999999998</c:v>
+                  <c:v>3.577153815</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>4.7793780000000003</c:v>
+                  <c:v>3.5716055100000004</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>4.7724000000000002</c:v>
+                  <c:v>3.566058</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.7654209999999999</c:v>
+                  <c:v>3.5605096949999999</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>4.7584419999999996</c:v>
+                  <c:v>3.5549613899999999</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>4.7514630000000002</c:v>
+                  <c:v>3.5494130850000003</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>4.7444839999999999</c:v>
+                  <c:v>3.5438647799999998</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>4.7375049999999996</c:v>
+                  <c:v>3.5383164749999998</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>4.7305250000000001</c:v>
+                  <c:v>3.5327673750000002</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>4.7235069999999997</c:v>
+                  <c:v>3.5271880649999998</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>4.7164869999999999</c:v>
+                  <c:v>3.5216071649999998</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>4.7094659999999999</c:v>
+                  <c:v>3.5160254699999998</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>4.7024460000000001</c:v>
+                  <c:v>3.5104445700000002</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>4.6954260000000003</c:v>
+                  <c:v>3.5048636700000002</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>4.6884050000000004</c:v>
+                  <c:v>3.4992819750000002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>4.6813849999999997</c:v>
+                  <c:v>3.4937010749999997</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>4.6743649999999999</c:v>
+                  <c:v>3.4881201749999997</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>4.6673439999999999</c:v>
+                  <c:v>3.4825384800000001</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>4.6603240000000001</c:v>
+                  <c:v>3.4769575800000001</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>4.6532840000000002</c:v>
+                  <c:v>3.4713607799999999</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>4.646242</c:v>
+                  <c:v>3.4657623900000001</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>4.6392009999999999</c:v>
+                  <c:v>3.4601647949999998</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>4.6321599999999998</c:v>
+                  <c:v>3.4545672000000001</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>4.6251179999999996</c:v>
+                  <c:v>3.4489688099999998</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>4.6180770000000004</c:v>
+                  <c:v>3.4433712150000004</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>4.6110360000000004</c:v>
+                  <c:v>3.4377736200000002</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>4.6039940000000001</c:v>
+                  <c:v>3.4321752299999999</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>4.5969530000000001</c:v>
+                  <c:v>3.4265776350000001</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>4.5899109999999999</c:v>
+                  <c:v>3.4209792449999998</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>4.5830089999999997</c:v>
+                  <c:v>3.4154921549999999</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>4.5761120000000002</c:v>
+                  <c:v>3.4100090400000003</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>4.5692159999999999</c:v>
+                  <c:v>3.4045267199999998</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>4.5623199999999997</c:v>
+                  <c:v>3.3990443999999997</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>4.5554230000000002</c:v>
+                  <c:v>3.3935612850000001</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>4.548527</c:v>
+                  <c:v>3.3880789650000001</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>4.5416319999999999</c:v>
+                  <c:v>3.3825974400000001</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>4.5347359999999997</c:v>
+                  <c:v>3.3771151199999996</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>4.5278400000000003</c:v>
+                  <c:v>3.3716328000000004</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>4.5209450000000002</c:v>
+                  <c:v>3.366151275</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>4.514284</c:v>
+                  <c:v>3.3608557800000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>4.5076289999999997</c:v>
+                  <c:v>3.3555650549999996</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>4.5009740000000003</c:v>
+                  <c:v>3.35027433</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>4.4943179999999998</c:v>
+                  <c:v>3.3449828099999999</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>4.4876630000000004</c:v>
+                  <c:v>3.3396920850000003</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>4.4810080000000001</c:v>
+                  <c:v>3.3344013600000002</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>4.4743519999999997</c:v>
+                  <c:v>3.3291098399999997</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>4.4676970000000003</c:v>
+                  <c:v>3.323819115</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>4.461042</c:v>
+                  <c:v>3.31852839</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>4.4543860000000004</c:v>
+                  <c:v>3.3132368700000003</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>4.4480370000000002</c:v>
+                  <c:v>3.3081894150000002</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>4.4416929999999999</c:v>
+                  <c:v>3.3031459349999999</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>4.4353480000000003</c:v>
+                  <c:v>3.2981016600000004</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>4.4290039999999999</c:v>
+                  <c:v>3.2930581800000001</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>4.4226599999999996</c:v>
+                  <c:v>3.2880146999999997</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>4.416315</c:v>
+                  <c:v>3.2829704249999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>4.4099709999999996</c:v>
+                  <c:v>3.2779269449999995</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>4.403626</c:v>
+                  <c:v>3.27288267</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>4.3972810000000004</c:v>
+                  <c:v>3.2678383950000005</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>4.3909370000000001</c:v>
+                  <c:v>3.2627949150000002</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>4.3844709999999996</c:v>
+                  <c:v>3.2576544449999996</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>4.3780039999999998</c:v>
+                  <c:v>3.2525131799999998</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>4.3715380000000001</c:v>
+                  <c:v>3.2473727100000001</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>4.3650710000000004</c:v>
+                  <c:v>3.2422314450000003</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>4.3586049999999998</c:v>
+                  <c:v>3.2370909749999996</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>4.3521380000000001</c:v>
+                  <c:v>3.2319497099999999</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>4.3456720000000004</c:v>
+                  <c:v>3.2268092400000001</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>4.3392049999999998</c:v>
+                  <c:v>3.2216679749999999</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>4.3327390000000001</c:v>
+                  <c:v>3.2165275050000002</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>4.3262689999999999</c:v>
+                  <c:v>3.2113838549999998</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>4.3194319999999999</c:v>
+                  <c:v>3.2059484399999998</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>4.312595</c:v>
+                  <c:v>3.2005130249999998</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>4.305758</c:v>
+                  <c:v>3.1950776099999998</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>4.298921</c:v>
+                  <c:v>3.1896421949999998</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>4.292084</c:v>
+                  <c:v>3.1842067799999998</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>4.285247</c:v>
+                  <c:v>3.1787713649999998</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>4.2784089999999999</c:v>
+                  <c:v>3.1733351549999997</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>4.2715719999999999</c:v>
+                  <c:v>3.1678997399999997</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>4.2647339999999998</c:v>
+                  <c:v>3.1624635299999997</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>4.2579029999999998</c:v>
+                  <c:v>3.1570328849999996</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>4.2513560000000004</c:v>
+                  <c:v>3.1518280200000004</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>4.2448090000000001</c:v>
+                  <c:v>3.1466231549999999</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>4.2382629999999999</c:v>
+                  <c:v>3.1414190849999999</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>4.2317159999999996</c:v>
+                  <c:v>3.1362142199999998</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>4.2251700000000003</c:v>
+                  <c:v>3.1310101500000003</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>4.218623</c:v>
+                  <c:v>3.1258052849999998</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>4.2120769999999998</c:v>
+                  <c:v>3.1206012149999998</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>4.2055309999999997</c:v>
+                  <c:v>3.1153971449999998</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>4.1989840000000003</c:v>
+                  <c:v>3.1101922800000001</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>4.1924479999999997</c:v>
+                  <c:v>3.1049961599999998</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>4.1862120000000003</c:v>
+                  <c:v>3.1000385400000003</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>4.1799749999999998</c:v>
+                  <c:v>3.095080125</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>4.1737390000000003</c:v>
+                  <c:v>3.0901225050000001</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>4.1675019999999998</c:v>
+                  <c:v>3.0851640899999997</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>4.1612660000000004</c:v>
+                  <c:v>3.0802064700000003</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>4.15503</c:v>
+                  <c:v>3.0752488499999999</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>4.1487939999999996</c:v>
+                  <c:v>3.0702912299999996</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>4.1425580000000002</c:v>
+                  <c:v>3.0653336100000002</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>4.1363219999999998</c:v>
+                  <c:v>3.0603759899999998</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>4.13009</c:v>
+                  <c:v>3.0554215500000002</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>4.1239340000000002</c:v>
+                  <c:v>3.0505275300000001</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>4.1177780000000004</c:v>
+                  <c:v>3.0456335100000005</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>4.1116210000000004</c:v>
+                  <c:v>3.0407386950000004</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>4.1054649999999997</c:v>
+                  <c:v>3.0358446749999999</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>4.0993089999999999</c:v>
+                  <c:v>3.0309506549999998</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>4.093153</c:v>
+                  <c:v>3.0260566349999998</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>4.0869960000000001</c:v>
+                  <c:v>3.0211618200000001</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>4.0808400000000002</c:v>
+                  <c:v>3.0162678000000001</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>4.0746840000000004</c:v>
+                  <c:v>3.0113737800000004</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>4.0685370000000001</c:v>
+                  <c:v>3.006486915</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>4.0625479999999996</c:v>
+                  <c:v>3.0017256599999995</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>4.0565600000000002</c:v>
+                  <c:v>2.9969652</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>4.0505719999999998</c:v>
+                  <c:v>2.99220474</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>4.0445840000000004</c:v>
+                  <c:v>2.9874442800000001</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>4.0385960000000001</c:v>
+                  <c:v>2.9826838200000001</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>4.0326079999999997</c:v>
+                  <c:v>2.9779233599999997</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>4.0266200000000003</c:v>
+                  <c:v>2.9731629000000002</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>4.0206309999999998</c:v>
+                  <c:v>2.9684016449999997</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>4.0146430000000004</c:v>
+                  <c:v>2.9636411850000002</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>4.0086519999999997</c:v>
+                  <c:v>2.9588783399999996</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>4.0026169999999999</c:v>
+                  <c:v>2.9540805149999998</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>3.9965820000000001</c:v>
+                  <c:v>2.94928269</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>3.9905469999999998</c:v>
+                  <c:v>2.9444848649999997</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>3.9845120000000001</c:v>
+                  <c:v>2.9396870399999999</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>3.9784769999999998</c:v>
+                  <c:v>2.9348892149999997</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>3.9724409999999999</c:v>
+                  <c:v>2.9300905949999998</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>3.9664060000000001</c:v>
+                  <c:v>2.92529277</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3.9603709999999999</c:v>
+                  <c:v>2.9204949449999997</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>3.9543360000000001</c:v>
+                  <c:v>2.9156971199999999</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>3.9483109999999999</c:v>
+                  <c:v>2.9109072449999998</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>3.9424130000000002</c:v>
+                  <c:v>2.9062183350000002</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>3.9365139999999998</c:v>
+                  <c:v>2.9015286300000001</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>3.9306160000000001</c:v>
+                  <c:v>2.89683972</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>3.9247179999999999</c:v>
+                  <c:v>2.89215081</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3.9188200000000002</c:v>
+                  <c:v>2.8874618999999999</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3.912922</c:v>
+                  <c:v>2.8827729899999999</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>3.9070239999999998</c:v>
+                  <c:v>2.8780840799999998</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>3.9011260000000001</c:v>
+                  <c:v>2.8733951700000002</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>3.8952279999999999</c:v>
+                  <c:v>2.8687062599999997</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>3.8893209999999998</c:v>
+                  <c:v>2.8640101949999996</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>3.8833220000000002</c:v>
+                  <c:v>2.85924099</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>3.8773240000000002</c:v>
+                  <c:v>2.8544725799999999</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>3.8713259999999998</c:v>
+                  <c:v>2.8497041699999999</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>3.8653279999999999</c:v>
+                  <c:v>2.8449357599999998</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>3.8593289999999998</c:v>
+                  <c:v>2.8401665549999997</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>3.8533309999999998</c:v>
+                  <c:v>2.8353981449999996</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>3.8473329999999999</c:v>
+                  <c:v>2.830629735</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>3.8413339999999998</c:v>
+                  <c:v>2.8258605299999999</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>3.8353359999999999</c:v>
+                  <c:v>2.8210921199999999</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>3.8293119999999998</c:v>
+                  <c:v>2.8163030399999998</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>3.8230650000000002</c:v>
+                  <c:v>2.8113366750000002</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>3.816818</c:v>
+                  <c:v>2.8063703100000001</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>3.8105699999999998</c:v>
+                  <c:v>2.8014031499999996</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>3.8043230000000001</c:v>
+                  <c:v>2.796436785</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>3.798076</c:v>
+                  <c:v>2.79147042</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>3.7918280000000002</c:v>
+                  <c:v>2.7865032599999999</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>3.7855810000000001</c:v>
+                  <c:v>2.7815368949999999</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>3.779334</c:v>
+                  <c:v>2.7765705299999999</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>3.7730860000000002</c:v>
+                  <c:v>2.7716033700000002</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>3.7668819999999998</c:v>
+                  <c:v>2.7666711899999998</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>3.7610079999999999</c:v>
+                  <c:v>2.7620013599999997</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>3.7551350000000001</c:v>
+                  <c:v>2.7573323250000001</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>3.7492619999999999</c:v>
+                  <c:v>2.7526632899999997</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>3.7433890000000001</c:v>
+                  <c:v>2.7479942550000001</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>3.737517</c:v>
+                  <c:v>2.7433260150000001</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>3.7316440000000002</c:v>
+                  <c:v>2.73865698</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>3.7257720000000001</c:v>
+                  <c:v>2.73398874</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>3.7198989999999998</c:v>
+                  <c:v>2.729319705</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>3.7140270000000002</c:v>
+                  <c:v>2.724651465</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>3.7081629999999999</c:v>
+                  <c:v>2.719989585</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>3.7023510000000002</c:v>
+                  <c:v>2.7153690450000001</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>3.6965379999999999</c:v>
+                  <c:v>2.7107477099999997</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>3.6907260000000002</c:v>
+                  <c:v>2.7061271700000002</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>3.684914</c:v>
+                  <c:v>2.7015066299999999</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>3.6791010000000002</c:v>
+                  <c:v>2.696885295</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>3.673289</c:v>
+                  <c:v>2.6922647550000001</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>3.6674760000000002</c:v>
+                  <c:v>2.6876434200000001</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>3.661664</c:v>
+                  <c:v>2.6830228799999998</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>3.6558510000000002</c:v>
+                  <c:v>2.6784015450000003</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>3.6500520000000001</c:v>
+                  <c:v>2.6737913400000002</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>3.6443379999999999</c:v>
+                  <c:v>2.6692487099999997</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>3.6386240000000001</c:v>
+                  <c:v>2.6647060800000002</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>3.6329099999999999</c:v>
+                  <c:v>2.6601634499999998</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>3.6271960000000001</c:v>
+                  <c:v>2.6556208200000002</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>3.6214819999999999</c:v>
+                  <c:v>2.6510781899999998</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>3.6157680000000001</c:v>
+                  <c:v>2.6465355600000002</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>3.6100539999999999</c:v>
+                  <c:v>2.6419929299999998</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>3.6043400000000001</c:v>
+                  <c:v>2.6374502999999998</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>3.5986250000000002</c:v>
+                  <c:v>2.6329068750000002</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>3.5928740000000001</c:v>
+                  <c:v>2.62833483</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>3.5869110000000002</c:v>
+                  <c:v>2.623594245</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>3.5809479999999998</c:v>
+                  <c:v>2.6188536599999996</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>3.5749840000000002</c:v>
+                  <c:v>2.6141122800000001</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>3.5690210000000002</c:v>
+                  <c:v>2.6093716950000001</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>3.5630579999999998</c:v>
+                  <c:v>2.6046311099999997</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>3.5570949999999999</c:v>
+                  <c:v>2.5998905249999997</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>3.551132</c:v>
+                  <c:v>2.5951499399999998</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>3.5451679999999999</c:v>
+                  <c:v>2.5904085599999997</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>3.5392049999999999</c:v>
+                  <c:v>2.5856679749999998</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>3.533299</c:v>
+                  <c:v>2.5809727049999998</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>3.5276900000000002</c:v>
+                  <c:v>2.57651355</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>3.522081</c:v>
+                  <c:v>2.5720543949999999</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>3.516473</c:v>
+                  <c:v>2.5675960349999998</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>3.5108640000000002</c:v>
+                  <c:v>2.5631368800000001</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>3.505255</c:v>
+                  <c:v>2.5586777249999999</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>3.499647</c:v>
+                  <c:v>2.5542193649999998</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>3.4940380000000002</c:v>
+                  <c:v>2.5497602100000001</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>3.4884300000000001</c:v>
+                  <c:v>2.54530185</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>3.4828209999999999</c:v>
+                  <c:v>2.5408426949999998</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>3.477223</c:v>
+                  <c:v>2.5363922849999998</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>3.471676</c:v>
+                  <c:v>2.5319824199999998</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>3.4661279999999999</c:v>
+                  <c:v>2.5275717599999998</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>3.4605800000000002</c:v>
+                  <c:v>2.5231611000000003</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>3.4550329999999998</c:v>
+                  <c:v>2.5187512349999999</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>3.4494850000000001</c:v>
+                  <c:v>2.5143405749999999</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>3.443937</c:v>
+                  <c:v>2.5099299149999998</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>3.4383900000000001</c:v>
+                  <c:v>2.5055200499999999</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>3.4328419999999999</c:v>
+                  <c:v>2.5011093899999999</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>3.427295</c:v>
+                  <c:v>2.4966995249999999</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>3.4217949999999999</c:v>
+                  <c:v>2.4923270249999998</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>3.4165070000000002</c:v>
+                  <c:v>2.4881230649999999</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>3.4112179999999999</c:v>
+                  <c:v>2.48391831</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>3.405929</c:v>
+                  <c:v>2.479713555</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>3.4006400000000001</c:v>
+                  <c:v>2.4755088000000001</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>3.3953509999999998</c:v>
+                  <c:v>2.4713040449999997</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>3.3900619999999999</c:v>
+                  <c:v>2.4670992899999997</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>3.3847740000000002</c:v>
+                  <c:v>2.4628953300000003</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>3.3794849999999999</c:v>
+                  <c:v>2.4586905749999999</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>3.374196</c:v>
+                  <c:v>2.4544858199999999</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>3.368941</c:v>
+                  <c:v>2.450308095</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>3.3638210000000002</c:v>
+                  <c:v>2.4462376950000002</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>3.3587020000000001</c:v>
+                  <c:v>2.44216809</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>3.353583</c:v>
+                  <c:v>2.4380984849999998</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>3.3484639999999999</c:v>
+                  <c:v>2.4340288800000001</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>3.3433440000000001</c:v>
+                  <c:v>2.4299584799999998</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>3.338225</c:v>
+                  <c:v>2.4258888750000001</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>3.3331059999999999</c:v>
+                  <c:v>2.4218192699999999</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>3.3279869999999998</c:v>
+                  <c:v>2.4177496649999997</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>3.3228680000000002</c:v>
+                  <c:v>2.4136800599999999</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>3.317793</c:v>
+                  <c:v>2.4096454349999998</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>3.3128820000000001</c:v>
+                  <c:v>2.4057411900000001</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>3.3079710000000002</c:v>
+                  <c:v>2.4018369449999999</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>3.3030599999999999</c:v>
+                  <c:v>2.3979326999999997</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>3.2981500000000001</c:v>
+                  <c:v>2.39402925</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>3.2932389999999998</c:v>
+                  <c:v>2.3901250049999998</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>3.2883290000000001</c:v>
+                  <c:v>2.3862215550000001</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>3.2834180000000002</c:v>
+                  <c:v>2.3823173099999999</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>3.278508</c:v>
+                  <c:v>2.3784138599999998</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>3.2735970000000001</c:v>
+                  <c:v>2.374509615</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>3.2686869999999999</c:v>
+                  <c:v>2.3706061649999999</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>3.263776</c:v>
+                  <c:v>2.3667019200000001</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>3.2588659999999998</c:v>
+                  <c:v>2.36279847</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>3.2539549999999999</c:v>
+                  <c:v>2.3588942249999998</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>3.249044</c:v>
+                  <c:v>2.35498998</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>3.2441330000000002</c:v>
+                  <c:v>2.3510857349999998</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>3.239223</c:v>
+                  <c:v>2.3471822849999997</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>3.2343120000000001</c:v>
+                  <c:v>2.34327804</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>3.2294</c:v>
+                  <c:v>2.3393730000000001</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>3.2244890000000002</c:v>
+                  <c:v>2.335468755</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>3.219589</c:v>
+                  <c:v>2.3315732549999999</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>3.2147269999999999</c:v>
+                  <c:v>2.3277079649999997</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>3.2098640000000001</c:v>
+                  <c:v>2.3238418799999998</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>3.2050019999999999</c:v>
+                  <c:v>2.31997659</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>3.2001390000000001</c:v>
+                  <c:v>2.3161105050000002</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>3.1952769999999999</c:v>
+                  <c:v>2.3122452149999999</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>3.1904140000000001</c:v>
+                  <c:v>2.3083791300000001</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>3.1855509999999998</c:v>
+                  <c:v>2.3045130449999998</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>3.1806890000000001</c:v>
+                  <c:v>2.300647755</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>3.1758259999999998</c:v>
+                  <c:v>2.2967816699999997</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>3.170941</c:v>
+                  <c:v>2.292898095</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>3.165988</c:v>
+                  <c:v>2.2889604599999998</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>3.1610339999999999</c:v>
+                  <c:v>2.2850220299999999</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>3.1560809999999999</c:v>
+                  <c:v>2.2810843949999997</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>3.1511279999999999</c:v>
+                  <c:v>2.2771467599999999</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>3.1461749999999999</c:v>
+                  <c:v>2.2732091249999997</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>3.1412209999999998</c:v>
+                  <c:v>2.2692706949999999</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>3.1362679999999998</c:v>
+                  <c:v>2.2653330599999997</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>3.1313149999999998</c:v>
+                  <c:v>2.2613954249999999</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>3.1263619999999999</c:v>
+                  <c:v>2.2574577899999997</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>3.121442</c:v>
+                  <c:v>2.2535463899999999</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>3.116622</c:v>
+                  <c:v>2.2497144900000001</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>3.111802</c:v>
+                  <c:v>2.2458825899999999</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>3.1069830000000001</c:v>
+                  <c:v>2.2420514850000002</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>3.102163</c:v>
+                  <c:v>2.238219585</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>3.097343</c:v>
+                  <c:v>2.2343876849999997</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>3.0925229999999999</c:v>
+                  <c:v>2.230555785</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>3.087704</c:v>
+                  <c:v>2.2267246799999998</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>3.082884</c:v>
+                  <c:v>2.22289278</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>3.0780650000000001</c:v>
+                  <c:v>2.2190616749999998</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>3.0732699999999999</c:v>
+                  <c:v>2.2152496500000001</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>3.0685440000000002</c:v>
+                  <c:v>2.21149248</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>3.0638169999999998</c:v>
+                  <c:v>2.2077345149999998</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>3.0590899999999999</c:v>
+                  <c:v>2.2039765499999997</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>3.0543640000000001</c:v>
+                  <c:v>2.2002193800000001</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>3.0496370000000002</c:v>
+                  <c:v>2.1964614149999999</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>3.0449099999999998</c:v>
+                  <c:v>2.1927034499999998</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>3.040184</c:v>
+                  <c:v>2.1889462800000001</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>3.0354570000000001</c:v>
+                  <c:v>2.185188315</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>3.0307300000000001</c:v>
+                  <c:v>2.1814303499999999</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>3.026052</c:v>
+                  <c:v>2.1777113400000001</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>3.0215000000000001</c:v>
+                  <c:v>2.1740925</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>3.016947</c:v>
+                  <c:v>2.1704728649999998</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>3.0123950000000002</c:v>
+                  <c:v>2.1668540250000001</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>3.0078420000000001</c:v>
+                  <c:v>2.16323439</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>3.0032899999999998</c:v>
+                  <c:v>2.1596155499999998</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>2.9987370000000002</c:v>
+                  <c:v>2.1559959150000001</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>2.9941849999999999</c:v>
+                  <c:v>2.152377075</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>2.9896319999999998</c:v>
+                  <c:v>2.1487574399999998</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>2.98508</c:v>
+                  <c:v>2.1451385999999997</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>2.9804780000000002</c:v>
+                  <c:v>2.14148001</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>2.9757570000000002</c:v>
+                  <c:v>2.1377268150000002</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>2.9710359999999998</c:v>
+                  <c:v>2.1339736199999999</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>2.9663149999999998</c:v>
+                  <c:v>2.1302204249999996</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>2.9615939999999998</c:v>
+                  <c:v>2.1264672299999998</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>2.9568729999999999</c:v>
+                  <c:v>2.122714035</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>2.9521519999999999</c:v>
+                  <c:v>2.1189608399999997</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>2.9474320000000001</c:v>
+                  <c:v>2.11520844</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>2.9427110000000001</c:v>
+                  <c:v>2.1114552450000001</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>2.9379900000000001</c:v>
+                  <c:v>2.1077020499999999</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>2.9333119999999999</c:v>
+                  <c:v>2.1039830399999997</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>2.9287329999999998</c:v>
+                  <c:v>2.1003427349999999</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>2.9241540000000001</c:v>
+                  <c:v>2.0967024300000001</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>2.919575</c:v>
+                  <c:v>2.0930621249999999</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>2.9149959999999999</c:v>
+                  <c:v>2.0894218199999997</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>2.9104160000000001</c:v>
+                  <c:v>2.0857807199999998</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>2.905837</c:v>
+                  <c:v>2.082140415</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>2.9012579999999999</c:v>
+                  <c:v>2.0785001099999998</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>2.8966789999999998</c:v>
+                  <c:v>2.0748598049999996</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>2.8921000000000001</c:v>
+                  <c:v>2.0712195000000002</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>2.887543</c:v>
+                  <c:v>2.0675966849999998</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>2.883032</c:v>
+                  <c:v>2.0640104400000001</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>2.8785219999999998</c:v>
+                  <c:v>2.0604249899999996</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>2.8740109999999999</c:v>
+                  <c:v>2.0568387449999999</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>2.8695010000000001</c:v>
+                  <c:v>2.0532532949999998</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>2.8649909999999998</c:v>
+                  <c:v>2.0496678449999997</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>2.8604799999999999</c:v>
+                  <c:v>2.0460815999999999</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>2.8559700000000001</c:v>
+                  <c:v>2.0424961499999998</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>2.8514590000000002</c:v>
+                  <c:v>2.0389099050000001</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>2.846949</c:v>
+                  <c:v>2.035324455</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>2.8424909999999999</c:v>
+                  <c:v>2.0317803449999996</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>2.8381430000000001</c:v>
+                  <c:v>2.0283236850000002</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>2.8337949999999998</c:v>
+                  <c:v>2.0248670249999998</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>2.829447</c:v>
+                  <c:v>2.0214103649999999</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>2.8250999999999999</c:v>
+                  <c:v>2.0179544999999997</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>2.8207520000000001</c:v>
+                  <c:v>2.0144978400000002</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>2.8164039999999999</c:v>
+                  <c:v>2.0110411799999999</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>2.8120569999999998</c:v>
+                  <c:v>2.0075853149999996</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>2.807709</c:v>
+                  <c:v>2.0041286549999997</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>2.8033619999999999</c:v>
+                  <c:v>2.0006727899999999</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>2.7990159999999999</c:v>
+                  <c:v>1.9972177200000003</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>2.794673</c:v>
+                  <c:v>1.9937650350000002</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>2.79033</c:v>
+                  <c:v>1.9903123500000002</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>2.7859859999999999</c:v>
+                  <c:v>1.9868588700000001</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>2.7816429999999999</c:v>
+                  <c:v>1.983406185</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>2.7772999999999999</c:v>
+                  <c:v>1.9799534999999999</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>2.7729569999999999</c:v>
+                  <c:v>1.9765008149999999</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>2.7686139999999999</c:v>
+                  <c:v>1.9730481300000002</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>2.7642709999999999</c:v>
+                  <c:v>1.9695954450000002</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>2.7599279999999999</c:v>
+                  <c:v>1.9661427600000001</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>2.7556859999999999</c:v>
+                  <c:v>1.9627703700000001</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>2.751633</c:v>
+                  <c:v>1.959548235</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>2.7475800000000001</c:v>
+                  <c:v>1.9563261000000003</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>2.7435269999999998</c:v>
+                  <c:v>1.9531039650000002</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>2.739474</c:v>
+                  <c:v>1.94988183</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>2.7354210000000001</c:v>
+                  <c:v>1.9466596950000004</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>2.7313679999999998</c:v>
+                  <c:v>1.9434375599999998</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>2.7273149999999999</c:v>
+                  <c:v>1.9402154250000001</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>2.7232620000000001</c:v>
+                  <c:v>1.93699329</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>2.7192090000000002</c:v>
+                  <c:v>1.9337711550000003</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>2.7151580000000002</c:v>
+                  <c:v>1.9305506100000003</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>2.7111079999999999</c:v>
+                  <c:v>1.9273308599999999</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>2.707058</c:v>
+                  <c:v>1.9241111099999999</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>2.7030069999999999</c:v>
+                  <c:v>1.9208905649999999</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>2.6989570000000001</c:v>
+                  <c:v>1.9176708150000004</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>2.6949070000000002</c:v>
+                  <c:v>1.9144510650000004</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>2.6908569999999998</c:v>
+                  <c:v>1.911231315</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>2.6868069999999999</c:v>
+                  <c:v>1.908011565</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>2.6827570000000001</c:v>
+                  <c:v>1.9047918150000001</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>2.6787070000000002</c:v>
+                  <c:v>1.9015720650000001</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>2.6746259999999999</c:v>
+                  <c:v>1.8983276700000002</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>2.6704919999999999</c:v>
+                  <c:v>1.8950411400000002</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>2.6663589999999999</c:v>
+                  <c:v>1.8917554050000003</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>2.6622249999999998</c:v>
+                  <c:v>1.8884688749999998</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>2.6580919999999999</c:v>
+                  <c:v>1.8851831399999999</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>2.6539579999999998</c:v>
+                  <c:v>1.8818966099999999</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>2.6498249999999999</c:v>
+                  <c:v>1.8786108749999999</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>2.6456909999999998</c:v>
+                  <c:v>1.8753243449999999</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>2.6415579999999999</c:v>
+                  <c:v>1.8720386099999999</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>2.6374249999999999</c:v>
+                  <c:v>1.868752875</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>2.6332610000000001</c:v>
+                  <c:v>1.8654424950000001</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>2.6290490000000002</c:v>
+                  <c:v>1.8620939550000004</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>2.6248369999999999</c:v>
+                  <c:v>1.8587454150000002</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>2.620625</c:v>
+                  <c:v>1.8553968750000001</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>2.6164130000000001</c:v>
+                  <c:v>1.8520483350000003</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>2.6122010000000002</c:v>
+                  <c:v>1.8486997950000001</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>2.6079889999999999</c:v>
+                  <c:v>1.845351255</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>2.603777</c:v>
+                  <c:v>1.8420027150000002</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>2.5995650000000001</c:v>
+                  <c:v>1.8386541750000001</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>2.5953529999999998</c:v>
+                  <c:v>1.8353056349999999</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>2.5911209999999998</c:v>
+                  <c:v>1.831941195</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>2.5868600000000002</c:v>
+                  <c:v>1.8285537000000003</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>2.5825990000000001</c:v>
+                  <c:v>1.8251662050000002</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>2.578338</c:v>
+                  <c:v>1.82177871</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>2.5740759999999998</c:v>
+                  <c:v>1.8183904199999998</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>2.5698150000000002</c:v>
+                  <c:v>1.8150029250000002</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>2.5655540000000001</c:v>
+                  <c:v>1.81161543</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>2.561293</c:v>
+                  <c:v>1.8082279350000003</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>2.5570309999999998</c:v>
+                  <c:v>1.8048396450000002</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>2.5527700000000002</c:v>
+                  <c:v>1.8014521500000005</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>2.548594</c:v>
+                  <c:v>1.79813223</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>2.5445419999999999</c:v>
+                  <c:v>1.7949108899999999</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>2.5404900000000001</c:v>
+                  <c:v>1.7916895500000003</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>2.536438</c:v>
+                  <c:v>1.7884682100000002</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>2.5323859999999998</c:v>
+                  <c:v>1.7852468700000002</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>2.5283340000000001</c:v>
+                  <c:v>1.7820255300000001</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>2.5242819999999999</c:v>
+                  <c:v>1.77880419</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>2.5202300000000002</c:v>
+                  <c:v>1.7755828500000004</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>2.516178</c:v>
+                  <c:v>1.7723615100000003</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>2.5121259999999999</c:v>
+                  <c:v>1.76914017</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>2.5081799999999999</c:v>
+                  <c:v>1.7660031</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>2.5043820000000001</c:v>
+                  <c:v>1.7629836900000002</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>2.5005839999999999</c:v>
+                  <c:v>1.7599642800000002</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>2.496785</c:v>
+                  <c:v>1.756944075</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>2.4929869999999998</c:v>
+                  <c:v>1.753924665</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>2.4891890000000001</c:v>
+                  <c:v>1.7509052550000002</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>2.4853909999999999</c:v>
+                  <c:v>1.7478858450000001</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>2.4815930000000002</c:v>
+                  <c:v>1.7448664350000003</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>2.4777939999999998</c:v>
+                  <c:v>1.7418462299999999</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>2.4739960000000001</c:v>
+                  <c:v>1.7388268200000001</c:v>
                 </c:pt>
                 <c:pt idx="661">
-                  <c:v>2.4702730000000002</c:v>
+                  <c:v>1.7358670350000003</c:v>
                 </c:pt>
                 <c:pt idx="662">
-                  <c:v>2.4666489999999999</c:v>
+                  <c:v>1.732985955</c:v>
                 </c:pt>
                 <c:pt idx="663">
-                  <c:v>2.4630239999999999</c:v>
+                  <c:v>1.73010408</c:v>
                 </c:pt>
                 <c:pt idx="664">
-                  <c:v>2.4594</c:v>
+                  <c:v>1.7272230000000002</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>2.4557760000000002</c:v>
+                  <c:v>1.7243419200000003</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>2.4521510000000002</c:v>
+                  <c:v>1.7214600450000002</c:v>
                 </c:pt>
                 <c:pt idx="667">
-                  <c:v>2.4485269999999999</c:v>
+                  <c:v>1.7185789650000001</c:v>
                 </c:pt>
                 <c:pt idx="668">
-                  <c:v>2.444903</c:v>
+                  <c:v>1.7156978850000002</c:v>
                 </c:pt>
                 <c:pt idx="669">
-                  <c:v>2.4412780000000001</c:v>
+                  <c:v>1.7128160100000001</c:v>
                 </c:pt>
                 <c:pt idx="670">
-                  <c:v>2.4376540000000002</c:v>
+                  <c:v>1.7099349300000002</c:v>
                 </c:pt>
                 <c:pt idx="671">
-                  <c:v>2.4340389999999998</c:v>
+                  <c:v>1.7070610049999999</c:v>
                 </c:pt>
                 <c:pt idx="672">
-                  <c:v>2.430434</c:v>
+                  <c:v>1.7041950300000002</c:v>
                 </c:pt>
                 <c:pt idx="673">
-                  <c:v>2.4268299999999998</c:v>
+                  <c:v>1.70132985</c:v>
                 </c:pt>
                 <c:pt idx="674">
-                  <c:v>2.423225</c:v>
+                  <c:v>1.6984638750000001</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>2.4196209999999998</c:v>
+                  <c:v>1.6955986949999999</c:v>
                 </c:pt>
                 <c:pt idx="676">
-                  <c:v>2.4160159999999999</c:v>
+                  <c:v>1.69273272</c:v>
                 </c:pt>
                 <c:pt idx="677">
-                  <c:v>2.4124119999999998</c:v>
+                  <c:v>1.6898675399999998</c:v>
                 </c:pt>
                 <c:pt idx="678">
-                  <c:v>2.4088069999999999</c:v>
+                  <c:v>1.6870015650000001</c:v>
                 </c:pt>
                 <c:pt idx="679">
-                  <c:v>2.4052030000000002</c:v>
+                  <c:v>1.6841363850000002</c:v>
                 </c:pt>
                 <c:pt idx="680">
-                  <c:v>2.4015979999999999</c:v>
+                  <c:v>1.68127041</c:v>
                 </c:pt>
                 <c:pt idx="681">
-                  <c:v>2.3979870000000001</c:v>
+                  <c:v>1.6783996650000002</c:v>
                 </c:pt>
                 <c:pt idx="682">
-                  <c:v>2.3943680000000001</c:v>
+                  <c:v>1.6755225600000001</c:v>
                 </c:pt>
                 <c:pt idx="683">
-                  <c:v>2.390749</c:v>
+                  <c:v>1.6726454550000001</c:v>
                 </c:pt>
                 <c:pt idx="684">
-                  <c:v>2.38713</c:v>
+                  <c:v>1.66976835</c:v>
                 </c:pt>
                 <c:pt idx="685">
-                  <c:v>2.3835109999999999</c:v>
+                  <c:v>1.666891245</c:v>
                 </c:pt>
                 <c:pt idx="686">
-                  <c:v>2.3798919999999999</c:v>
+                  <c:v>1.6640141400000001</c:v>
                 </c:pt>
                 <c:pt idx="687">
-                  <c:v>2.3762729999999999</c:v>
+                  <c:v>1.6611370350000001</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>2.3726539999999998</c:v>
+                  <c:v>1.65825993</c:v>
                 </c:pt>
                 <c:pt idx="689">
-                  <c:v>2.3690349999999998</c:v>
+                  <c:v>1.655382825</c:v>
                 </c:pt>
                 <c:pt idx="690">
-                  <c:v>2.3654160000000002</c:v>
+                  <c:v>1.6525057200000002</c:v>
                 </c:pt>
                 <c:pt idx="691">
-                  <c:v>2.3618049999999999</c:v>
+                  <c:v>1.6496349750000001</c:v>
                 </c:pt>
                 <c:pt idx="692">
-                  <c:v>2.3582040000000002</c:v>
+                  <c:v>1.6467721800000004</c:v>
                 </c:pt>
                 <c:pt idx="693">
-                  <c:v>2.354603</c:v>
+                  <c:v>1.6439093850000002</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>2.351003</c:v>
+                  <c:v>1.641047385</c:v>
                 </c:pt>
                 <c:pt idx="695">
-                  <c:v>2.3474020000000002</c:v>
+                  <c:v>1.6381845900000003</c:v>
                 </c:pt>
                 <c:pt idx="696">
-                  <c:v>2.343801</c:v>
+                  <c:v>1.6353217950000001</c:v>
                 </c:pt>
                 <c:pt idx="697">
-                  <c:v>2.3401999999999998</c:v>
+                  <c:v>1.6324589999999999</c:v>
                 </c:pt>
                 <c:pt idx="698">
-                  <c:v>2.3365990000000001</c:v>
+                  <c:v>1.6295962050000001</c:v>
                 </c:pt>
                 <c:pt idx="699">
-                  <c:v>2.332999</c:v>
+                  <c:v>1.6267342050000002</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>2.3293979999999999</c:v>
+                  <c:v>1.62387141</c:v>
                 </c:pt>
                 <c:pt idx="701">
-                  <c:v>2.3255059999999999</c:v>
+                  <c:v>1.62077727</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>2.3212950000000001</c:v>
+                  <c:v>1.6174295250000001</c:v>
                 </c:pt>
                 <c:pt idx="703">
-                  <c:v>2.3170850000000001</c:v>
+                  <c:v>1.6140825750000001</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>2.3128739999999999</c:v>
+                  <c:v>1.61073483</c:v>
                 </c:pt>
                 <c:pt idx="705">
-                  <c:v>2.3086639999999998</c:v>
+                  <c:v>1.6073878799999999</c:v>
                 </c:pt>
                 <c:pt idx="706">
-                  <c:v>2.3044539999999998</c:v>
+                  <c:v>1.60404093</c:v>
                 </c:pt>
                 <c:pt idx="707">
-                  <c:v>2.3002449999999999</c:v>
+                  <c:v>1.600694775</c:v>
                 </c:pt>
                 <c:pt idx="708">
-                  <c:v>2.2960349999999998</c:v>
+                  <c:v>1.5973478249999999</c:v>
                 </c:pt>
                 <c:pt idx="709">
-                  <c:v>2.2918259999999999</c:v>
+                  <c:v>1.5940016700000001</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>2.287617</c:v>
+                  <c:v>1.5906555150000001</c:v>
                 </c:pt>
                 <c:pt idx="711">
-                  <c:v>2.2469779999999999</c:v>
+                  <c:v>1.5583475099999999</c:v>
                 </c:pt>
                 <c:pt idx="712">
-                  <c:v>2.1682549999999998</c:v>
+                  <c:v>1.4957627250000001</c:v>
                 </c:pt>
                 <c:pt idx="713">
-                  <c:v>2.0895320000000002</c:v>
+                  <c:v>1.4331779400000002</c:v>
                 </c:pt>
                 <c:pt idx="714">
-                  <c:v>2.0108090000000001</c:v>
+                  <c:v>1.3705931550000001</c:v>
                 </c:pt>
                 <c:pt idx="715">
-                  <c:v>1.9320850000000001</c:v>
+                  <c:v>1.3080075750000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,11 +4493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226628856"/>
-        <c:axId val="226633168"/>
+        <c:axId val="218108344"/>
+        <c:axId val="478849032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226628856"/>
+        <c:axId val="218108344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,12 +4554,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226633168"/>
+        <c:crossAx val="478849032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226633168"/>
+        <c:axId val="478849032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4616,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226628856"/>
+        <c:crossAx val="218108344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5457,7 +5457,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B721"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>3.9806089999999998</v>
+        <v>2.9365841549999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
         <v>2.503E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>4.4370079999999996</v>
+        <v>3.2994213599999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
         <v>5.0058999999999999E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>4.6583139999999998</v>
+        <v>3.4753596299999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>7.5089000000000003E-2</v>
       </c>
       <c r="B5" s="2">
-        <v>4.757606</v>
+        <v>3.5542967700000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5512,7 @@
         <v>0.100119</v>
       </c>
       <c r="B6" s="2">
-        <v>4.8568809999999996</v>
+        <v>3.6332203949999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>0.12514800000000001</v>
       </c>
       <c r="B7" s="2">
-        <v>4.9561409999999997</v>
+        <v>3.7121320949999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
         <v>0.15017800000000001</v>
       </c>
       <c r="B8" s="2">
-        <v>5.0553860000000004</v>
+        <v>3.7910318699999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>0.175208</v>
       </c>
       <c r="B9" s="2">
-        <v>5.1546139999999996</v>
+        <v>3.8699181299999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>0.200237</v>
       </c>
       <c r="B10" s="2">
-        <v>5.2538270000000002</v>
+        <v>3.9487924649999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>0.225267</v>
       </c>
       <c r="B11" s="2">
-        <v>5.3530239999999996</v>
+        <v>4.0276540800000005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>0.25029699999999999</v>
       </c>
       <c r="B12" s="2">
-        <v>5.4522050000000002</v>
+        <v>4.1065029750000006</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>0.27532600000000002</v>
       </c>
       <c r="B13" s="2">
-        <v>5.5513700000000004</v>
+        <v>4.1853391500000008</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>0.30035600000000001</v>
       </c>
       <c r="B14" s="2">
-        <v>5.6112729999999997</v>
+        <v>4.2329620349999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>0.32538600000000001</v>
       </c>
       <c r="B15" s="2">
-        <v>5.651834</v>
+        <v>4.2652080300000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>0.35041499999999998</v>
       </c>
       <c r="B16" s="2">
-        <v>5.6923779999999997</v>
+        <v>4.2974405100000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>0.37544499999999997</v>
       </c>
       <c r="B17" s="2">
-        <v>5.7329030000000003</v>
+        <v>4.3296578850000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>0.40047500000000003</v>
       </c>
       <c r="B18" s="2">
-        <v>5.7734100000000002</v>
+        <v>4.3618609500000005</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>0.42550399999999999</v>
       </c>
       <c r="B19" s="2">
-        <v>5.813898</v>
+        <v>4.3940489100000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>0.45053399999999999</v>
       </c>
       <c r="B20" s="2">
-        <v>5.854368</v>
+        <v>4.4262225600000003</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>0.47556399999999999</v>
       </c>
       <c r="B21" s="2">
-        <v>5.8948200000000002</v>
+        <v>4.4583819000000009</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>0.50059299999999995</v>
       </c>
       <c r="B22" s="2">
-        <v>5.9352530000000003</v>
+        <v>4.4905261350000005</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>0.52562299999999995</v>
       </c>
       <c r="B23" s="2">
-        <v>5.9756679999999998</v>
+        <v>4.5226560600000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
         <v>0.55065299999999995</v>
       </c>
       <c r="B24" s="2">
-        <v>5.9989179999999998</v>
+        <v>4.5411398100000007</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5664,7 +5664,7 @@
         <v>0.57568200000000003</v>
       </c>
       <c r="B25" s="2">
-        <v>6.0141530000000003</v>
+        <v>4.5532516350000005</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>0.60071200000000002</v>
       </c>
       <c r="B26" s="2">
-        <v>6.0293760000000001</v>
+        <v>4.5653539200000006</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>0.62574200000000002</v>
       </c>
       <c r="B27" s="2">
-        <v>6.0445890000000002</v>
+        <v>4.5774482550000011</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5688,7 +5688,7 @@
         <v>0.65077099999999999</v>
       </c>
       <c r="B28" s="2">
-        <v>6.0597899999999996</v>
+        <v>4.58953305</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>0.67580099999999999</v>
       </c>
       <c r="B29" s="2">
-        <v>6.0749810000000002</v>
+        <v>4.6016098950000011</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>0.70083099999999998</v>
       </c>
       <c r="B30" s="2">
-        <v>6.0901610000000002</v>
+        <v>4.6136779950000006</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,7 +5712,7 @@
         <v>0.72585999999999995</v>
       </c>
       <c r="B31" s="2">
-        <v>6.1053290000000002</v>
+        <v>4.6257365550000005</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>0.75088999999999995</v>
       </c>
       <c r="B32" s="2">
-        <v>6.1204869999999998</v>
+        <v>4.6377871650000007</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,7 +5728,7 @@
         <v>0.77592000000000005</v>
       </c>
       <c r="B33" s="2">
-        <v>6.1356339999999996</v>
+        <v>4.6498290300000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,7 +5736,7 @@
         <v>0.80094900000000002</v>
       </c>
       <c r="B34" s="2">
-        <v>6.1428830000000003</v>
+        <v>4.6555919850000009</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>0.82597900000000002</v>
       </c>
       <c r="B35" s="2">
-        <v>6.1466390000000004</v>
+        <v>4.6585780050000007</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>0.85100900000000002</v>
       </c>
       <c r="B36" s="2">
-        <v>6.1503899999999998</v>
+        <v>4.6615600500000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>0.87603799999999998</v>
       </c>
       <c r="B37" s="2">
-        <v>6.1541350000000001</v>
+        <v>4.6645373250000004</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>0.90106799999999998</v>
       </c>
       <c r="B38" s="2">
-        <v>6.1578739999999996</v>
+        <v>4.6675098300000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>0.92609799999999998</v>
       </c>
       <c r="B39" s="2">
-        <v>6.1616070000000001</v>
+        <v>4.6704775650000006</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>0.95112699999999994</v>
       </c>
       <c r="B40" s="2">
-        <v>6.1653339999999996</v>
+        <v>4.6734405300000006</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>0.97615700000000005</v>
       </c>
       <c r="B41" s="2">
-        <v>6.1690560000000003</v>
+        <v>4.6763995200000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,7 +5800,7 @@
         <v>1.001187</v>
       </c>
       <c r="B42" s="2">
-        <v>6.172771</v>
+        <v>4.6793529450000007</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>1.026216</v>
       </c>
       <c r="B43" s="2">
-        <v>6.1764809999999999</v>
+        <v>4.6823023950000007</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,7 +5816,7 @@
         <v>1.0512459999999999</v>
       </c>
       <c r="B44" s="2">
-        <v>6.1762050000000004</v>
+        <v>4.682082975000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
         <v>1.076276</v>
       </c>
       <c r="B45" s="2">
-        <v>6.1742600000000003</v>
+        <v>4.6805367000000011</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
         <v>1.1013059999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>6.1723129999999999</v>
+        <v>4.6789888350000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>1.1263350000000001</v>
       </c>
       <c r="B47" s="2">
-        <v>6.1703619999999999</v>
+        <v>4.6774377900000008</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5848,7 @@
         <v>1.151365</v>
       </c>
       <c r="B48" s="2">
-        <v>6.1684080000000003</v>
+        <v>4.6758843600000004</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>1.1763950000000001</v>
       </c>
       <c r="B49" s="2">
-        <v>6.1664519999999996</v>
+        <v>4.6743293399999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>1.201424</v>
       </c>
       <c r="B50" s="2">
-        <v>6.1644920000000001</v>
+        <v>4.6727711400000009</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>1.2264539999999999</v>
       </c>
       <c r="B51" s="2">
-        <v>6.1625290000000001</v>
+        <v>4.6712105550000009</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5880,7 @@
         <v>1.251484</v>
       </c>
       <c r="B52" s="2">
-        <v>6.1605629999999998</v>
+        <v>4.6696475849999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
         <v>1.276513</v>
       </c>
       <c r="B53" s="2">
-        <v>6.1585939999999999</v>
+        <v>4.6680822300000004</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>1.3015429999999999</v>
       </c>
       <c r="B54" s="2">
-        <v>6.1546240000000001</v>
+        <v>4.6649260800000008</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>1.326573</v>
       </c>
       <c r="B55" s="2">
-        <v>6.1498619999999997</v>
+        <v>4.6611402900000005</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>1.351602</v>
       </c>
       <c r="B56" s="2">
-        <v>6.1450979999999999</v>
+        <v>4.6573529100000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>1.3766320000000001</v>
       </c>
       <c r="B57" s="2">
-        <v>6.1403319999999999</v>
+        <v>4.6535639400000006</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>1.401662</v>
       </c>
       <c r="B58" s="2">
-        <v>6.1355639999999996</v>
+        <v>4.6497733800000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>1.4266909999999999</v>
       </c>
       <c r="B59" s="2">
-        <v>6.1307939999999999</v>
+        <v>4.6459812300000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>1.451721</v>
       </c>
       <c r="B60" s="2">
-        <v>6.1260219999999999</v>
+        <v>4.6421874900000004</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>1.4767509999999999</v>
       </c>
       <c r="B61" s="2">
-        <v>6.1212479999999996</v>
+        <v>4.6383921600000004</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>1.5017799999999999</v>
       </c>
       <c r="B62" s="2">
-        <v>6.116473</v>
+        <v>4.6345960350000004</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>1.52681</v>
       </c>
       <c r="B63" s="2">
-        <v>6.1116950000000001</v>
+        <v>4.6307975250000002</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5976,7 @@
         <v>1.5518400000000001</v>
       </c>
       <c r="B64" s="2">
-        <v>6.105308</v>
+        <v>4.6257198600000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
         <v>1.5768690000000001</v>
       </c>
       <c r="B65" s="2">
-        <v>6.0983219999999996</v>
+        <v>4.6201659900000003</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
         <v>1.601899</v>
       </c>
       <c r="B66" s="2">
-        <v>6.0913349999999999</v>
+        <v>4.6146113250000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,7 +6000,7 @@
         <v>1.6269290000000001</v>
       </c>
       <c r="B67" s="2">
-        <v>6.084346</v>
+        <v>4.6090550700000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>1.651958</v>
       </c>
       <c r="B68" s="2">
-        <v>6.077356</v>
+        <v>4.6034980200000009</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>1.6769879999999999</v>
       </c>
       <c r="B69" s="2">
-        <v>6.0703639999999996</v>
+        <v>4.5979393800000006</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>1.702018</v>
       </c>
       <c r="B70" s="2">
-        <v>6.0633720000000002</v>
+        <v>4.5923807400000003</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>1.727047</v>
       </c>
       <c r="B71" s="2">
-        <v>6.0563779999999996</v>
+        <v>4.5868205099999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>1.7520770000000001</v>
       </c>
       <c r="B72" s="2">
-        <v>6.0493829999999997</v>
+        <v>4.5812594850000004</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>1.777107</v>
       </c>
       <c r="B73" s="2">
-        <v>6.0423869999999997</v>
+        <v>4.5756976649999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>1.802136</v>
       </c>
       <c r="B74" s="2">
-        <v>6.0352560000000004</v>
+        <v>4.570028520000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>1.8271660000000001</v>
       </c>
       <c r="B75" s="2">
-        <v>6.0280779999999998</v>
+        <v>4.5643220100000006</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,7 @@
         <v>1.852196</v>
       </c>
       <c r="B76" s="2">
-        <v>6.0209000000000001</v>
+        <v>4.5586155000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
         <v>1.8772249999999999</v>
       </c>
       <c r="B77" s="2">
-        <v>6.0137210000000003</v>
+        <v>4.5529081950000005</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,7 +6088,7 @@
         <v>1.902255</v>
       </c>
       <c r="B78" s="2">
-        <v>6.0065410000000004</v>
+        <v>4.5472000950000009</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>1.9272849999999999</v>
       </c>
       <c r="B79" s="2">
-        <v>5.9993600000000002</v>
+        <v>4.5414912000000003</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
         <v>1.9523140000000001</v>
       </c>
       <c r="B80" s="2">
-        <v>5.992178</v>
+        <v>4.5357815100000005</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>1.977344</v>
       </c>
       <c r="B81" s="2">
-        <v>5.9849959999999998</v>
+        <v>4.5300718199999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>2.0023740000000001</v>
       </c>
       <c r="B82" s="2">
-        <v>5.9778130000000003</v>
+        <v>4.5243613350000009</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>2.0274030000000001</v>
       </c>
       <c r="B83" s="2">
-        <v>5.9706289999999997</v>
+        <v>4.5186500550000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,7 +6136,7 @@
         <v>2.0524330000000002</v>
       </c>
       <c r="B84" s="2">
-        <v>5.9630169999999998</v>
+        <v>4.5125985150000005</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,7 +6144,7 @@
         <v>2.0774629999999998</v>
       </c>
       <c r="B85" s="2">
-        <v>5.9552620000000003</v>
+        <v>4.5064332900000004</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>2.1024919999999998</v>
       </c>
       <c r="B86" s="2">
-        <v>5.947508</v>
+        <v>4.5002688600000003</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>2.1275219999999999</v>
       </c>
       <c r="B87" s="2">
-        <v>5.9397529999999996</v>
+        <v>4.4941036350000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>2.152552</v>
       </c>
       <c r="B88" s="2">
-        <v>5.931997</v>
+        <v>4.4879376150000008</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>2.177581</v>
       </c>
       <c r="B89" s="2">
-        <v>5.9242410000000003</v>
+        <v>4.4817715950000006</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>2.2026110000000001</v>
       </c>
       <c r="B90" s="2">
-        <v>5.9164849999999998</v>
+        <v>4.4756055750000003</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>2.2276410000000002</v>
       </c>
       <c r="B91" s="2">
-        <v>5.9087290000000001</v>
+        <v>4.469439555000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
         <v>2.2526700000000002</v>
       </c>
       <c r="B92" s="2">
-        <v>5.9009710000000002</v>
+        <v>4.4632719450000007</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,7 +6208,7 @@
         <v>2.2776999999999998</v>
       </c>
       <c r="B93" s="2">
-        <v>5.8932140000000004</v>
+        <v>4.4571051300000004</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>2.3027299999999999</v>
       </c>
       <c r="B94" s="2">
-        <v>5.8850790000000002</v>
+        <v>4.4506378050000004</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>2.3277589999999999</v>
       </c>
       <c r="B95" s="2">
-        <v>5.8768279999999997</v>
+        <v>4.4440782600000004</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>2.352789</v>
       </c>
       <c r="B96" s="2">
-        <v>5.868576</v>
+        <v>4.4375179200000003</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,7 +6240,7 @@
         <v>2.3778190000000001</v>
       </c>
       <c r="B97" s="2">
-        <v>5.8603240000000003</v>
+        <v>4.4309575800000003</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>2.4028480000000001</v>
       </c>
       <c r="B98" s="2">
-        <v>5.8520719999999997</v>
+        <v>4.4243972400000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
         <v>2.4278780000000002</v>
       </c>
       <c r="B99" s="2">
-        <v>5.84382</v>
+        <v>4.4178369000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,7 +6264,7 @@
         <v>2.4529079999999999</v>
       </c>
       <c r="B100" s="2">
-        <v>5.8355670000000002</v>
+        <v>4.411275765000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>2.4779369999999998</v>
       </c>
       <c r="B101" s="2">
-        <v>5.8273149999999996</v>
+        <v>4.404715425</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,7 +6280,7 @@
         <v>2.5029669999999999</v>
       </c>
       <c r="B102" s="2">
-        <v>5.8190619999999997</v>
+        <v>4.3981542899999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>2.527997</v>
       </c>
       <c r="B103" s="2">
-        <v>5.8108079999999998</v>
+        <v>4.3915923600000006</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>2.553026</v>
       </c>
       <c r="B104" s="2">
-        <v>5.8024279999999999</v>
+        <v>4.38493026</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
         <v>2.5780560000000001</v>
       </c>
       <c r="B105" s="2">
-        <v>5.7940100000000001</v>
+        <v>4.3782379500000008</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>2.6030859999999998</v>
       </c>
       <c r="B106" s="2">
-        <v>5.7855920000000003</v>
+        <v>4.3715456400000008</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
         <v>2.6281150000000002</v>
       </c>
       <c r="B107" s="2">
-        <v>5.7771730000000003</v>
+        <v>4.3648525350000007</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
         <v>2.6531449999999999</v>
       </c>
       <c r="B108" s="2">
-        <v>5.7687549999999996</v>
+        <v>4.3581602249999998</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>2.678175</v>
       </c>
       <c r="B109" s="2">
-        <v>5.7603359999999997</v>
+        <v>4.3514671200000006</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>2.7032039999999999</v>
       </c>
       <c r="B110" s="2">
-        <v>5.7519169999999997</v>
+        <v>4.3447740150000005</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>2.728234</v>
       </c>
       <c r="B111" s="2">
-        <v>5.7434979999999998</v>
+        <v>4.3380809100000004</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
         <v>2.7532640000000002</v>
       </c>
       <c r="B112" s="2">
-        <v>5.7350779999999997</v>
+        <v>4.3313870100000003</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>2.7782930000000001</v>
       </c>
       <c r="B113" s="2">
-        <v>5.7266589999999997</v>
+        <v>4.3246939050000002</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>2.8033229999999998</v>
       </c>
       <c r="B114" s="2">
-        <v>5.7185560000000004</v>
+        <v>4.318252020000001</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>2.8283529999999999</v>
       </c>
       <c r="B115" s="2">
-        <v>5.7105389999999998</v>
+        <v>4.3118785050000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>2.8533819999999999</v>
       </c>
       <c r="B116" s="2">
-        <v>5.7025220000000001</v>
+        <v>4.3055049900000002</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>2.878412</v>
       </c>
       <c r="B117" s="2">
-        <v>5.6945050000000004</v>
+        <v>4.2991314750000011</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
         <v>2.9034420000000001</v>
       </c>
       <c r="B118" s="2">
-        <v>5.6864879999999998</v>
+        <v>4.2927579600000003</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,7 +6416,7 @@
         <v>2.928471</v>
       </c>
       <c r="B119" s="2">
-        <v>5.6784699999999999</v>
+        <v>4.2863836500000003</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6424,7 @@
         <v>2.9535010000000002</v>
       </c>
       <c r="B120" s="2">
-        <v>5.6704530000000002</v>
+        <v>4.2800101350000004</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>2.9785309999999998</v>
       </c>
       <c r="B121" s="2">
-        <v>5.6624350000000003</v>
+        <v>4.2736358250000004</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>3.0035599999999998</v>
       </c>
       <c r="B122" s="2">
-        <v>5.6544179999999997</v>
+        <v>4.2672623100000004</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
         <v>3.0285899999999999</v>
       </c>
       <c r="B123" s="2">
-        <v>5.6463999999999999</v>
+        <v>4.2608880000000005</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>3.05362</v>
       </c>
       <c r="B124" s="2">
-        <v>5.6383460000000003</v>
+        <v>4.2544850700000003</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>3.078649</v>
       </c>
       <c r="B125" s="2">
-        <v>5.6302830000000004</v>
+        <v>4.2480749850000006</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>3.1036790000000001</v>
       </c>
       <c r="B126" s="2">
-        <v>5.6222200000000004</v>
+        <v>4.2416649000000008</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
         <v>3.1287090000000002</v>
       </c>
       <c r="B127" s="2">
-        <v>5.6141569999999996</v>
+        <v>4.2352548150000002</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,7 +6488,7 @@
         <v>3.1537380000000002</v>
       </c>
       <c r="B128" s="2">
-        <v>5.6060939999999997</v>
+        <v>4.2288447300000005</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>3.1787679999999998</v>
       </c>
       <c r="B129" s="2">
-        <v>5.5980299999999996</v>
+        <v>4.2224338499999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
         <v>3.2037979999999999</v>
       </c>
       <c r="B130" s="2">
-        <v>5.5899669999999997</v>
+        <v>4.2160237650000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>3.228828</v>
       </c>
       <c r="B131" s="2">
-        <v>5.5819029999999996</v>
+        <v>4.2096128850000003</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6520,7 +6520,7 @@
         <v>3.253857</v>
       </c>
       <c r="B132" s="2">
-        <v>5.5738390000000004</v>
+        <v>4.2032020050000005</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6528,7 +6528,7 @@
         <v>3.2788870000000001</v>
       </c>
       <c r="B133" s="2">
-        <v>5.5657750000000004</v>
+        <v>4.1967911250000007</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>3.3039170000000002</v>
       </c>
       <c r="B134" s="2">
-        <v>5.5575650000000003</v>
+        <v>4.1902641750000011</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
         <v>3.3289460000000002</v>
       </c>
       <c r="B135" s="2">
-        <v>5.5493209999999999</v>
+        <v>4.1837101950000006</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>3.3539759999999998</v>
       </c>
       <c r="B136" s="2">
-        <v>5.5410769999999996</v>
+        <v>4.1771562150000001</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>3.379006</v>
       </c>
       <c r="B137" s="2">
-        <v>5.5328330000000001</v>
+        <v>4.1706022350000005</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>3.4040349999999999</v>
       </c>
       <c r="B138" s="2">
-        <v>5.5245879999999996</v>
+        <v>4.1640474599999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
         <v>3.429065</v>
       </c>
       <c r="B139" s="2">
-        <v>5.5163440000000001</v>
+        <v>4.1574934800000003</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,7 +6584,7 @@
         <v>3.4540950000000001</v>
       </c>
       <c r="B140" s="2">
-        <v>5.5080989999999996</v>
+        <v>4.1509387049999997</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>3.4791240000000001</v>
       </c>
       <c r="B141" s="2">
-        <v>5.4998550000000002</v>
+        <v>4.144384725000001</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>3.5041540000000002</v>
       </c>
       <c r="B142" s="2">
-        <v>5.4916099999999997</v>
+        <v>4.1378299500000004</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6608,7 +6608,7 @@
         <v>3.5291839999999999</v>
       </c>
       <c r="B143" s="2">
-        <v>5.4833660000000002</v>
+        <v>4.1312759700000008</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>3.5542129999999998</v>
       </c>
       <c r="B144" s="2">
-        <v>5.474901</v>
+        <v>4.1245462950000009</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
         <v>3.579243</v>
       </c>
       <c r="B145" s="2">
-        <v>5.4663880000000002</v>
+        <v>4.1177784600000003</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>3.6042730000000001</v>
       </c>
       <c r="B146" s="2">
-        <v>5.4578759999999997</v>
+        <v>4.1110114200000005</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>3.629302</v>
       </c>
       <c r="B147" s="2">
-        <v>5.449363</v>
+        <v>4.1042435850000007</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>3.6543320000000001</v>
       </c>
       <c r="B148" s="2">
-        <v>5.4408510000000003</v>
+        <v>4.097476545000001</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>3.6793619999999998</v>
       </c>
       <c r="B149" s="2">
-        <v>5.4323379999999997</v>
+        <v>4.0907087100000004</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>3.7043910000000002</v>
       </c>
       <c r="B150" s="2">
-        <v>5.423826</v>
+        <v>4.0839416700000006</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>3.7294209999999999</v>
       </c>
       <c r="B151" s="2">
-        <v>5.4153130000000003</v>
+        <v>4.0771738350000009</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>3.754451</v>
       </c>
       <c r="B152" s="2">
-        <v>5.4067999999999996</v>
+        <v>4.0704060000000002</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>3.77948</v>
       </c>
       <c r="B153" s="2">
-        <v>5.398288</v>
+        <v>4.0636389600000005</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>3.8045100000000001</v>
       </c>
       <c r="B154" s="2">
-        <v>5.3901479999999999</v>
+        <v>4.0571676600000002</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>3.8295400000000002</v>
       </c>
       <c r="B155" s="2">
-        <v>5.3820819999999996</v>
+        <v>4.0507551900000003</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>3.8545690000000001</v>
       </c>
       <c r="B156" s="2">
-        <v>5.3740160000000001</v>
+        <v>4.0443427200000004</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>3.8795989999999998</v>
       </c>
       <c r="B157" s="2">
-        <v>5.3659509999999999</v>
+        <v>4.0379310450000006</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>3.9046289999999999</v>
       </c>
       <c r="B158" s="2">
-        <v>5.3578849999999996</v>
+        <v>4.0315185749999998</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>3.9296579999999999</v>
       </c>
       <c r="B159" s="2">
-        <v>5.3498190000000001</v>
+        <v>4.0251061050000008</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
         <v>3.954688</v>
       </c>
       <c r="B160" s="2">
-        <v>5.3417529999999998</v>
+        <v>4.018693635</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>3.9797180000000001</v>
       </c>
       <c r="B161" s="2">
-        <v>5.3336870000000003</v>
+        <v>4.012281165000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>4.0047470000000001</v>
       </c>
       <c r="B162" s="2">
-        <v>5.3256209999999999</v>
+        <v>4.0058686950000002</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6768,7 +6768,7 @@
         <v>4.0297770000000002</v>
       </c>
       <c r="B163" s="2">
-        <v>5.3175549999999996</v>
+        <v>3.9994562249999999</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
         <v>4.0548070000000003</v>
       </c>
       <c r="B164" s="2">
-        <v>5.3097649999999996</v>
+        <v>3.9932631749999996</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,7 +6784,7 @@
         <v>4.0798360000000002</v>
       </c>
       <c r="B165" s="2">
-        <v>5.3020240000000003</v>
+        <v>3.9871090800000002</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>4.1048660000000003</v>
       </c>
       <c r="B166" s="2">
-        <v>5.2942840000000002</v>
+        <v>3.9809557799999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
         <v>4.1298959999999996</v>
       </c>
       <c r="B167" s="2">
-        <v>5.286543</v>
+        <v>3.9748016849999996</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
         <v>4.1549250000000004</v>
       </c>
       <c r="B168" s="2">
-        <v>5.2788029999999999</v>
+        <v>3.9686483850000003</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
         <v>4.1799549999999996</v>
       </c>
       <c r="B169" s="2">
-        <v>5.2710629999999998</v>
+        <v>3.962495085</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>4.2049849999999998</v>
       </c>
       <c r="B170" s="2">
-        <v>5.2633219999999996</v>
+        <v>3.9563409899999997</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
         <v>4.2300139999999997</v>
       </c>
       <c r="B171" s="2">
-        <v>5.2555820000000004</v>
+        <v>3.9501876900000004</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
         <v>4.2550439999999998</v>
       </c>
       <c r="B172" s="2">
-        <v>5.2478410000000002</v>
+        <v>3.9440335950000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>4.2800739999999999</v>
       </c>
       <c r="B173" s="2">
-        <v>5.2401010000000001</v>
+        <v>3.9378802949999998</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>4.3051029999999999</v>
       </c>
       <c r="B174" s="2">
-        <v>5.2322569999999997</v>
+        <v>3.9316443150000002</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>4.330133</v>
       </c>
       <c r="B175" s="2">
-        <v>5.2243950000000003</v>
+        <v>3.9253940250000006</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>4.3551630000000001</v>
       </c>
       <c r="B176" s="2">
-        <v>5.2165340000000002</v>
+        <v>3.9191445300000001</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,7 +6880,7 @@
         <v>4.3801920000000001</v>
       </c>
       <c r="B177" s="2">
-        <v>5.2086730000000001</v>
+        <v>3.9128950350000005</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6888,7 +6888,7 @@
         <v>4.4052220000000002</v>
       </c>
       <c r="B178" s="2">
-        <v>5.2008109999999999</v>
+        <v>3.9066447449999999</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>4.4302520000000003</v>
       </c>
       <c r="B179" s="2">
-        <v>5.1929499999999997</v>
+        <v>3.9003952499999994</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>4.4552810000000003</v>
       </c>
       <c r="B180" s="2">
-        <v>5.1850889999999996</v>
+        <v>3.8941457549999998</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>4.4803110000000004</v>
       </c>
       <c r="B181" s="2">
-        <v>5.1772270000000002</v>
+        <v>3.8878954650000002</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,7 +6920,7 @@
         <v>4.5053409999999996</v>
       </c>
       <c r="B182" s="2">
-        <v>5.1693660000000001</v>
+        <v>3.8816459699999997</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,7 +6928,7 @@
         <v>4.5303699999999996</v>
       </c>
       <c r="B183" s="2">
-        <v>5.161505</v>
+        <v>3.8753964750000001</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>4.5553999999999997</v>
       </c>
       <c r="B184" s="2">
-        <v>5.1535229999999999</v>
+        <v>3.8690507850000002</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
         <v>4.5804299999999998</v>
       </c>
       <c r="B185" s="2">
-        <v>5.145524</v>
+        <v>3.8626915800000003</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
         <v>4.6054589999999997</v>
       </c>
       <c r="B186" s="2">
-        <v>5.1375250000000001</v>
+        <v>3.8563323750000005</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>4.6304889999999999</v>
       </c>
       <c r="B187" s="2">
-        <v>5.1295260000000003</v>
+        <v>3.8499731700000006</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6968,7 +6968,7 @@
         <v>4.655519</v>
       </c>
       <c r="B188" s="2">
-        <v>5.1215279999999996</v>
+        <v>3.8436147599999999</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,7 +6976,7 @@
         <v>4.6805479999999999</v>
       </c>
       <c r="B189" s="2">
-        <v>5.1135289999999998</v>
+        <v>3.837255555</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
         <v>4.705578</v>
       </c>
       <c r="B190" s="2">
-        <v>5.1055299999999999</v>
+        <v>3.8308963500000002</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>4.7306080000000001</v>
       </c>
       <c r="B191" s="2">
-        <v>5.0975320000000002</v>
+        <v>3.8245379400000004</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
         <v>4.7556370000000001</v>
       </c>
       <c r="B192" s="2">
-        <v>5.0895330000000003</v>
+        <v>3.8181787350000005</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>4.7806670000000002</v>
       </c>
       <c r="B193" s="2">
-        <v>5.0815349999999997</v>
+        <v>3.8118203249999998</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>4.8056970000000003</v>
       </c>
       <c r="B194" s="2">
-        <v>5.0741050000000003</v>
+        <v>3.8059134750000001</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>4.8307260000000003</v>
       </c>
       <c r="B195" s="2">
-        <v>5.0667520000000001</v>
+        <v>3.8000678400000001</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>4.8557560000000004</v>
       </c>
       <c r="B196" s="2">
-        <v>5.059399</v>
+        <v>3.7942222050000001</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
         <v>4.8807859999999996</v>
       </c>
       <c r="B197" s="2">
-        <v>5.0520459999999998</v>
+        <v>3.7883765700000001</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>4.9058149999999996</v>
       </c>
       <c r="B198" s="2">
-        <v>5.0446939999999998</v>
+        <v>3.7825317300000001</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7056,7 +7056,7 @@
         <v>4.9308449999999997</v>
       </c>
       <c r="B199" s="2">
-        <v>5.0373409999999996</v>
+        <v>3.7766860950000001</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>4.9558749999999998</v>
       </c>
       <c r="B200" s="2">
-        <v>5.0299880000000003</v>
+        <v>3.7708404600000001</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>4.9809039999999998</v>
       </c>
       <c r="B201" s="2">
-        <v>5.0226360000000003</v>
+        <v>3.7649956200000001</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
         <v>5.0059339999999999</v>
       </c>
       <c r="B202" s="2">
-        <v>5.0152830000000002</v>
+        <v>3.7591499850000001</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,7 +7088,7 @@
         <v>5.030964</v>
       </c>
       <c r="B203" s="2">
-        <v>5.0079310000000001</v>
+        <v>3.7533051450000001</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7096,7 @@
         <v>5.055993</v>
       </c>
       <c r="B204" s="2">
-        <v>5.0009199999999998</v>
+        <v>3.7477313999999997</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
         <v>5.0810230000000001</v>
       </c>
       <c r="B205" s="2">
-        <v>4.9939499999999999</v>
+        <v>3.7421902499999997</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,7 +7112,7 @@
         <v>5.1060530000000002</v>
       </c>
       <c r="B206" s="2">
-        <v>4.9869810000000001</v>
+        <v>3.7366498950000002</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>5.1310820000000001</v>
       </c>
       <c r="B207" s="2">
-        <v>4.9800110000000002</v>
+        <v>3.7311087450000002</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>5.1561120000000003</v>
       </c>
       <c r="B208" s="2">
-        <v>4.9730420000000004</v>
+        <v>3.7255683900000003</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>5.1811420000000004</v>
       </c>
       <c r="B209" s="2">
-        <v>4.9660719999999996</v>
+        <v>3.7200272399999998</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>5.2061710000000003</v>
       </c>
       <c r="B210" s="2">
-        <v>4.9591019999999997</v>
+        <v>3.7144860899999999</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
         <v>5.2312010000000004</v>
       </c>
       <c r="B211" s="2">
-        <v>4.9521329999999999</v>
+        <v>3.7089457349999999</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>5.2562309999999997</v>
       </c>
       <c r="B212" s="2">
-        <v>4.945163</v>
+        <v>3.7034045849999999</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>5.2812599999999996</v>
       </c>
       <c r="B213" s="2">
-        <v>4.9381940000000002</v>
+        <v>3.69786423</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
         <v>5.3062899999999997</v>
       </c>
       <c r="B214" s="2">
-        <v>4.9312100000000001</v>
+        <v>3.6923119500000001</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
         <v>5.3313199999999998</v>
       </c>
       <c r="B215" s="2">
-        <v>4.924226</v>
+        <v>3.6867596699999998</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>5.3563499999999999</v>
       </c>
       <c r="B216" s="2">
-        <v>4.9172419999999999</v>
+        <v>3.68120739</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
         <v>5.3813789999999999</v>
       </c>
       <c r="B217" s="2">
-        <v>4.9102579999999998</v>
+        <v>3.6756551099999997</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7208,7 +7208,7 @@
         <v>5.406409</v>
       </c>
       <c r="B218" s="2">
-        <v>4.9032739999999997</v>
+        <v>3.6701028299999998</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>5.4314390000000001</v>
       </c>
       <c r="B219" s="2">
-        <v>4.8962899999999996</v>
+        <v>3.6645505499999995</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7224,7 +7224,7 @@
         <v>5.4564680000000001</v>
       </c>
       <c r="B220" s="2">
-        <v>4.8893069999999996</v>
+        <v>3.6589990649999997</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>5.4814980000000002</v>
       </c>
       <c r="B221" s="2">
-        <v>4.8823239999999997</v>
+        <v>3.6534475799999999</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7240,7 +7240,7 @@
         <v>5.5065280000000003</v>
       </c>
       <c r="B222" s="2">
-        <v>4.8753399999999996</v>
+        <v>3.6478952999999996</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
         <v>5.5315570000000003</v>
       </c>
       <c r="B223" s="2">
-        <v>4.8683569999999996</v>
+        <v>3.6423438149999998</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>5.5565870000000004</v>
       </c>
       <c r="B224" s="2">
-        <v>4.8615389999999996</v>
+        <v>3.6369235049999995</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
         <v>5.5816169999999996</v>
       </c>
       <c r="B225" s="2">
-        <v>4.8547349999999998</v>
+        <v>3.6315143249999999</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>5.6066459999999996</v>
       </c>
       <c r="B226" s="2">
-        <v>4.847931</v>
+        <v>3.6261051449999999</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7280,7 +7280,7 @@
         <v>5.6316759999999997</v>
       </c>
       <c r="B227" s="2">
-        <v>4.8411270000000002</v>
+        <v>3.6206959650000003</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7288,7 +7288,7 @@
         <v>5.6567059999999998</v>
       </c>
       <c r="B228" s="2">
-        <v>4.8343230000000004</v>
+        <v>3.6152867850000003</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,7 +7296,7 @@
         <v>5.6817349999999998</v>
       </c>
       <c r="B229" s="2">
-        <v>4.8275180000000004</v>
+        <v>3.6098768100000003</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>5.7067649999999999</v>
       </c>
       <c r="B230" s="2">
-        <v>4.8207139999999997</v>
+        <v>3.6044676299999998</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
         <v>5.731795</v>
       </c>
       <c r="B231" s="2">
-        <v>4.8139099999999999</v>
+        <v>3.5990584499999998</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>5.7568239999999999</v>
       </c>
       <c r="B232" s="2">
-        <v>4.807105</v>
+        <v>3.5936484750000002</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>5.781854</v>
       </c>
       <c r="B233" s="2">
-        <v>4.8003010000000002</v>
+        <v>3.5882392950000002</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
         <v>5.8068840000000002</v>
       </c>
       <c r="B234" s="2">
-        <v>4.7933349999999999</v>
+        <v>3.5827013249999999</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
         <v>5.8319130000000001</v>
       </c>
       <c r="B235" s="2">
-        <v>4.7863569999999998</v>
+        <v>3.577153815</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>5.8569430000000002</v>
       </c>
       <c r="B236" s="2">
-        <v>4.7793780000000003</v>
+        <v>3.5716055100000004</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,7 +7360,7 @@
         <v>5.8819730000000003</v>
       </c>
       <c r="B237" s="2">
-        <v>4.7724000000000002</v>
+        <v>3.566058</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
         <v>5.9070020000000003</v>
       </c>
       <c r="B238" s="2">
-        <v>4.7654209999999999</v>
+        <v>3.5605096949999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>5.9320320000000004</v>
       </c>
       <c r="B239" s="2">
-        <v>4.7584419999999996</v>
+        <v>3.5549613899999999</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7384,7 +7384,7 @@
         <v>5.9570619999999996</v>
       </c>
       <c r="B240" s="2">
-        <v>4.7514630000000002</v>
+        <v>3.5494130850000003</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
         <v>5.9820909999999996</v>
       </c>
       <c r="B241" s="2">
-        <v>4.7444839999999999</v>
+        <v>3.5438647799999998</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7400,7 +7400,7 @@
         <v>6.0071209999999997</v>
       </c>
       <c r="B242" s="2">
-        <v>4.7375049999999996</v>
+        <v>3.5383164749999998</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7408,7 +7408,7 @@
         <v>6.0321509999999998</v>
       </c>
       <c r="B243" s="2">
-        <v>4.7305250000000001</v>
+        <v>3.5327673750000002</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
         <v>6.0571799999999998</v>
       </c>
       <c r="B244" s="2">
-        <v>4.7235069999999997</v>
+        <v>3.5271880649999998</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>6.0822099999999999</v>
       </c>
       <c r="B245" s="2">
-        <v>4.7164869999999999</v>
+        <v>3.5216071649999998</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7432,7 @@
         <v>6.10724</v>
       </c>
       <c r="B246" s="2">
-        <v>4.7094659999999999</v>
+        <v>3.5160254699999998</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
         <v>6.132269</v>
       </c>
       <c r="B247" s="2">
-        <v>4.7024460000000001</v>
+        <v>3.5104445700000002</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,7 +7448,7 @@
         <v>6.1572990000000001</v>
       </c>
       <c r="B248" s="2">
-        <v>4.6954260000000003</v>
+        <v>3.5048636700000002</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7456,7 +7456,7 @@
         <v>6.1823290000000002</v>
       </c>
       <c r="B249" s="2">
-        <v>4.6884050000000004</v>
+        <v>3.4992819750000002</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7464,7 @@
         <v>6.2073580000000002</v>
       </c>
       <c r="B250" s="2">
-        <v>4.6813849999999997</v>
+        <v>3.4937010749999997</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7472,7 +7472,7 @@
         <v>6.2323880000000003</v>
       </c>
       <c r="B251" s="2">
-        <v>4.6743649999999999</v>
+        <v>3.4881201749999997</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
         <v>6.2574180000000004</v>
       </c>
       <c r="B252" s="2">
-        <v>4.6673439999999999</v>
+        <v>3.4825384800000001</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,7 @@
         <v>6.2824470000000003</v>
       </c>
       <c r="B253" s="2">
-        <v>4.6603240000000001</v>
+        <v>3.4769575800000001</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,7 +7496,7 @@
         <v>6.3074770000000004</v>
       </c>
       <c r="B254" s="2">
-        <v>4.6532840000000002</v>
+        <v>3.4713607799999999</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,7 +7504,7 @@
         <v>6.3325069999999997</v>
       </c>
       <c r="B255" s="2">
-        <v>4.646242</v>
+        <v>3.4657623900000001</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>6.3575359999999996</v>
       </c>
       <c r="B256" s="2">
-        <v>4.6392009999999999</v>
+        <v>3.4601647949999998</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7520,7 +7520,7 @@
         <v>6.3825659999999997</v>
       </c>
       <c r="B257" s="2">
-        <v>4.6321599999999998</v>
+        <v>3.4545672000000001</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
         <v>6.4075959999999998</v>
       </c>
       <c r="B258" s="2">
-        <v>4.6251179999999996</v>
+        <v>3.4489688099999998</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>6.4326249999999998</v>
       </c>
       <c r="B259" s="2">
-        <v>4.6180770000000004</v>
+        <v>3.4433712150000004</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
         <v>6.4576549999999999</v>
       </c>
       <c r="B260" s="2">
-        <v>4.6110360000000004</v>
+        <v>3.4377736200000002</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>6.482685</v>
       </c>
       <c r="B261" s="2">
-        <v>4.6039940000000001</v>
+        <v>3.4321752299999999</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7560,7 +7560,7 @@
         <v>6.507714</v>
       </c>
       <c r="B262" s="2">
-        <v>4.5969530000000001</v>
+        <v>3.4265776350000001</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
         <v>6.5327440000000001</v>
       </c>
       <c r="B263" s="2">
-        <v>4.5899109999999999</v>
+        <v>3.4209792449999998</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
         <v>6.5577740000000002</v>
       </c>
       <c r="B264" s="2">
-        <v>4.5830089999999997</v>
+        <v>3.4154921549999999</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
         <v>6.5828030000000002</v>
       </c>
       <c r="B265" s="2">
-        <v>4.5761120000000002</v>
+        <v>3.4100090400000003</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
         <v>6.6078330000000003</v>
       </c>
       <c r="B266" s="2">
-        <v>4.5692159999999999</v>
+        <v>3.4045267199999998</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
         <v>6.6328630000000004</v>
       </c>
       <c r="B267" s="2">
-        <v>4.5623199999999997</v>
+        <v>3.3990443999999997</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,7 +7608,7 @@
         <v>6.6578920000000004</v>
       </c>
       <c r="B268" s="2">
-        <v>4.5554230000000002</v>
+        <v>3.3935612850000001</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>6.6829219999999996</v>
       </c>
       <c r="B269" s="2">
-        <v>4.548527</v>
+        <v>3.3880789650000001</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
         <v>6.7079519999999997</v>
       </c>
       <c r="B270" s="2">
-        <v>4.5416319999999999</v>
+        <v>3.3825974400000001</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>6.7329809999999997</v>
       </c>
       <c r="B271" s="2">
-        <v>4.5347359999999997</v>
+        <v>3.3771151199999996</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,7 +7640,7 @@
         <v>6.7580109999999998</v>
       </c>
       <c r="B272" s="2">
-        <v>4.5278400000000003</v>
+        <v>3.3716328000000004</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7648,7 @@
         <v>6.7830409999999999</v>
       </c>
       <c r="B273" s="2">
-        <v>4.5209450000000002</v>
+        <v>3.366151275</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7656,7 +7656,7 @@
         <v>6.8080699999999998</v>
       </c>
       <c r="B274" s="2">
-        <v>4.514284</v>
+        <v>3.3608557800000001</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,7 +7664,7 @@
         <v>6.8331</v>
       </c>
       <c r="B275" s="2">
-        <v>4.5076289999999997</v>
+        <v>3.3555650549999996</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7672,7 +7672,7 @@
         <v>6.8581300000000001</v>
       </c>
       <c r="B276" s="2">
-        <v>4.5009740000000003</v>
+        <v>3.35027433</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7680,7 +7680,7 @@
         <v>6.883159</v>
       </c>
       <c r="B277" s="2">
-        <v>4.4943179999999998</v>
+        <v>3.3449828099999999</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>6.9081890000000001</v>
       </c>
       <c r="B278" s="2">
-        <v>4.4876630000000004</v>
+        <v>3.3396920850000003</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7696,7 +7696,7 @@
         <v>6.9332190000000002</v>
       </c>
       <c r="B279" s="2">
-        <v>4.4810080000000001</v>
+        <v>3.3344013600000002</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>6.9582480000000002</v>
       </c>
       <c r="B280" s="2">
-        <v>4.4743519999999997</v>
+        <v>3.3291098399999997</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7712,7 +7712,7 @@
         <v>6.9832780000000003</v>
       </c>
       <c r="B281" s="2">
-        <v>4.4676970000000003</v>
+        <v>3.323819115</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>7.0083080000000004</v>
       </c>
       <c r="B282" s="2">
-        <v>4.461042</v>
+        <v>3.31852839</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7728,7 +7728,7 @@
         <v>7.0333370000000004</v>
       </c>
       <c r="B283" s="2">
-        <v>4.4543860000000004</v>
+        <v>3.3132368700000003</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
         <v>7.0583669999999996</v>
       </c>
       <c r="B284" s="2">
-        <v>4.4480370000000002</v>
+        <v>3.3081894150000002</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>7.0833969999999997</v>
       </c>
       <c r="B285" s="2">
-        <v>4.4416929999999999</v>
+        <v>3.3031459349999999</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>7.1084259999999997</v>
       </c>
       <c r="B286" s="2">
-        <v>4.4353480000000003</v>
+        <v>3.2981016600000004</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7760,7 +7760,7 @@
         <v>7.1334559999999998</v>
       </c>
       <c r="B287" s="2">
-        <v>4.4290039999999999</v>
+        <v>3.2930581800000001</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
         <v>7.1584859999999999</v>
       </c>
       <c r="B288" s="2">
-        <v>4.4226599999999996</v>
+        <v>3.2880146999999997</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7776,7 +7776,7 @@
         <v>7.1835149999999999</v>
       </c>
       <c r="B289" s="2">
-        <v>4.416315</v>
+        <v>3.2829704249999998</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>7.208545</v>
       </c>
       <c r="B290" s="2">
-        <v>4.4099709999999996</v>
+        <v>3.2779269449999995</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>7.2335750000000001</v>
       </c>
       <c r="B291" s="2">
-        <v>4.403626</v>
+        <v>3.27288267</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,7 +7800,7 @@
         <v>7.2586040000000001</v>
       </c>
       <c r="B292" s="2">
-        <v>4.3972810000000004</v>
+        <v>3.2678383950000005</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7808,7 +7808,7 @@
         <v>7.2836340000000002</v>
       </c>
       <c r="B293" s="2">
-        <v>4.3909370000000001</v>
+        <v>3.2627949150000002</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>7.3086640000000003</v>
       </c>
       <c r="B294" s="2">
-        <v>4.3844709999999996</v>
+        <v>3.2576544449999996</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
         <v>7.3336930000000002</v>
       </c>
       <c r="B295" s="2">
-        <v>4.3780039999999998</v>
+        <v>3.2525131799999998</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
         <v>7.3587230000000003</v>
       </c>
       <c r="B296" s="2">
-        <v>4.3715380000000001</v>
+        <v>3.2473727100000001</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7840,7 +7840,7 @@
         <v>7.3837529999999996</v>
       </c>
       <c r="B297" s="2">
-        <v>4.3650710000000004</v>
+        <v>3.2422314450000003</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,7 +7848,7 @@
         <v>7.4087820000000004</v>
       </c>
       <c r="B298" s="2">
-        <v>4.3586049999999998</v>
+        <v>3.2370909749999996</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>7.4338119999999996</v>
       </c>
       <c r="B299" s="2">
-        <v>4.3521380000000001</v>
+        <v>3.2319497099999999</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7864,7 @@
         <v>7.4588419999999998</v>
       </c>
       <c r="B300" s="2">
-        <v>4.3456720000000004</v>
+        <v>3.2268092400000001</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
         <v>7.4838709999999997</v>
       </c>
       <c r="B301" s="2">
-        <v>4.3392049999999998</v>
+        <v>3.2216679749999999</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
         <v>7.5089009999999998</v>
       </c>
       <c r="B302" s="2">
-        <v>4.3327390000000001</v>
+        <v>3.2165275050000002</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7888,7 +7888,7 @@
         <v>7.5339309999999999</v>
       </c>
       <c r="B303" s="2">
-        <v>4.3262689999999999</v>
+        <v>3.2113838549999998</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7896,7 +7896,7 @@
         <v>7.558961</v>
       </c>
       <c r="B304" s="2">
-        <v>4.3194319999999999</v>
+        <v>3.2059484399999998</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>7.58399</v>
       </c>
       <c r="B305" s="2">
-        <v>4.312595</v>
+        <v>3.2005130249999998</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7912,7 +7912,7 @@
         <v>7.6090200000000001</v>
       </c>
       <c r="B306" s="2">
-        <v>4.305758</v>
+        <v>3.1950776099999998</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,7 +7920,7 @@
         <v>7.6340500000000002</v>
       </c>
       <c r="B307" s="2">
-        <v>4.298921</v>
+        <v>3.1896421949999998</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7928,7 +7928,7 @@
         <v>7.6590790000000002</v>
       </c>
       <c r="B308" s="2">
-        <v>4.292084</v>
+        <v>3.1842067799999998</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7936,7 +7936,7 @@
         <v>7.6841090000000003</v>
       </c>
       <c r="B309" s="2">
-        <v>4.285247</v>
+        <v>3.1787713649999998</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,7 +7944,7 @@
         <v>7.7091390000000004</v>
       </c>
       <c r="B310" s="2">
-        <v>4.2784089999999999</v>
+        <v>3.1733351549999997</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>7.7341680000000004</v>
       </c>
       <c r="B311" s="2">
-        <v>4.2715719999999999</v>
+        <v>3.1678997399999997</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
         <v>7.7591979999999996</v>
       </c>
       <c r="B312" s="2">
-        <v>4.2647339999999998</v>
+        <v>3.1624635299999997</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>7.7842279999999997</v>
       </c>
       <c r="B313" s="2">
-        <v>4.2579029999999998</v>
+        <v>3.1570328849999996</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7976,7 +7976,7 @@
         <v>7.8092569999999997</v>
       </c>
       <c r="B314" s="2">
-        <v>4.2513560000000004</v>
+        <v>3.1518280200000004</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>7.8342869999999998</v>
       </c>
       <c r="B315" s="2">
-        <v>4.2448090000000001</v>
+        <v>3.1466231549999999</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>7.8593169999999999</v>
       </c>
       <c r="B316" s="2">
-        <v>4.2382629999999999</v>
+        <v>3.1414190849999999</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8000,7 +8000,7 @@
         <v>7.8843459999999999</v>
       </c>
       <c r="B317" s="2">
-        <v>4.2317159999999996</v>
+        <v>3.1362142199999998</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8008,7 +8008,7 @@
         <v>7.909376</v>
       </c>
       <c r="B318" s="2">
-        <v>4.2251700000000003</v>
+        <v>3.1310101500000003</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>7.9344060000000001</v>
       </c>
       <c r="B319" s="2">
-        <v>4.218623</v>
+        <v>3.1258052849999998</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8024,7 +8024,7 @@
         <v>7.959435</v>
       </c>
       <c r="B320" s="2">
-        <v>4.2120769999999998</v>
+        <v>3.1206012149999998</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>7.9844650000000001</v>
       </c>
       <c r="B321" s="2">
-        <v>4.2055309999999997</v>
+        <v>3.1153971449999998</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8040,7 +8040,7 @@
         <v>8.0094949999999994</v>
       </c>
       <c r="B322" s="2">
-        <v>4.1989840000000003</v>
+        <v>3.1101922800000001</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,7 +8048,7 @@
         <v>8.0345239999999993</v>
       </c>
       <c r="B323" s="2">
-        <v>4.1924479999999997</v>
+        <v>3.1049961599999998</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
         <v>8.0595540000000003</v>
       </c>
       <c r="B324" s="2">
-        <v>4.1862120000000003</v>
+        <v>3.1000385400000003</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8064,7 +8064,7 @@
         <v>8.0845839999999995</v>
       </c>
       <c r="B325" s="2">
-        <v>4.1799749999999998</v>
+        <v>3.095080125</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>8.1096129999999995</v>
       </c>
       <c r="B326" s="2">
-        <v>4.1737390000000003</v>
+        <v>3.0901225050000001</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,7 +8080,7 @@
         <v>8.1346430000000005</v>
       </c>
       <c r="B327" s="2">
-        <v>4.1675019999999998</v>
+        <v>3.0851640899999997</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8088,7 +8088,7 @@
         <v>8.1596729999999997</v>
       </c>
       <c r="B328" s="2">
-        <v>4.1612660000000004</v>
+        <v>3.0802064700000003</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,7 +8096,7 @@
         <v>8.1847019999999997</v>
       </c>
       <c r="B329" s="2">
-        <v>4.15503</v>
+        <v>3.0752488499999999</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,7 +8104,7 @@
         <v>8.2097320000000007</v>
       </c>
       <c r="B330" s="2">
-        <v>4.1487939999999996</v>
+        <v>3.0702912299999996</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8112,7 +8112,7 @@
         <v>8.2347619999999999</v>
       </c>
       <c r="B331" s="2">
-        <v>4.1425580000000002</v>
+        <v>3.0653336100000002</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>8.2597909999999999</v>
       </c>
       <c r="B332" s="2">
-        <v>4.1363219999999998</v>
+        <v>3.0603759899999998</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +8128,7 @@
         <v>8.2848210000000009</v>
       </c>
       <c r="B333" s="2">
-        <v>4.13009</v>
+        <v>3.0554215500000002</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
         <v>8.3098510000000001</v>
       </c>
       <c r="B334" s="2">
-        <v>4.1239340000000002</v>
+        <v>3.0505275300000001</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
         <v>8.3348800000000001</v>
       </c>
       <c r="B335" s="2">
-        <v>4.1177780000000004</v>
+        <v>3.0456335100000005</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>8.3599099999999993</v>
       </c>
       <c r="B336" s="2">
-        <v>4.1116210000000004</v>
+        <v>3.0407386950000004</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>8.3849400000000003</v>
       </c>
       <c r="B337" s="2">
-        <v>4.1054649999999997</v>
+        <v>3.0358446749999999</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,7 +8168,7 @@
         <v>8.4099690000000002</v>
       </c>
       <c r="B338" s="2">
-        <v>4.0993089999999999</v>
+        <v>3.0309506549999998</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8176,7 +8176,7 @@
         <v>8.4349989999999995</v>
       </c>
       <c r="B339" s="2">
-        <v>4.093153</v>
+        <v>3.0260566349999998</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,7 +8184,7 @@
         <v>8.4600290000000005</v>
       </c>
       <c r="B340" s="2">
-        <v>4.0869960000000001</v>
+        <v>3.0211618200000001</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>8.4850580000000004</v>
       </c>
       <c r="B341" s="2">
-        <v>4.0808400000000002</v>
+        <v>3.0162678000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8200,7 +8200,7 @@
         <v>8.5100879999999997</v>
       </c>
       <c r="B342" s="2">
-        <v>4.0746840000000004</v>
+        <v>3.0113737800000004</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>8.5351180000000006</v>
       </c>
       <c r="B343" s="2">
-        <v>4.0685370000000001</v>
+        <v>3.006486915</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>8.5601470000000006</v>
       </c>
       <c r="B344" s="2">
-        <v>4.0625479999999996</v>
+        <v>3.0017256599999995</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8224,7 +8224,7 @@
         <v>8.5851769999999998</v>
       </c>
       <c r="B345" s="2">
-        <v>4.0565600000000002</v>
+        <v>2.9969652</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
         <v>8.6102070000000008</v>
       </c>
       <c r="B346" s="2">
-        <v>4.0505719999999998</v>
+        <v>2.99220474</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8240,7 +8240,7 @@
         <v>8.6352360000000008</v>
       </c>
       <c r="B347" s="2">
-        <v>4.0445840000000004</v>
+        <v>2.9874442800000001</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>8.660266</v>
       </c>
       <c r="B348" s="2">
-        <v>4.0385960000000001</v>
+        <v>2.9826838200000001</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8256,7 +8256,7 @@
         <v>8.6852959999999992</v>
       </c>
       <c r="B349" s="2">
-        <v>4.0326079999999997</v>
+        <v>2.9779233599999997</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8264,7 @@
         <v>8.7103249999999992</v>
       </c>
       <c r="B350" s="2">
-        <v>4.0266200000000003</v>
+        <v>2.9731629000000002</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
         <v>8.7353550000000002</v>
       </c>
       <c r="B351" s="2">
-        <v>4.0206309999999998</v>
+        <v>2.9684016449999997</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
         <v>8.7603849999999994</v>
       </c>
       <c r="B352" s="2">
-        <v>4.0146430000000004</v>
+        <v>2.9636411850000002</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,7 +8288,7 @@
         <v>8.7854139999999994</v>
       </c>
       <c r="B353" s="2">
-        <v>4.0086519999999997</v>
+        <v>2.9588783399999996</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8296,7 +8296,7 @@
         <v>8.8104440000000004</v>
       </c>
       <c r="B354" s="2">
-        <v>4.0026169999999999</v>
+        <v>2.9540805149999998</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
         <v>8.8354739999999996</v>
       </c>
       <c r="B355" s="2">
-        <v>3.9965820000000001</v>
+        <v>2.94928269</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>8.8605029999999996</v>
       </c>
       <c r="B356" s="2">
-        <v>3.9905469999999998</v>
+        <v>2.9444848649999997</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,7 +8320,7 @@
         <v>8.8855330000000006</v>
       </c>
       <c r="B357" s="2">
-        <v>3.9845120000000001</v>
+        <v>2.9396870399999999</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8328,7 +8328,7 @@
         <v>8.9105629999999998</v>
       </c>
       <c r="B358" s="2">
-        <v>3.9784769999999998</v>
+        <v>2.9348892149999997</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>8.9355919999999998</v>
       </c>
       <c r="B359" s="2">
-        <v>3.9724409999999999</v>
+        <v>2.9300905949999998</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8344,7 +8344,7 @@
         <v>8.9606220000000008</v>
       </c>
       <c r="B360" s="2">
-        <v>3.9664060000000001</v>
+        <v>2.92529277</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>8.985652</v>
       </c>
       <c r="B361" s="2">
-        <v>3.9603709999999999</v>
+        <v>2.9204949449999997</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8360,7 +8360,7 @@
         <v>9.0106809999999999</v>
       </c>
       <c r="B362" s="2">
-        <v>3.9543360000000001</v>
+        <v>2.9156971199999999</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8368,7 @@
         <v>9.0357109999999992</v>
       </c>
       <c r="B363" s="2">
-        <v>3.9483109999999999</v>
+        <v>2.9109072449999998</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8376,7 +8376,7 @@
         <v>9.0607410000000002</v>
       </c>
       <c r="B364" s="2">
-        <v>3.9424130000000002</v>
+        <v>2.9062183350000002</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
         <v>9.0857700000000001</v>
       </c>
       <c r="B365" s="2">
-        <v>3.9365139999999998</v>
+        <v>2.9015286300000001</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,7 +8392,7 @@
         <v>9.1107999999999993</v>
       </c>
       <c r="B366" s="2">
-        <v>3.9306160000000001</v>
+        <v>2.89683972</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8400,7 @@
         <v>9.1358300000000003</v>
       </c>
       <c r="B367" s="2">
-        <v>3.9247179999999999</v>
+        <v>2.89215081</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>9.1608590000000003</v>
       </c>
       <c r="B368" s="2">
-        <v>3.9188200000000002</v>
+        <v>2.8874618999999999</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
         <v>9.1858889999999995</v>
       </c>
       <c r="B369" s="2">
-        <v>3.912922</v>
+        <v>2.8827729899999999</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8424,7 +8424,7 @@
         <v>9.2109190000000005</v>
       </c>
       <c r="B370" s="2">
-        <v>3.9070239999999998</v>
+        <v>2.8780840799999998</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>9.2359480000000005</v>
       </c>
       <c r="B371" s="2">
-        <v>3.9011260000000001</v>
+        <v>2.8733951700000002</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
         <v>9.2609779999999997</v>
       </c>
       <c r="B372" s="2">
-        <v>3.8952279999999999</v>
+        <v>2.8687062599999997</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,7 +8448,7 @@
         <v>9.2860080000000007</v>
       </c>
       <c r="B373" s="2">
-        <v>3.8893209999999998</v>
+        <v>2.8640101949999996</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8456,7 +8456,7 @@
         <v>9.3110370000000007</v>
       </c>
       <c r="B374" s="2">
-        <v>3.8833220000000002</v>
+        <v>2.85924099</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,7 +8464,7 @@
         <v>9.3360669999999999</v>
       </c>
       <c r="B375" s="2">
-        <v>3.8773240000000002</v>
+        <v>2.8544725799999999</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>9.3610969999999991</v>
       </c>
       <c r="B376" s="2">
-        <v>3.8713259999999998</v>
+        <v>2.8497041699999999</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8480,7 +8480,7 @@
         <v>9.3861260000000009</v>
       </c>
       <c r="B377" s="2">
-        <v>3.8653279999999999</v>
+        <v>2.8449357599999998</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>9.4111560000000001</v>
       </c>
       <c r="B378" s="2">
-        <v>3.8593289999999998</v>
+        <v>2.8401665549999997</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8496,7 +8496,7 @@
         <v>9.4361859999999993</v>
       </c>
       <c r="B379" s="2">
-        <v>3.8533309999999998</v>
+        <v>2.8353981449999996</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
         <v>9.4612149999999993</v>
       </c>
       <c r="B380" s="2">
-        <v>3.8473329999999999</v>
+        <v>2.830629735</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>9.4862450000000003</v>
       </c>
       <c r="B381" s="2">
-        <v>3.8413339999999998</v>
+        <v>2.8258605299999999</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>9.5112749999999995</v>
       </c>
       <c r="B382" s="2">
-        <v>3.8353359999999999</v>
+        <v>2.8210921199999999</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8528,7 @@
         <v>9.5363039999999994</v>
       </c>
       <c r="B383" s="2">
-        <v>3.8293119999999998</v>
+        <v>2.8163030399999998</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
         <v>9.5613340000000004</v>
       </c>
       <c r="B384" s="2">
-        <v>3.8230650000000002</v>
+        <v>2.8113366750000002</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
         <v>9.5863639999999997</v>
       </c>
       <c r="B385" s="2">
-        <v>3.816818</v>
+        <v>2.8063703100000001</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>9.6113929999999996</v>
       </c>
       <c r="B386" s="2">
-        <v>3.8105699999999998</v>
+        <v>2.8014031499999996</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8560,7 @@
         <v>9.6364230000000006</v>
       </c>
       <c r="B387" s="2">
-        <v>3.8043230000000001</v>
+        <v>2.796436785</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,7 +8568,7 @@
         <v>9.6614529999999998</v>
       </c>
       <c r="B388" s="2">
-        <v>3.798076</v>
+        <v>2.79147042</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8576,7 +8576,7 @@
         <v>9.6864830000000008</v>
       </c>
       <c r="B389" s="2">
-        <v>3.7918280000000002</v>
+        <v>2.7865032599999999</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>9.7115120000000008</v>
       </c>
       <c r="B390" s="2">
-        <v>3.7855810000000001</v>
+        <v>2.7815368949999999</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>9.736542</v>
       </c>
       <c r="B391" s="2">
-        <v>3.779334</v>
+        <v>2.7765705299999999</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8600,7 +8600,7 @@
         <v>9.7615719999999992</v>
       </c>
       <c r="B392" s="2">
-        <v>3.7730860000000002</v>
+        <v>2.7716033700000002</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>9.7866009999999992</v>
       </c>
       <c r="B393" s="2">
-        <v>3.7668819999999998</v>
+        <v>2.7666711899999998</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8616,7 +8616,7 @@
         <v>9.8116310000000002</v>
       </c>
       <c r="B394" s="2">
-        <v>3.7610079999999999</v>
+        <v>2.7620013599999997</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8624,7 +8624,7 @@
         <v>9.8366609999999994</v>
       </c>
       <c r="B395" s="2">
-        <v>3.7551350000000001</v>
+        <v>2.7573323250000001</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
         <v>9.8616899999999994</v>
       </c>
       <c r="B396" s="2">
-        <v>3.7492619999999999</v>
+        <v>2.7526632899999997</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>9.8867200000000004</v>
       </c>
       <c r="B397" s="2">
-        <v>3.7433890000000001</v>
+        <v>2.7479942550000001</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>9.9117499999999996</v>
       </c>
       <c r="B398" s="2">
-        <v>3.737517</v>
+        <v>2.7433260150000001</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,7 +8656,7 @@
         <v>9.9367789999999996</v>
       </c>
       <c r="B399" s="2">
-        <v>3.7316440000000002</v>
+        <v>2.73865698</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8664,7 +8664,7 @@
         <v>9.9618090000000006</v>
       </c>
       <c r="B400" s="2">
-        <v>3.7257720000000001</v>
+        <v>2.73398874</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>9.9868389999999998</v>
       </c>
       <c r="B401" s="2">
-        <v>3.7198989999999998</v>
+        <v>2.729319705</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
         <v>10.011868</v>
       </c>
       <c r="B402" s="2">
-        <v>3.7140270000000002</v>
+        <v>2.724651465</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
         <v>10.036898000000001</v>
       </c>
       <c r="B403" s="2">
-        <v>3.7081629999999999</v>
+        <v>2.719989585</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>10.061928</v>
       </c>
       <c r="B404" s="2">
-        <v>3.7023510000000002</v>
+        <v>2.7153690450000001</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>10.086957</v>
       </c>
       <c r="B405" s="2">
-        <v>3.6965379999999999</v>
+        <v>2.7107477099999997</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
         <v>10.111986999999999</v>
       </c>
       <c r="B406" s="2">
-        <v>3.6907260000000002</v>
+        <v>2.7061271700000002</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8720,7 +8720,7 @@
         <v>10.137017</v>
       </c>
       <c r="B407" s="2">
-        <v>3.684914</v>
+        <v>2.7015066299999999</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,7 +8728,7 @@
         <v>10.162046</v>
       </c>
       <c r="B408" s="2">
-        <v>3.6791010000000002</v>
+        <v>2.696885295</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8736,7 +8736,7 @@
         <v>10.187075999999999</v>
       </c>
       <c r="B409" s="2">
-        <v>3.673289</v>
+        <v>2.6922647550000001</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>10.212106</v>
       </c>
       <c r="B410" s="2">
-        <v>3.6674760000000002</v>
+        <v>2.6876434200000001</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>10.237135</v>
       </c>
       <c r="B411" s="2">
-        <v>3.661664</v>
+        <v>2.6830228799999998</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
         <v>10.262165</v>
       </c>
       <c r="B412" s="2">
-        <v>3.6558510000000002</v>
+        <v>2.6784015450000003</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>10.287195000000001</v>
       </c>
       <c r="B413" s="2">
-        <v>3.6500520000000001</v>
+        <v>2.6737913400000002</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,7 +8776,7 @@
         <v>10.312224000000001</v>
       </c>
       <c r="B414" s="2">
-        <v>3.6443379999999999</v>
+        <v>2.6692487099999997</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8784,7 +8784,7 @@
         <v>10.337254</v>
       </c>
       <c r="B415" s="2">
-        <v>3.6386240000000001</v>
+        <v>2.6647060800000002</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>10.362284000000001</v>
       </c>
       <c r="B416" s="2">
-        <v>3.6329099999999999</v>
+        <v>2.6601634499999998</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>10.387313000000001</v>
       </c>
       <c r="B417" s="2">
-        <v>3.6271960000000001</v>
+        <v>2.6556208200000002</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
         <v>10.412343</v>
       </c>
       <c r="B418" s="2">
-        <v>3.6214819999999999</v>
+        <v>2.6510781899999998</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
         <v>10.437372999999999</v>
       </c>
       <c r="B419" s="2">
-        <v>3.6157680000000001</v>
+        <v>2.6465355600000002</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
         <v>10.462402000000001</v>
       </c>
       <c r="B420" s="2">
-        <v>3.6100539999999999</v>
+        <v>2.6419929299999998</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>10.487432</v>
       </c>
       <c r="B421" s="2">
-        <v>3.6043400000000001</v>
+        <v>2.6374502999999998</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8840,7 +8840,7 @@
         <v>10.512461999999999</v>
       </c>
       <c r="B422" s="2">
-        <v>3.5986250000000002</v>
+        <v>2.6329068750000002</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>10.537490999999999</v>
       </c>
       <c r="B423" s="2">
-        <v>3.5928740000000001</v>
+        <v>2.62833483</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
         <v>10.562521</v>
       </c>
       <c r="B424" s="2">
-        <v>3.5869110000000002</v>
+        <v>2.623594245</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
         <v>10.587550999999999</v>
       </c>
       <c r="B425" s="2">
-        <v>3.5809479999999998</v>
+        <v>2.6188536599999996</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
         <v>10.612579999999999</v>
       </c>
       <c r="B426" s="2">
-        <v>3.5749840000000002</v>
+        <v>2.6141122800000001</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8880,7 +8880,7 @@
         <v>10.63761</v>
       </c>
       <c r="B427" s="2">
-        <v>3.5690210000000002</v>
+        <v>2.6093716950000001</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>10.66264</v>
       </c>
       <c r="B428" s="2">
-        <v>3.5630579999999998</v>
+        <v>2.6046311099999997</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>10.687669</v>
       </c>
       <c r="B429" s="2">
-        <v>3.5570949999999999</v>
+        <v>2.5998905249999997</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
         <v>10.712699000000001</v>
       </c>
       <c r="B430" s="2">
-        <v>3.551132</v>
+        <v>2.5951499399999998</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>10.737729</v>
       </c>
       <c r="B431" s="2">
-        <v>3.5451679999999999</v>
+        <v>2.5904085599999997</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
         <v>10.762758</v>
       </c>
       <c r="B432" s="2">
-        <v>3.5392049999999999</v>
+        <v>2.5856679749999998</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +8928,7 @@
         <v>10.787788000000001</v>
       </c>
       <c r="B433" s="2">
-        <v>3.533299</v>
+        <v>2.5809727049999998</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>10.812818</v>
       </c>
       <c r="B434" s="2">
-        <v>3.5276900000000002</v>
+        <v>2.57651355</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
         <v>10.837847</v>
       </c>
       <c r="B435" s="2">
-        <v>3.522081</v>
+        <v>2.5720543949999999</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>10.862876999999999</v>
       </c>
       <c r="B436" s="2">
-        <v>3.516473</v>
+        <v>2.5675960349999998</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,7 +8960,7 @@
         <v>10.887907</v>
       </c>
       <c r="B437" s="2">
-        <v>3.5108640000000002</v>
+        <v>2.5631368800000001</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>10.912936</v>
       </c>
       <c r="B438" s="2">
-        <v>3.505255</v>
+        <v>2.5586777249999999</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
         <v>10.937965999999999</v>
       </c>
       <c r="B439" s="2">
-        <v>3.499647</v>
+        <v>2.5542193649999998</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>10.962996</v>
       </c>
       <c r="B440" s="2">
-        <v>3.4940380000000002</v>
+        <v>2.5497602100000001</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>10.988025</v>
       </c>
       <c r="B441" s="2">
-        <v>3.4884300000000001</v>
+        <v>2.54530185</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,7 +9000,7 @@
         <v>11.013055</v>
       </c>
       <c r="B442" s="2">
-        <v>3.4828209999999999</v>
+        <v>2.5408426949999998</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
         <v>11.038085000000001</v>
       </c>
       <c r="B443" s="2">
-        <v>3.477223</v>
+        <v>2.5363922849999998</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>11.063114000000001</v>
       </c>
       <c r="B444" s="2">
-        <v>3.471676</v>
+        <v>2.5319824199999998</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
         <v>11.088144</v>
       </c>
       <c r="B445" s="2">
-        <v>3.4661279999999999</v>
+        <v>2.5275717599999998</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9032,7 +9032,7 @@
         <v>11.113174000000001</v>
       </c>
       <c r="B446" s="2">
-        <v>3.4605800000000002</v>
+        <v>2.5231611000000003</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9040,7 +9040,7 @@
         <v>11.138203000000001</v>
       </c>
       <c r="B447" s="2">
-        <v>3.4550329999999998</v>
+        <v>2.5187512349999999</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9048,7 +9048,7 @@
         <v>11.163233</v>
       </c>
       <c r="B448" s="2">
-        <v>3.4494850000000001</v>
+        <v>2.5143405749999999</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
         <v>11.188262999999999</v>
       </c>
       <c r="B449" s="2">
-        <v>3.443937</v>
+        <v>2.5099299149999998</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,7 +9064,7 @@
         <v>11.213291999999999</v>
       </c>
       <c r="B450" s="2">
-        <v>3.4383900000000001</v>
+        <v>2.5055200499999999</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>11.238322</v>
       </c>
       <c r="B451" s="2">
-        <v>3.4328419999999999</v>
+        <v>2.5011093899999999</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>11.263351999999999</v>
       </c>
       <c r="B452" s="2">
-        <v>3.427295</v>
+        <v>2.4966995249999999</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,7 +9088,7 @@
         <v>11.288380999999999</v>
       </c>
       <c r="B453" s="2">
-        <v>3.4217949999999999</v>
+        <v>2.4923270249999998</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9096,7 +9096,7 @@
         <v>11.313411</v>
       </c>
       <c r="B454" s="2">
-        <v>3.4165070000000002</v>
+        <v>2.4881230649999999</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9104,7 +9104,7 @@
         <v>11.338441</v>
       </c>
       <c r="B455" s="2">
-        <v>3.4112179999999999</v>
+        <v>2.48391831</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>11.36347</v>
       </c>
       <c r="B456" s="2">
-        <v>3.405929</v>
+        <v>2.479713555</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9120,7 +9120,7 @@
         <v>11.388500000000001</v>
       </c>
       <c r="B457" s="2">
-        <v>3.4006400000000001</v>
+        <v>2.4755088000000001</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9128,7 +9128,7 @@
         <v>11.41353</v>
       </c>
       <c r="B458" s="2">
-        <v>3.3953509999999998</v>
+        <v>2.4713040449999997</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9136,7 +9136,7 @@
         <v>11.438559</v>
       </c>
       <c r="B459" s="2">
-        <v>3.3900619999999999</v>
+        <v>2.4670992899999997</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9144,7 +9144,7 @@
         <v>11.463589000000001</v>
       </c>
       <c r="B460" s="2">
-        <v>3.3847740000000002</v>
+        <v>2.4628953300000003</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>11.488619</v>
       </c>
       <c r="B461" s="2">
-        <v>3.3794849999999999</v>
+        <v>2.4586905749999999</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9160,7 +9160,7 @@
         <v>11.513648</v>
       </c>
       <c r="B462" s="2">
-        <v>3.374196</v>
+        <v>2.4544858199999999</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9168,7 @@
         <v>11.538678000000001</v>
       </c>
       <c r="B463" s="2">
-        <v>3.368941</v>
+        <v>2.450308095</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>11.563708</v>
       </c>
       <c r="B464" s="2">
-        <v>3.3638210000000002</v>
+        <v>2.4462376950000002</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9184,7 +9184,7 @@
         <v>11.588737</v>
       </c>
       <c r="B465" s="2">
-        <v>3.3587020000000001</v>
+        <v>2.44216809</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9192,7 +9192,7 @@
         <v>11.613766999999999</v>
       </c>
       <c r="B466" s="2">
-        <v>3.353583</v>
+        <v>2.4380984849999998</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>11.638797</v>
       </c>
       <c r="B467" s="2">
-        <v>3.3484639999999999</v>
+        <v>2.4340288800000001</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>11.663826</v>
       </c>
       <c r="B468" s="2">
-        <v>3.3433440000000001</v>
+        <v>2.4299584799999998</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
         <v>11.688855999999999</v>
       </c>
       <c r="B469" s="2">
-        <v>3.338225</v>
+        <v>2.4258888750000001</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9224,7 +9224,7 @@
         <v>11.713886</v>
       </c>
       <c r="B470" s="2">
-        <v>3.3331059999999999</v>
+        <v>2.4218192699999999</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9232,7 +9232,7 @@
         <v>11.738915</v>
       </c>
       <c r="B471" s="2">
-        <v>3.3279869999999998</v>
+        <v>2.4177496649999997</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
         <v>11.763945</v>
       </c>
       <c r="B472" s="2">
-        <v>3.3228680000000002</v>
+        <v>2.4136800599999999</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
         <v>11.788975000000001</v>
       </c>
       <c r="B473" s="2">
-        <v>3.317793</v>
+        <v>2.4096454349999998</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>11.814005</v>
       </c>
       <c r="B474" s="2">
-        <v>3.3128820000000001</v>
+        <v>2.4057411900000001</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>11.839034</v>
       </c>
       <c r="B475" s="2">
-        <v>3.3079710000000002</v>
+        <v>2.4018369449999999</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>11.864064000000001</v>
       </c>
       <c r="B476" s="2">
-        <v>3.3030599999999999</v>
+        <v>2.3979326999999997</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,7 +9280,7 @@
         <v>11.889094</v>
       </c>
       <c r="B477" s="2">
-        <v>3.2981500000000001</v>
+        <v>2.39402925</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9288,7 +9288,7 @@
         <v>11.914123</v>
       </c>
       <c r="B478" s="2">
-        <v>3.2932389999999998</v>
+        <v>2.3901250049999998</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
         <v>11.939152999999999</v>
       </c>
       <c r="B479" s="2">
-        <v>3.2883290000000001</v>
+        <v>2.3862215550000001</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
         <v>11.964183</v>
       </c>
       <c r="B480" s="2">
-        <v>3.2834180000000002</v>
+        <v>2.3823173099999999</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>11.989212</v>
       </c>
       <c r="B481" s="2">
-        <v>3.278508</v>
+        <v>2.3784138599999998</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9320,7 @@
         <v>12.014241999999999</v>
       </c>
       <c r="B482" s="2">
-        <v>3.2735970000000001</v>
+        <v>2.374509615</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9328,7 +9328,7 @@
         <v>12.039272</v>
       </c>
       <c r="B483" s="2">
-        <v>3.2686869999999999</v>
+        <v>2.3706061649999999</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9336,7 +9336,7 @@
         <v>12.064301</v>
       </c>
       <c r="B484" s="2">
-        <v>3.263776</v>
+        <v>2.3667019200000001</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9344,7 +9344,7 @@
         <v>12.089331</v>
       </c>
       <c r="B485" s="2">
-        <v>3.2588659999999998</v>
+        <v>2.36279847</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>12.114361000000001</v>
       </c>
       <c r="B486" s="2">
-        <v>3.2539549999999999</v>
+        <v>2.3588942249999998</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9360,7 +9360,7 @@
         <v>12.139390000000001</v>
       </c>
       <c r="B487" s="2">
-        <v>3.249044</v>
+        <v>2.35498998</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9368,7 +9368,7 @@
         <v>12.16442</v>
       </c>
       <c r="B488" s="2">
-        <v>3.2441330000000002</v>
+        <v>2.3510857349999998</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
         <v>12.189450000000001</v>
       </c>
       <c r="B489" s="2">
-        <v>3.239223</v>
+        <v>2.3471822849999997</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9384,7 +9384,7 @@
         <v>12.214479000000001</v>
       </c>
       <c r="B490" s="2">
-        <v>3.2343120000000001</v>
+        <v>2.34327804</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>12.239509</v>
       </c>
       <c r="B491" s="2">
-        <v>3.2294</v>
+        <v>2.3393730000000001</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,7 +9400,7 @@
         <v>12.264538999999999</v>
       </c>
       <c r="B492" s="2">
-        <v>3.2244890000000002</v>
+        <v>2.335468755</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,7 +9408,7 @@
         <v>12.289567999999999</v>
       </c>
       <c r="B493" s="2">
-        <v>3.219589</v>
+        <v>2.3315732549999999</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
         <v>12.314598</v>
       </c>
       <c r="B494" s="2">
-        <v>3.2147269999999999</v>
+        <v>2.3277079649999997</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
         <v>12.339627999999999</v>
       </c>
       <c r="B495" s="2">
-        <v>3.2098640000000001</v>
+        <v>2.3238418799999998</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>12.364656999999999</v>
       </c>
       <c r="B496" s="2">
-        <v>3.2050019999999999</v>
+        <v>2.31997659</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>12.389687</v>
       </c>
       <c r="B497" s="2">
-        <v>3.2001390000000001</v>
+        <v>2.3161105050000002</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>12.414717</v>
       </c>
       <c r="B498" s="2">
-        <v>3.1952769999999999</v>
+        <v>2.3122452149999999</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>12.439746</v>
       </c>
       <c r="B499" s="2">
-        <v>3.1904140000000001</v>
+        <v>2.3083791300000001</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9464,7 +9464,7 @@
         <v>12.464776000000001</v>
       </c>
       <c r="B500" s="2">
-        <v>3.1855509999999998</v>
+        <v>2.3045130449999998</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>12.489806</v>
       </c>
       <c r="B501" s="2">
-        <v>3.1806890000000001</v>
+        <v>2.300647755</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9480,7 +9480,7 @@
         <v>12.514835</v>
       </c>
       <c r="B502" s="2">
-        <v>3.1758259999999998</v>
+        <v>2.2967816699999997</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9488,7 +9488,7 @@
         <v>12.539865000000001</v>
       </c>
       <c r="B503" s="2">
-        <v>3.170941</v>
+        <v>2.292898095</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,7 +9496,7 @@
         <v>12.564895</v>
       </c>
       <c r="B504" s="2">
-        <v>3.165988</v>
+        <v>2.2889604599999998</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9504,7 @@
         <v>12.589924</v>
       </c>
       <c r="B505" s="2">
-        <v>3.1610339999999999</v>
+        <v>2.2850220299999999</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,7 +9512,7 @@
         <v>12.614954000000001</v>
       </c>
       <c r="B506" s="2">
-        <v>3.1560809999999999</v>
+        <v>2.2810843949999997</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>12.639984</v>
       </c>
       <c r="B507" s="2">
-        <v>3.1511279999999999</v>
+        <v>2.2771467599999999</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>12.665013</v>
       </c>
       <c r="B508" s="2">
-        <v>3.1461749999999999</v>
+        <v>2.2732091249999997</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>12.690042999999999</v>
       </c>
       <c r="B509" s="2">
-        <v>3.1412209999999998</v>
+        <v>2.2692706949999999</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9544,7 +9544,7 @@
         <v>12.715073</v>
       </c>
       <c r="B510" s="2">
-        <v>3.1362679999999998</v>
+        <v>2.2653330599999997</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>12.740102</v>
       </c>
       <c r="B511" s="2">
-        <v>3.1313149999999998</v>
+        <v>2.2613954249999999</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
         <v>12.765131999999999</v>
       </c>
       <c r="B512" s="2">
-        <v>3.1263619999999999</v>
+        <v>2.2574577899999997</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9568,7 +9568,7 @@
         <v>12.790162</v>
       </c>
       <c r="B513" s="2">
-        <v>3.121442</v>
+        <v>2.2535463899999999</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9576,7 +9576,7 @@
         <v>12.815191</v>
       </c>
       <c r="B514" s="2">
-        <v>3.116622</v>
+        <v>2.2497144900000001</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9584,7 +9584,7 @@
         <v>12.840221</v>
       </c>
       <c r="B515" s="2">
-        <v>3.111802</v>
+        <v>2.2458825899999999</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>12.865251000000001</v>
       </c>
       <c r="B516" s="2">
-        <v>3.1069830000000001</v>
+        <v>2.2420514850000002</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>12.890280000000001</v>
       </c>
       <c r="B517" s="2">
-        <v>3.102163</v>
+        <v>2.238219585</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9608,7 +9608,7 @@
         <v>12.91531</v>
       </c>
       <c r="B518" s="2">
-        <v>3.097343</v>
+        <v>2.2343876849999997</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9616,7 +9616,7 @@
         <v>12.940340000000001</v>
       </c>
       <c r="B519" s="2">
-        <v>3.0925229999999999</v>
+        <v>2.230555785</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>12.965369000000001</v>
       </c>
       <c r="B520" s="2">
-        <v>3.087704</v>
+        <v>2.2267246799999998</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>12.990399</v>
       </c>
       <c r="B521" s="2">
-        <v>3.082884</v>
+        <v>2.22289278</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9640,7 +9640,7 @@
         <v>13.015428999999999</v>
       </c>
       <c r="B522" s="2">
-        <v>3.0780650000000001</v>
+        <v>2.2190616749999998</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9648,7 +9648,7 @@
         <v>13.040457999999999</v>
       </c>
       <c r="B523" s="2">
-        <v>3.0732699999999999</v>
+        <v>2.2152496500000001</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9656,7 +9656,7 @@
         <v>13.065488</v>
       </c>
       <c r="B524" s="2">
-        <v>3.0685440000000002</v>
+        <v>2.21149248</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9664,7 +9664,7 @@
         <v>13.090517999999999</v>
       </c>
       <c r="B525" s="2">
-        <v>3.0638169999999998</v>
+        <v>2.2077345149999998</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>13.115546999999999</v>
       </c>
       <c r="B526" s="2">
-        <v>3.0590899999999999</v>
+        <v>2.2039765499999997</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
         <v>13.140577</v>
       </c>
       <c r="B527" s="2">
-        <v>3.0543640000000001</v>
+        <v>2.2002193800000001</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9688,7 +9688,7 @@
         <v>13.165607</v>
       </c>
       <c r="B528" s="2">
-        <v>3.0496370000000002</v>
+        <v>2.1964614149999999</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9696,7 +9696,7 @@
         <v>13.190636</v>
       </c>
       <c r="B529" s="2">
-        <v>3.0449099999999998</v>
+        <v>2.1927034499999998</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
         <v>13.215666000000001</v>
       </c>
       <c r="B530" s="2">
-        <v>3.040184</v>
+        <v>2.1889462800000001</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <v>13.240696</v>
       </c>
       <c r="B531" s="2">
-        <v>3.0354570000000001</v>
+        <v>2.185188315</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>13.265725</v>
       </c>
       <c r="B532" s="2">
-        <v>3.0307300000000001</v>
+        <v>2.1814303499999999</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>13.290755000000001</v>
       </c>
       <c r="B533" s="2">
-        <v>3.026052</v>
+        <v>2.1777113400000001</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9736,7 +9736,7 @@
         <v>13.315785</v>
       </c>
       <c r="B534" s="2">
-        <v>3.0215000000000001</v>
+        <v>2.1740925</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9744,7 +9744,7 @@
         <v>13.340814</v>
       </c>
       <c r="B535" s="2">
-        <v>3.016947</v>
+        <v>2.1704728649999998</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>13.365843999999999</v>
       </c>
       <c r="B536" s="2">
-        <v>3.0123950000000002</v>
+        <v>2.1668540250000001</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
         <v>13.390874</v>
       </c>
       <c r="B537" s="2">
-        <v>3.0078420000000001</v>
+        <v>2.16323439</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
         <v>13.415903</v>
       </c>
       <c r="B538" s="2">
-        <v>3.0032899999999998</v>
+        <v>2.1596155499999998</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
         <v>13.440932999999999</v>
       </c>
       <c r="B539" s="2">
-        <v>2.9987370000000002</v>
+        <v>2.1559959150000001</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
         <v>13.465963</v>
       </c>
       <c r="B540" s="2">
-        <v>2.9941849999999999</v>
+        <v>2.152377075</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>13.490992</v>
       </c>
       <c r="B541" s="2">
-        <v>2.9896319999999998</v>
+        <v>2.1487574399999998</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9800,7 +9800,7 @@
         <v>13.516022</v>
       </c>
       <c r="B542" s="2">
-        <v>2.98508</v>
+        <v>2.1451385999999997</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,7 +9808,7 @@
         <v>13.541052000000001</v>
       </c>
       <c r="B543" s="2">
-        <v>2.9804780000000002</v>
+        <v>2.14148001</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>13.566081000000001</v>
       </c>
       <c r="B544" s="2">
-        <v>2.9757570000000002</v>
+        <v>2.1377268150000002</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>13.591111</v>
       </c>
       <c r="B545" s="2">
-        <v>2.9710359999999998</v>
+        <v>2.1339736199999999</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>13.616141000000001</v>
       </c>
       <c r="B546" s="2">
-        <v>2.9663149999999998</v>
+        <v>2.1302204249999996</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9840,7 +9840,7 @@
         <v>13.641170000000001</v>
       </c>
       <c r="B547" s="2">
-        <v>2.9615939999999998</v>
+        <v>2.1264672299999998</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
         <v>13.6662</v>
       </c>
       <c r="B548" s="2">
-        <v>2.9568729999999999</v>
+        <v>2.122714035</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>13.691229999999999</v>
       </c>
       <c r="B549" s="2">
-        <v>2.9521519999999999</v>
+        <v>2.1189608399999997</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,7 +9864,7 @@
         <v>13.716259000000001</v>
       </c>
       <c r="B550" s="2">
-        <v>2.9474320000000001</v>
+        <v>2.11520844</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,7 +9872,7 @@
         <v>13.741289</v>
       </c>
       <c r="B551" s="2">
-        <v>2.9427110000000001</v>
+        <v>2.1114552450000001</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,7 +9880,7 @@
         <v>13.766318999999999</v>
       </c>
       <c r="B552" s="2">
-        <v>2.9379900000000001</v>
+        <v>2.1077020499999999</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>13.791347999999999</v>
       </c>
       <c r="B553" s="2">
-        <v>2.9333119999999999</v>
+        <v>2.1039830399999997</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9896,7 +9896,7 @@
         <v>13.816378</v>
       </c>
       <c r="B554" s="2">
-        <v>2.9287329999999998</v>
+        <v>2.1003427349999999</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>13.841407999999999</v>
       </c>
       <c r="B555" s="2">
-        <v>2.9241540000000001</v>
+        <v>2.0967024300000001</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>13.866436999999999</v>
       </c>
       <c r="B556" s="2">
-        <v>2.919575</v>
+        <v>2.0930621249999999</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>13.891467</v>
       </c>
       <c r="B557" s="2">
-        <v>2.9149959999999999</v>
+        <v>2.0894218199999997</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>13.916497</v>
       </c>
       <c r="B558" s="2">
-        <v>2.9104160000000001</v>
+        <v>2.0857807199999998</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9936,7 +9936,7 @@
         <v>13.941527000000001</v>
       </c>
       <c r="B559" s="2">
-        <v>2.905837</v>
+        <v>2.082140415</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,7 +9944,7 @@
         <v>13.966556000000001</v>
       </c>
       <c r="B560" s="2">
-        <v>2.9012579999999999</v>
+        <v>2.0785001099999998</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>13.991586</v>
       </c>
       <c r="B561" s="2">
-        <v>2.8966789999999998</v>
+        <v>2.0748598049999996</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9960,7 +9960,7 @@
         <v>14.016616000000001</v>
       </c>
       <c r="B562" s="2">
-        <v>2.8921000000000001</v>
+        <v>2.0712195000000002</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,7 +9968,7 @@
         <v>14.041645000000001</v>
       </c>
       <c r="B563" s="2">
-        <v>2.887543</v>
+        <v>2.0675966849999998</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>14.066675</v>
       </c>
       <c r="B564" s="2">
-        <v>2.883032</v>
+        <v>2.0640104400000001</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9984,7 +9984,7 @@
         <v>14.091704999999999</v>
       </c>
       <c r="B565" s="2">
-        <v>2.8785219999999998</v>
+        <v>2.0604249899999996</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>14.116733999999999</v>
       </c>
       <c r="B566" s="2">
-        <v>2.8740109999999999</v>
+        <v>2.0568387449999999</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>14.141764</v>
       </c>
       <c r="B567" s="2">
-        <v>2.8695010000000001</v>
+        <v>2.0532532949999998</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10008,7 +10008,7 @@
         <v>14.166793999999999</v>
       </c>
       <c r="B568" s="2">
-        <v>2.8649909999999998</v>
+        <v>2.0496678449999997</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10016,7 +10016,7 @@
         <v>14.191822999999999</v>
       </c>
       <c r="B569" s="2">
-        <v>2.8604799999999999</v>
+        <v>2.0460815999999999</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
         <v>14.216853</v>
       </c>
       <c r="B570" s="2">
-        <v>2.8559700000000001</v>
+        <v>2.0424961499999998</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>14.241883</v>
       </c>
       <c r="B571" s="2">
-        <v>2.8514590000000002</v>
+        <v>2.0389099050000001</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
         <v>14.266912</v>
       </c>
       <c r="B572" s="2">
-        <v>2.846949</v>
+        <v>2.035324455</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10048,7 +10048,7 @@
         <v>14.291942000000001</v>
       </c>
       <c r="B573" s="2">
-        <v>2.8424909999999999</v>
+        <v>2.0317803449999996</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
         <v>14.316972</v>
       </c>
       <c r="B574" s="2">
-        <v>2.8381430000000001</v>
+        <v>2.0283236850000002</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
         <v>14.342001</v>
       </c>
       <c r="B575" s="2">
-        <v>2.8337949999999998</v>
+        <v>2.0248670249999998</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>14.367031000000001</v>
       </c>
       <c r="B576" s="2">
-        <v>2.829447</v>
+        <v>2.0214103649999999</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,7 +10080,7 @@
         <v>14.392061</v>
       </c>
       <c r="B577" s="2">
-        <v>2.8250999999999999</v>
+        <v>2.0179544999999997</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>14.41709</v>
       </c>
       <c r="B578" s="2">
-        <v>2.8207520000000001</v>
+        <v>2.0144978400000002</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>14.442119999999999</v>
       </c>
       <c r="B579" s="2">
-        <v>2.8164039999999999</v>
+        <v>2.0110411799999999</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <v>14.46715</v>
       </c>
       <c r="B580" s="2">
-        <v>2.8120569999999998</v>
+        <v>2.0075853149999996</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>14.492179</v>
       </c>
       <c r="B581" s="2">
-        <v>2.807709</v>
+        <v>2.0041286549999997</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
         <v>14.517208999999999</v>
       </c>
       <c r="B582" s="2">
-        <v>2.8033619999999999</v>
+        <v>2.0006727899999999</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>14.542239</v>
       </c>
       <c r="B583" s="2">
-        <v>2.7990159999999999</v>
+        <v>1.9972177200000003</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
         <v>14.567268</v>
       </c>
       <c r="B584" s="2">
-        <v>2.794673</v>
+        <v>1.9937650350000002</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>14.592298</v>
       </c>
       <c r="B585" s="2">
-        <v>2.79033</v>
+        <v>1.9903123500000002</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10152,7 +10152,7 @@
         <v>14.617328000000001</v>
       </c>
       <c r="B586" s="2">
-        <v>2.7859859999999999</v>
+        <v>1.9868588700000001</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
         <v>14.642357000000001</v>
       </c>
       <c r="B587" s="2">
-        <v>2.7816429999999999</v>
+        <v>1.983406185</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,7 +10168,7 @@
         <v>14.667387</v>
       </c>
       <c r="B588" s="2">
-        <v>2.7772999999999999</v>
+        <v>1.9799534999999999</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>14.692417000000001</v>
       </c>
       <c r="B589" s="2">
-        <v>2.7729569999999999</v>
+        <v>1.9765008149999999</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>14.717446000000001</v>
       </c>
       <c r="B590" s="2">
-        <v>2.7686139999999999</v>
+        <v>1.9730481300000002</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
         <v>14.742476</v>
       </c>
       <c r="B591" s="2">
-        <v>2.7642709999999999</v>
+        <v>1.9695954450000002</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10200,7 +10200,7 @@
         <v>14.767505999999999</v>
       </c>
       <c r="B592" s="2">
-        <v>2.7599279999999999</v>
+        <v>1.9661427600000001</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
         <v>14.792535000000001</v>
       </c>
       <c r="B593" s="2">
-        <v>2.7556859999999999</v>
+        <v>1.9627703700000001</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
         <v>14.817565</v>
       </c>
       <c r="B594" s="2">
-        <v>2.751633</v>
+        <v>1.959548235</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>14.842594999999999</v>
       </c>
       <c r="B595" s="2">
-        <v>2.7475800000000001</v>
+        <v>1.9563261000000003</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>14.867623999999999</v>
       </c>
       <c r="B596" s="2">
-        <v>2.7435269999999998</v>
+        <v>1.9531039650000002</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,7 +10240,7 @@
         <v>14.892654</v>
       </c>
       <c r="B597" s="2">
-        <v>2.739474</v>
+        <v>1.94988183</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10248,7 +10248,7 @@
         <v>14.917684</v>
       </c>
       <c r="B598" s="2">
-        <v>2.7354210000000001</v>
+        <v>1.9466596950000004</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>14.942712999999999</v>
       </c>
       <c r="B599" s="2">
-        <v>2.7313679999999998</v>
+        <v>1.9434375599999998</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>14.967743</v>
       </c>
       <c r="B600" s="2">
-        <v>2.7273149999999999</v>
+        <v>1.9402154250000001</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>14.992773</v>
       </c>
       <c r="B601" s="2">
-        <v>2.7232620000000001</v>
+        <v>1.93699329</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
         <v>15.017802</v>
       </c>
       <c r="B602" s="2">
-        <v>2.7192090000000002</v>
+        <v>1.9337711550000003</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
         <v>15.042832000000001</v>
       </c>
       <c r="B603" s="2">
-        <v>2.7151580000000002</v>
+        <v>1.9305506100000003</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10296,7 +10296,7 @@
         <v>15.067862</v>
       </c>
       <c r="B604" s="2">
-        <v>2.7111079999999999</v>
+        <v>1.9273308599999999</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
         <v>15.092891</v>
       </c>
       <c r="B605" s="2">
-        <v>2.707058</v>
+        <v>1.9241111099999999</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
         <v>15.117921000000001</v>
       </c>
       <c r="B606" s="2">
-        <v>2.7030069999999999</v>
+        <v>1.9208905649999999</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <v>15.142951</v>
       </c>
       <c r="B607" s="2">
-        <v>2.6989570000000001</v>
+        <v>1.9176708150000004</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>15.16798</v>
       </c>
       <c r="B608" s="2">
-        <v>2.6949070000000002</v>
+        <v>1.9144510650000004</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>15.193009999999999</v>
       </c>
       <c r="B609" s="2">
-        <v>2.6908569999999998</v>
+        <v>1.911231315</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
         <v>15.21804</v>
       </c>
       <c r="B610" s="2">
-        <v>2.6868069999999999</v>
+        <v>1.908011565</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>15.243069</v>
       </c>
       <c r="B611" s="2">
-        <v>2.6827570000000001</v>
+        <v>1.9047918150000001</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>15.268098999999999</v>
       </c>
       <c r="B612" s="2">
-        <v>2.6787070000000002</v>
+        <v>1.9015720650000001</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
         <v>15.293129</v>
       </c>
       <c r="B613" s="2">
-        <v>2.6746259999999999</v>
+        <v>1.8983276700000002</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
         <v>15.318158</v>
       </c>
       <c r="B614" s="2">
-        <v>2.6704919999999999</v>
+        <v>1.8950411400000002</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10384,7 +10384,7 @@
         <v>15.343188</v>
       </c>
       <c r="B615" s="2">
-        <v>2.6663589999999999</v>
+        <v>1.8917554050000003</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>15.368218000000001</v>
       </c>
       <c r="B616" s="2">
-        <v>2.6622249999999998</v>
+        <v>1.8884688749999998</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>15.393247000000001</v>
       </c>
       <c r="B617" s="2">
-        <v>2.6580919999999999</v>
+        <v>1.8851831399999999</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10408,7 +10408,7 @@
         <v>15.418277</v>
       </c>
       <c r="B618" s="2">
-        <v>2.6539579999999998</v>
+        <v>1.8818966099999999</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
         <v>15.443307000000001</v>
       </c>
       <c r="B619" s="2">
-        <v>2.6498249999999999</v>
+        <v>1.8786108749999999</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
         <v>15.468336000000001</v>
       </c>
       <c r="B620" s="2">
-        <v>2.6456909999999998</v>
+        <v>1.8753243449999999</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>15.493366</v>
       </c>
       <c r="B621" s="2">
-        <v>2.6415579999999999</v>
+        <v>1.8720386099999999</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>15.518395999999999</v>
       </c>
       <c r="B622" s="2">
-        <v>2.6374249999999999</v>
+        <v>1.868752875</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10448,7 +10448,7 @@
         <v>15.543424999999999</v>
       </c>
       <c r="B623" s="2">
-        <v>2.6332610000000001</v>
+        <v>1.8654424950000001</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <v>15.568455</v>
       </c>
       <c r="B624" s="2">
-        <v>2.6290490000000002</v>
+        <v>1.8620939550000004</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>15.593484999999999</v>
       </c>
       <c r="B625" s="2">
-        <v>2.6248369999999999</v>
+        <v>1.8587454150000002</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
         <v>15.618513999999999</v>
       </c>
       <c r="B626" s="2">
-        <v>2.620625</v>
+        <v>1.8553968750000001</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
         <v>15.643544</v>
       </c>
       <c r="B627" s="2">
-        <v>2.6164130000000001</v>
+        <v>1.8520483350000003</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
         <v>15.668574</v>
       </c>
       <c r="B628" s="2">
-        <v>2.6122010000000002</v>
+        <v>1.8486997950000001</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
         <v>15.693603</v>
       </c>
       <c r="B629" s="2">
-        <v>2.6079889999999999</v>
+        <v>1.845351255</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
         <v>15.718633000000001</v>
       </c>
       <c r="B630" s="2">
-        <v>2.603777</v>
+        <v>1.8420027150000002</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>15.743663</v>
       </c>
       <c r="B631" s="2">
-        <v>2.5995650000000001</v>
+        <v>1.8386541750000001</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10520,7 +10520,7 @@
         <v>15.768692</v>
       </c>
       <c r="B632" s="2">
-        <v>2.5953529999999998</v>
+        <v>1.8353056349999999</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10528,7 +10528,7 @@
         <v>15.793722000000001</v>
       </c>
       <c r="B633" s="2">
-        <v>2.5911209999999998</v>
+        <v>1.831941195</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>15.818752</v>
       </c>
       <c r="B634" s="2">
-        <v>2.5868600000000002</v>
+        <v>1.8285537000000003</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>15.843781</v>
       </c>
       <c r="B635" s="2">
-        <v>2.5825990000000001</v>
+        <v>1.8251662050000002</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>15.868811000000001</v>
       </c>
       <c r="B636" s="2">
-        <v>2.578338</v>
+        <v>1.82177871</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>15.893841</v>
       </c>
       <c r="B637" s="2">
-        <v>2.5740759999999998</v>
+        <v>1.8183904199999998</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
         <v>15.91887</v>
       </c>
       <c r="B638" s="2">
-        <v>2.5698150000000002</v>
+        <v>1.8150029250000002</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10576,7 +10576,7 @@
         <v>15.943899999999999</v>
       </c>
       <c r="B639" s="2">
-        <v>2.5655540000000001</v>
+        <v>1.81161543</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,7 +10584,7 @@
         <v>15.96893</v>
       </c>
       <c r="B640" s="2">
-        <v>2.561293</v>
+        <v>1.8082279350000003</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>15.993959</v>
       </c>
       <c r="B641" s="2">
-        <v>2.5570309999999998</v>
+        <v>1.8048396450000002</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10600,7 @@
         <v>16.018989000000001</v>
       </c>
       <c r="B642" s="2">
-        <v>2.5527700000000002</v>
+        <v>1.8014521500000005</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>16.044018999999999</v>
       </c>
       <c r="B643" s="2">
-        <v>2.548594</v>
+        <v>1.79813223</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
         <v>16.069049</v>
       </c>
       <c r="B644" s="2">
-        <v>2.5445419999999999</v>
+        <v>1.7949108899999999</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>16.094078</v>
       </c>
       <c r="B645" s="2">
-        <v>2.5404900000000001</v>
+        <v>1.7916895500000003</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
         <v>16.119108000000001</v>
       </c>
       <c r="B646" s="2">
-        <v>2.536438</v>
+        <v>1.7884682100000002</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
         <v>16.144138000000002</v>
       </c>
       <c r="B647" s="2">
-        <v>2.5323859999999998</v>
+        <v>1.7852468700000002</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>16.169167000000002</v>
       </c>
       <c r="B648" s="2">
-        <v>2.5283340000000001</v>
+        <v>1.7820255300000001</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10656,7 @@
         <v>16.194196999999999</v>
       </c>
       <c r="B649" s="2">
-        <v>2.5242819999999999</v>
+        <v>1.77880419</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10664,7 +10664,7 @@
         <v>16.219227</v>
       </c>
       <c r="B650" s="2">
-        <v>2.5202300000000002</v>
+        <v>1.7755828500000004</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>16.244256</v>
       </c>
       <c r="B651" s="2">
-        <v>2.516178</v>
+        <v>1.7723615100000003</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,7 +10680,7 @@
         <v>16.269286000000001</v>
       </c>
       <c r="B652" s="2">
-        <v>2.5121259999999999</v>
+        <v>1.76914017</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
         <v>16.294315999999998</v>
       </c>
       <c r="B653" s="2">
-        <v>2.5081799999999999</v>
+        <v>1.7660031</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>16.319344999999998</v>
       </c>
       <c r="B654" s="2">
-        <v>2.5043820000000001</v>
+        <v>1.7629836900000002</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>16.344374999999999</v>
       </c>
       <c r="B655" s="2">
-        <v>2.5005839999999999</v>
+        <v>1.7599642800000002</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>16.369405</v>
       </c>
       <c r="B656" s="2">
-        <v>2.496785</v>
+        <v>1.756944075</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>16.394434</v>
       </c>
       <c r="B657" s="2">
-        <v>2.4929869999999998</v>
+        <v>1.753924665</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>16.419464000000001</v>
       </c>
       <c r="B658" s="2">
-        <v>2.4891890000000001</v>
+        <v>1.7509052550000002</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
         <v>16.444493999999999</v>
       </c>
       <c r="B659" s="2">
-        <v>2.4853909999999999</v>
+        <v>1.7478858450000001</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
         <v>16.469522999999999</v>
       </c>
       <c r="B660" s="2">
-        <v>2.4815930000000002</v>
+        <v>1.7448664350000003</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>16.494553</v>
       </c>
       <c r="B661" s="2">
-        <v>2.4777939999999998</v>
+        <v>1.7418462299999999</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10760,7 +10760,7 @@
         <v>16.519583000000001</v>
       </c>
       <c r="B662" s="2">
-        <v>2.4739960000000001</v>
+        <v>1.7388268200000001</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10768,7 +10768,7 @@
         <v>16.544612000000001</v>
       </c>
       <c r="B663" s="2">
-        <v>2.4702730000000002</v>
+        <v>1.7358670350000003</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10776,7 +10776,7 @@
         <v>16.569642000000002</v>
       </c>
       <c r="B664" s="2">
-        <v>2.4666489999999999</v>
+        <v>1.732985955</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
         <v>16.594671999999999</v>
       </c>
       <c r="B665" s="2">
-        <v>2.4630239999999999</v>
+        <v>1.73010408</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>16.619700999999999</v>
       </c>
       <c r="B666" s="2">
-        <v>2.4594</v>
+        <v>1.7272230000000002</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>16.644731</v>
       </c>
       <c r="B667" s="2">
-        <v>2.4557760000000002</v>
+        <v>1.7243419200000003</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,7 +10808,7 @@
         <v>16.669761000000001</v>
       </c>
       <c r="B668" s="2">
-        <v>2.4521510000000002</v>
+        <v>1.7214600450000002</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>16.694790000000001</v>
       </c>
       <c r="B669" s="2">
-        <v>2.4485269999999999</v>
+        <v>1.7185789650000001</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10824,7 +10824,7 @@
         <v>16.719819999999999</v>
       </c>
       <c r="B670" s="2">
-        <v>2.444903</v>
+        <v>1.7156978850000002</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>16.74485</v>
       </c>
       <c r="B671" s="2">
-        <v>2.4412780000000001</v>
+        <v>1.7128160100000001</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,7 +10840,7 @@
         <v>16.769879</v>
       </c>
       <c r="B672" s="2">
-        <v>2.4376540000000002</v>
+        <v>1.7099349300000002</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
         <v>16.794909000000001</v>
       </c>
       <c r="B673" s="2">
-        <v>2.4340389999999998</v>
+        <v>1.7070610049999999</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
         <v>16.819939000000002</v>
       </c>
       <c r="B674" s="2">
-        <v>2.430434</v>
+        <v>1.7041950300000002</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
         <v>16.844968000000001</v>
       </c>
       <c r="B675" s="2">
-        <v>2.4268299999999998</v>
+        <v>1.70132985</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>16.869997999999999</v>
       </c>
       <c r="B676" s="2">
-        <v>2.423225</v>
+        <v>1.6984638750000001</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10880,7 +10880,7 @@
         <v>16.895028</v>
       </c>
       <c r="B677" s="2">
-        <v>2.4196209999999998</v>
+        <v>1.6955986949999999</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>16.920057</v>
       </c>
       <c r="B678" s="2">
-        <v>2.4160159999999999</v>
+        <v>1.69273272</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10896,7 +10896,7 @@
         <v>16.945087000000001</v>
       </c>
       <c r="B679" s="2">
-        <v>2.4124119999999998</v>
+        <v>1.6898675399999998</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
         <v>16.970116999999998</v>
       </c>
       <c r="B680" s="2">
-        <v>2.4088069999999999</v>
+        <v>1.6870015650000001</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>16.995145999999998</v>
       </c>
       <c r="B681" s="2">
-        <v>2.4052030000000002</v>
+        <v>1.6841363850000002</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>17.020175999999999</v>
       </c>
       <c r="B682" s="2">
-        <v>2.4015979999999999</v>
+        <v>1.68127041</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
         <v>17.045206</v>
       </c>
       <c r="B683" s="2">
-        <v>2.3979870000000001</v>
+        <v>1.6783996650000002</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10936,7 +10936,7 @@
         <v>17.070235</v>
       </c>
       <c r="B684" s="2">
-        <v>2.3943680000000001</v>
+        <v>1.6755225600000001</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
         <v>17.095265000000001</v>
       </c>
       <c r="B685" s="2">
-        <v>2.390749</v>
+        <v>1.6726454550000001</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10952,7 +10952,7 @@
         <v>17.120294999999999</v>
       </c>
       <c r="B686" s="2">
-        <v>2.38713</v>
+        <v>1.66976835</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10960,7 +10960,7 @@
         <v>17.145323999999999</v>
       </c>
       <c r="B687" s="2">
-        <v>2.3835109999999999</v>
+        <v>1.666891245</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>17.170354</v>
       </c>
       <c r="B688" s="2">
-        <v>2.3798919999999999</v>
+        <v>1.6640141400000001</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>17.195384000000001</v>
       </c>
       <c r="B689" s="2">
-        <v>2.3762729999999999</v>
+        <v>1.6611370350000001</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10984,7 +10984,7 @@
         <v>17.220413000000001</v>
       </c>
       <c r="B690" s="2">
-        <v>2.3726539999999998</v>
+        <v>1.65825993</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
         <v>17.245443000000002</v>
       </c>
       <c r="B691" s="2">
-        <v>2.3690349999999998</v>
+        <v>1.655382825</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
         <v>17.270472999999999</v>
       </c>
       <c r="B692" s="2">
-        <v>2.3654160000000002</v>
+        <v>1.6525057200000002</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
         <v>17.295501999999999</v>
       </c>
       <c r="B693" s="2">
-        <v>2.3618049999999999</v>
+        <v>1.6496349750000001</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>17.320532</v>
       </c>
       <c r="B694" s="2">
-        <v>2.3582040000000002</v>
+        <v>1.6467721800000004</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>17.345562000000001</v>
       </c>
       <c r="B695" s="2">
-        <v>2.354603</v>
+        <v>1.6439093850000002</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>17.370591000000001</v>
       </c>
       <c r="B696" s="2">
-        <v>2.351003</v>
+        <v>1.641047385</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11040,7 +11040,7 @@
         <v>17.395620999999998</v>
       </c>
       <c r="B697" s="2">
-        <v>2.3474020000000002</v>
+        <v>1.6381845900000003</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
         <v>17.420650999999999</v>
       </c>
       <c r="B698" s="2">
-        <v>2.343801</v>
+        <v>1.6353217950000001</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>17.445679999999999</v>
       </c>
       <c r="B699" s="2">
-        <v>2.3401999999999998</v>
+        <v>1.6324589999999999</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11064,7 +11064,7 @@
         <v>17.47071</v>
       </c>
       <c r="B700" s="2">
-        <v>2.3365990000000001</v>
+        <v>1.6295962050000001</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>17.495740000000001</v>
       </c>
       <c r="B701" s="2">
-        <v>2.332999</v>
+        <v>1.6267342050000002</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
         <v>17.520769000000001</v>
       </c>
       <c r="B702" s="2">
-        <v>2.3293979999999999</v>
+        <v>1.62387141</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11088,7 +11088,7 @@
         <v>17.545798999999999</v>
       </c>
       <c r="B703" s="2">
-        <v>2.3255059999999999</v>
+        <v>1.62077727</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>17.570829</v>
       </c>
       <c r="B704" s="2">
-        <v>2.3212950000000001</v>
+        <v>1.6174295250000001</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
         <v>17.595858</v>
       </c>
       <c r="B705" s="2">
-        <v>2.3170850000000001</v>
+        <v>1.6140825750000001</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
         <v>17.620888000000001</v>
       </c>
       <c r="B706" s="2">
-        <v>2.3128739999999999</v>
+        <v>1.61073483</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11120,7 +11120,7 @@
         <v>17.645918000000002</v>
       </c>
       <c r="B707" s="2">
-        <v>2.3086639999999998</v>
+        <v>1.6073878799999999</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11128,7 +11128,7 @@
         <v>17.670947000000002</v>
       </c>
       <c r="B708" s="2">
-        <v>2.3044539999999998</v>
+        <v>1.60404093</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>17.695976999999999</v>
       </c>
       <c r="B709" s="2">
-        <v>2.3002449999999999</v>
+        <v>1.600694775</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
         <v>17.721007</v>
       </c>
       <c r="B710" s="2">
-        <v>2.2960349999999998</v>
+        <v>1.5973478249999999</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>17.746036</v>
       </c>
       <c r="B711" s="2">
-        <v>2.2918259999999999</v>
+        <v>1.5940016700000001</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11160,7 +11160,7 @@
         <v>17.771066000000001</v>
       </c>
       <c r="B712" s="2">
-        <v>2.287617</v>
+        <v>1.5906555150000001</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11168,7 +11168,7 @@
         <v>17.796095999999999</v>
       </c>
       <c r="B713" s="2">
-        <v>2.2469779999999999</v>
+        <v>1.5583475099999999</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,7 @@
         <v>17.821124999999999</v>
       </c>
       <c r="B714" s="2">
-        <v>2.1682549999999998</v>
+        <v>1.4957627250000001</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11184,7 +11184,7 @@
         <v>17.846155</v>
       </c>
       <c r="B715" s="2">
-        <v>2.0895320000000002</v>
+        <v>1.4331779400000002</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>17.871185000000001</v>
       </c>
       <c r="B716" s="2">
-        <v>2.0108090000000001</v>
+        <v>1.3705931550000001</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11200,7 +11200,7 @@
         <v>17.896214000000001</v>
       </c>
       <c r="B717" s="2">
-        <v>1.9320850000000001</v>
+        <v>1.3080075750000002</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11208,7 +11208,7 @@
         <v>17.921244000000002</v>
       </c>
       <c r="B718">
-        <v>1.853361</v>
+        <v>1.2454219950000001</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11216,7 +11216,7 @@
         <v>17.946273999999999</v>
       </c>
       <c r="B719">
-        <v>1.774637</v>
+        <v>1.1828364150000001</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11224,7 +11224,7 @@
         <v>17.971302999999999</v>
       </c>
       <c r="B720">
-        <v>1.695913</v>
+        <v>1.120250835</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11232,7 +11232,7 @@
         <v>17.996333</v>
       </c>
       <c r="B721">
-        <v>1.617189</v>
+        <v>1.0576652550000001</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/config/PDDCalib.xlsx
+++ b/config/PDDCalib.xlsx
@@ -2333,2152 +2333,2152 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="716"/>
                 <c:pt idx="0">
-                  <c:v>2.9365841549999998</c:v>
+                  <c:v>4.7790553459119494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2994213599999997</c:v>
+                  <c:v>5.3531421383647793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4753596299999998</c:v>
+                  <c:v>5.631514465408805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5542967700000001</c:v>
+                  <c:v>5.7564100628930817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6332203949999995</c:v>
+                  <c:v>5.8812842767295592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7121320949999999</c:v>
+                  <c:v>6.0061396226415091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7910318699999999</c:v>
+                  <c:v>6.1309761006289314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8699181299999998</c:v>
+                  <c:v>6.2557911949685527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9487924649999999</c:v>
+                  <c:v>6.3805874213836482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0276540800000005</c:v>
+                  <c:v>6.5053635220125781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1065029750000006</c:v>
+                  <c:v>6.6301194968553459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1853391500000008</c:v>
+                  <c:v>6.7548553459119498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2329620349999999</c:v>
+                  <c:v>6.8302050314465408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2652080300000002</c:v>
+                  <c:v>6.8812251572327039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2974405100000004</c:v>
+                  <c:v>6.9322238993710688</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3296578850000005</c:v>
+                  <c:v>6.9831987421383648</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3618609500000005</c:v>
+                  <c:v>7.0341509433962264</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3940489100000004</c:v>
+                  <c:v>7.0850792452830191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4262225600000003</c:v>
+                  <c:v>7.1359849056603775</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4583819000000009</c:v>
+                  <c:v>7.1868679245283023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4905261350000005</c:v>
+                  <c:v>7.2377270440251573</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5226560600000001</c:v>
+                  <c:v>7.288563522012578</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5411398100000007</c:v>
+                  <c:v>7.3178088050314463</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5532516350000005</c:v>
+                  <c:v>7.336972327044025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5653539200000006</c:v>
+                  <c:v>7.3561207547169811</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5774482550000011</c:v>
+                  <c:v>7.3752566037735852</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.58953305</c:v>
+                  <c:v>7.3943773584905657</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.6016098950000011</c:v>
+                  <c:v>7.413485534591195</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.6136779950000006</c:v>
+                  <c:v>7.4325798742138369</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.6257365550000005</c:v>
+                  <c:v>7.4516591194968553</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.6377871650000007</c:v>
+                  <c:v>7.4707257861635217</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.6498290300000003</c:v>
+                  <c:v>7.4897786163522007</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6555919850000009</c:v>
+                  <c:v>7.4988968553459125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6585780050000007</c:v>
+                  <c:v>7.5036213836477987</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.6615600500000003</c:v>
+                  <c:v>7.5083396226415093</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.6645373250000004</c:v>
+                  <c:v>7.5130503144654091</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6675098300000002</c:v>
+                  <c:v>7.5177534591194961</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.6704775650000006</c:v>
+                  <c:v>7.5224490566037732</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.6734405300000006</c:v>
+                  <c:v>7.5271371069182385</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6763995200000004</c:v>
+                  <c:v>7.5318188679245281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6793529450000007</c:v>
+                  <c:v>7.5364918238993708</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.6823023950000007</c:v>
+                  <c:v>7.5411584905660378</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.682082975000001</c:v>
+                  <c:v>7.5408113207547176</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6805367000000011</c:v>
+                  <c:v>7.5383647798742137</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6789888350000002</c:v>
+                  <c:v>7.5359157232704401</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.6774377900000008</c:v>
+                  <c:v>7.5334616352201254</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.6758843600000004</c:v>
+                  <c:v>7.5310037735849056</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6743293399999999</c:v>
+                  <c:v>7.5285433962264143</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6727711400000009</c:v>
+                  <c:v>7.5260779874213837</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6712105550000009</c:v>
+                  <c:v>7.5236088050314462</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.6696475849999999</c:v>
+                  <c:v>7.5211358490566029</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.6680822300000004</c:v>
+                  <c:v>7.5186591194968555</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.6649260800000008</c:v>
+                  <c:v>7.5136654088050312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6611402900000005</c:v>
+                  <c:v>7.5076754716981124</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.6573529100000002</c:v>
+                  <c:v>7.501683018867924</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.6535639400000006</c:v>
+                  <c:v>7.4956880503144649</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.6497733800000001</c:v>
+                  <c:v>7.4896905660377353</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.6459812300000003</c:v>
+                  <c:v>7.4836905660377351</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6421874900000004</c:v>
+                  <c:v>7.4776880503144652</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6383921600000004</c:v>
+                  <c:v>7.4716830188679237</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.6345960350000004</c:v>
+                  <c:v>7.4656767295597479</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.6307975250000002</c:v>
+                  <c:v>7.4596666666666662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.6257198600000002</c:v>
+                  <c:v>7.4516327044025159</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.6201659900000003</c:v>
+                  <c:v>7.4428452830188672</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.6146113250000003</c:v>
+                  <c:v>7.4340566037735849</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.6090550700000001</c:v>
+                  <c:v>7.4252654088050312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6034980200000009</c:v>
+                  <c:v>7.416472955974843</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.5979393800000006</c:v>
+                  <c:v>7.4076779874213834</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.5923807400000003</c:v>
+                  <c:v>7.3988830188679247</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.5868205099999999</c:v>
+                  <c:v>7.3900855345911944</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.5812594850000004</c:v>
+                  <c:v>7.3812867924528298</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.5756976649999999</c:v>
+                  <c:v>7.3724867924528299</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.570028520000001</c:v>
+                  <c:v>7.3635169811320758</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.5643220100000006</c:v>
+                  <c:v>7.3544880503144654</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.5586155000000002</c:v>
+                  <c:v>7.345459119496855</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.5529081950000005</c:v>
+                  <c:v>7.3364289308176103</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.5472000950000009</c:v>
+                  <c:v>7.3273974842767302</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.5414912000000003</c:v>
+                  <c:v>7.318364779874214</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.5357815100000005</c:v>
+                  <c:v>7.3093308176100624</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.5300718199999999</c:v>
+                  <c:v>7.3002968553459118</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.5243613350000009</c:v>
+                  <c:v>7.2912616352201258</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.5186500550000002</c:v>
+                  <c:v>7.2822251572327037</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.5125985150000005</c:v>
+                  <c:v>7.272650314465408</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.5064332900000004</c:v>
+                  <c:v>7.2628955974842766</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.5002688600000003</c:v>
+                  <c:v>7.2531421383647796</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4941036350000001</c:v>
+                  <c:v>7.2433874213836473</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.4879376150000008</c:v>
+                  <c:v>7.2336314465408806</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.4817715950000006</c:v>
+                  <c:v>7.2238754716981131</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.4756055750000003</c:v>
+                  <c:v>7.2141194968553455</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.469439555000001</c:v>
+                  <c:v>7.2043635220125788</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.4632719450000007</c:v>
+                  <c:v>7.1946050314465406</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.4571051300000004</c:v>
+                  <c:v>7.1848477987421386</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4506378050000004</c:v>
+                  <c:v>7.1746150943396225</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4440782600000004</c:v>
+                  <c:v>7.164236477987421</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.4375179200000003</c:v>
+                  <c:v>7.1538566037735851</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4309575800000003</c:v>
+                  <c:v>7.1434767295597483</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4243972400000002</c:v>
+                  <c:v>7.1330968553459115</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.4178369000000002</c:v>
+                  <c:v>7.1227169811320756</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.411275765000001</c:v>
+                  <c:v>7.1123358490566035</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.404715425</c:v>
+                  <c:v>7.1019559748427668</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.3981542899999999</c:v>
+                  <c:v>7.0915748427672956</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.3915923600000006</c:v>
+                  <c:v>7.0811924528301882</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.38493026</c:v>
+                  <c:v>7.0706515723270442</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.3782379500000008</c:v>
+                  <c:v>7.0600628930817608</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.3715456400000008</c:v>
+                  <c:v>7.0494742138364783</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.3648525350000007</c:v>
+                  <c:v>7.0388842767295596</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.3581602249999998</c:v>
+                  <c:v>7.0282955974842762</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.3514671200000006</c:v>
+                  <c:v>7.0177056603773575</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.3447740150000005</c:v>
+                  <c:v>7.0071157232704397</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.3380809100000004</c:v>
+                  <c:v>6.9965257861635219</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.3313870100000003</c:v>
+                  <c:v>6.985934591194968</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.3246939050000002</c:v>
+                  <c:v>6.9753446540880502</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.318252020000001</c:v>
+                  <c:v>6.9651522012578617</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.3118785050000001</c:v>
+                  <c:v>6.9550679245283016</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.3055049900000002</c:v>
+                  <c:v>6.9449836477987423</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.2991314750000011</c:v>
+                  <c:v>6.9348993710691831</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.2927579600000003</c:v>
+                  <c:v>6.9248150943396221</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.2863836500000003</c:v>
+                  <c:v>6.9147295597484275</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.2800101350000004</c:v>
+                  <c:v>6.9046452830188683</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.2736358250000004</c:v>
+                  <c:v>6.8945597484276728</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.2672623100000004</c:v>
+                  <c:v>6.8844754716981127</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.2608880000000005</c:v>
+                  <c:v>6.8743899371069181</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.2544850700000003</c:v>
+                  <c:v>6.8642591194968556</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.2480749850000006</c:v>
+                  <c:v>6.8541169811320755</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.2416649000000008</c:v>
+                  <c:v>6.8439748427672962</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.2352548150000002</c:v>
+                  <c:v>6.8338327044025151</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.2288447300000005</c:v>
+                  <c:v>6.8236905660377349</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.2224338499999998</c:v>
+                  <c:v>6.8135471698113204</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.2160237650000001</c:v>
+                  <c:v>6.8034050314465402</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.2096128850000003</c:v>
+                  <c:v>6.7932616352201256</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.2032020050000005</c:v>
+                  <c:v>6.783118238993711</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.1967911250000007</c:v>
+                  <c:v>6.7729748427672956</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4.1902641750000011</c:v>
+                  <c:v>6.7626477987421385</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.1837101950000006</c:v>
+                  <c:v>6.7522779874213832</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4.1771562150000001</c:v>
+                  <c:v>6.7419081761006279</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.1706022350000005</c:v>
+                  <c:v>6.7315383647798743</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.1640474599999999</c:v>
+                  <c:v>6.7211672955974837</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.1574934800000003</c:v>
+                  <c:v>6.7107974842767293</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.1509387049999997</c:v>
+                  <c:v>6.7004264150943387</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.144384725000001</c:v>
+                  <c:v>6.6900566037735851</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4.1378299500000004</c:v>
+                  <c:v>6.6796855345911945</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.1312759700000008</c:v>
+                  <c:v>6.6693157232704401</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.1245462950000009</c:v>
+                  <c:v>6.6586679245283014</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4.1177784600000003</c:v>
+                  <c:v>6.6479597484276729</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.1110114200000005</c:v>
+                  <c:v>6.6372528301886788</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4.1042435850000007</c:v>
+                  <c:v>6.6265446540880504</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4.097476545000001</c:v>
+                  <c:v>6.6158377358490572</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.0907087100000004</c:v>
+                  <c:v>6.605129559748427</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.0839416700000006</c:v>
+                  <c:v>6.5944226415094338</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.0771738350000009</c:v>
+                  <c:v>6.5837144654088053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.0704060000000002</c:v>
+                  <c:v>6.5730062893081751</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.0636389600000005</c:v>
+                  <c:v>6.5622993710691819</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.0571676600000002</c:v>
+                  <c:v>6.5520603773584902</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4.0507551900000003</c:v>
+                  <c:v>6.5419144654088042</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>4.0443427200000004</c:v>
+                  <c:v>6.5317685534591199</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.0379310450000006</c:v>
+                  <c:v>6.5216238993710691</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>4.0315185749999998</c:v>
+                  <c:v>6.5114779874213831</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>4.0251061050000008</c:v>
+                  <c:v>6.5013320754716979</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4.018693635</c:v>
+                  <c:v>6.4911861635220118</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.012281165000001</c:v>
+                  <c:v>6.4810402515723275</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4.0058686950000002</c:v>
+                  <c:v>6.4708943396226415</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.9994562249999999</c:v>
+                  <c:v>6.4607484276729554</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.9932631749999996</c:v>
+                  <c:v>6.4509496855345905</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.9871090800000002</c:v>
+                  <c:v>6.4412125786163523</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.9809557799999999</c:v>
+                  <c:v>6.4314767295597486</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.9748016849999996</c:v>
+                  <c:v>6.4217396226415095</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.9686483850000003</c:v>
+                  <c:v>6.4120037735849058</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.962495085</c:v>
+                  <c:v>6.4022679245283012</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.9563409899999997</c:v>
+                  <c:v>6.3925308176100621</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.9501876900000004</c:v>
+                  <c:v>6.3827949685534593</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.9440335950000001</c:v>
+                  <c:v>6.3730578616352203</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.9378802949999998</c:v>
+                  <c:v>6.3633220125786165</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.9316443150000002</c:v>
+                  <c:v>6.3534553459119492</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.9253940250000006</c:v>
+                  <c:v>6.3435660377358492</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.9191445300000001</c:v>
+                  <c:v>6.3336779874213835</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.9128950350000005</c:v>
+                  <c:v>6.3237899371069179</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.9066447449999999</c:v>
+                  <c:v>6.313900628930817</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.9003952499999994</c:v>
+                  <c:v>6.3040125786163514</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.8941457549999998</c:v>
+                  <c:v>6.2941245283018858</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.8878954650000002</c:v>
+                  <c:v>6.2842352201257867</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.8816459699999997</c:v>
+                  <c:v>6.2743471698113211</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.8753964750000001</c:v>
+                  <c:v>6.2644591194968555</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.8690507850000002</c:v>
+                  <c:v>6.2544188679245281</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.8626915800000003</c:v>
+                  <c:v>6.2443572327044023</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.8563323750000005</c:v>
+                  <c:v>6.2342955974842766</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.8499731700000006</c:v>
+                  <c:v>6.2242339622641509</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.8436147599999999</c:v>
+                  <c:v>6.2141735849056596</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.837255555</c:v>
+                  <c:v>6.2041119496855339</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.8308963500000002</c:v>
+                  <c:v>6.1940503144654082</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.8245379400000004</c:v>
+                  <c:v>6.1839899371069187</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.8181787350000005</c:v>
+                  <c:v>6.173928301886793</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.8118203249999998</c:v>
+                  <c:v>6.1638679245283017</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.8059134750000001</c:v>
+                  <c:v>6.1545220125786164</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.8000678400000001</c:v>
+                  <c:v>6.1452729559748427</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.7942222050000001</c:v>
+                  <c:v>6.136023899371069</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.7883765700000001</c:v>
+                  <c:v>6.1267748427672952</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.7825317300000001</c:v>
+                  <c:v>6.1175270440251568</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.7766860950000001</c:v>
+                  <c:v>6.1082779874213831</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.7708404600000001</c:v>
+                  <c:v>6.0990289308176102</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.7649956200000001</c:v>
+                  <c:v>6.0897811320754718</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.7591499850000001</c:v>
+                  <c:v>6.0805320754716981</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.7533051450000001</c:v>
+                  <c:v>6.0712842767295596</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.7477313999999997</c:v>
+                  <c:v>6.0624654088050312</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.7421902499999997</c:v>
+                  <c:v>6.0536981132075471</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.7366498950000002</c:v>
+                  <c:v>6.0449320754716984</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.7311087450000002</c:v>
+                  <c:v>6.0361647798742144</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.7255683900000003</c:v>
+                  <c:v>6.0273987421383648</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.7200272399999998</c:v>
+                  <c:v>6.0186314465408799</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.7144860899999999</c:v>
+                  <c:v>6.0098641509433959</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.7089457349999999</c:v>
+                  <c:v>6.0010981132075472</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.7034045849999999</c:v>
+                  <c:v>5.9923308176100631</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.69786423</c:v>
+                  <c:v>5.9835647798742144</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.6923119500000001</c:v>
+                  <c:v>5.9747798742138363</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.6867596699999998</c:v>
+                  <c:v>5.965994968553459</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.68120739</c:v>
+                  <c:v>5.9572100628930817</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.6756551099999997</c:v>
+                  <c:v>5.9484251572327045</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.6701028299999998</c:v>
+                  <c:v>5.9396402515723263</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.6645505499999995</c:v>
+                  <c:v>5.9308553459119491</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.6589990649999997</c:v>
+                  <c:v>5.9220716981132071</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3.6534475799999999</c:v>
+                  <c:v>5.9132880503144651</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3.6478952999999996</c:v>
+                  <c:v>5.9045031446540879</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.6423438149999998</c:v>
+                  <c:v>5.895719496855345</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.6369235049999995</c:v>
+                  <c:v>5.8871433962264144</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.6315143249999999</c:v>
+                  <c:v>5.8785849056603769</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.6261051449999999</c:v>
+                  <c:v>5.8700264150943395</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.6206959650000003</c:v>
+                  <c:v>5.8614679245283021</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3.6152867850000003</c:v>
+                  <c:v>5.8529094339622647</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3.6098768100000003</c:v>
+                  <c:v>5.844349685534592</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.6044676299999998</c:v>
+                  <c:v>5.8357911949685528</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3.5990584499999998</c:v>
+                  <c:v>5.8272327044025154</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3.5936484750000002</c:v>
+                  <c:v>5.8186729559748427</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.5882392950000002</c:v>
+                  <c:v>5.8101144654088053</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.5827013249999999</c:v>
+                  <c:v>5.8013522012578616</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3.577153815</c:v>
+                  <c:v>5.7925748427672952</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3.5716055100000004</c:v>
+                  <c:v>5.7837962264150944</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3.566058</c:v>
+                  <c:v>5.7750188679245289</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>3.5605096949999999</c:v>
+                  <c:v>5.7662402515723272</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3.5549613899999999</c:v>
+                  <c:v>5.7574616352201256</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3.5494130850000003</c:v>
+                  <c:v>5.7486830188679248</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3.5438647799999998</c:v>
+                  <c:v>5.7399044025157231</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3.5383164749999998</c:v>
+                  <c:v>5.7311257861635214</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3.5327673750000002</c:v>
+                  <c:v>5.7223459119496853</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3.5271880649999998</c:v>
+                  <c:v>5.7135182389937098</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3.5216071649999998</c:v>
+                  <c:v>5.7046880503144655</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3.5160254699999998</c:v>
+                  <c:v>5.6958566037735849</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>3.5104445700000002</c:v>
+                  <c:v>5.6870264150943397</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>3.5048636700000002</c:v>
+                  <c:v>5.6781962264150945</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>3.4992819750000002</c:v>
+                  <c:v>5.6693647798742139</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>3.4937010749999997</c:v>
+                  <c:v>5.6605345911949678</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>3.4881201749999997</c:v>
+                  <c:v>5.6517044025157235</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>3.4825384800000001</c:v>
+                  <c:v>5.642872955974843</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>3.4769575800000001</c:v>
+                  <c:v>5.6340427672955977</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>3.4713607799999999</c:v>
+                  <c:v>5.6251874213836484</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>3.4657623900000001</c:v>
+                  <c:v>5.6163295597484275</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>3.4601647949999998</c:v>
+                  <c:v>5.6074729559748429</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>3.4545672000000001</c:v>
+                  <c:v>5.5986163522012573</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>3.4489688099999998</c:v>
+                  <c:v>5.5897584905660374</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>3.4433712150000004</c:v>
+                  <c:v>5.5809018867924536</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>3.4377736200000002</c:v>
+                  <c:v>5.572045283018868</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>3.4321752299999999</c:v>
+                  <c:v>5.5631874213836481</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>3.4265776350000001</c:v>
+                  <c:v>5.5543308176100625</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>3.4209792449999998</c:v>
+                  <c:v>5.5454729559748426</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>3.4154921549999999</c:v>
+                  <c:v>5.5367911949685533</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>3.4100090400000003</c:v>
+                  <c:v>5.5281157232704405</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>3.4045267199999998</c:v>
+                  <c:v>5.5194415094339622</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>3.3990443999999997</c:v>
+                  <c:v>5.5107672955974838</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>3.3935612850000001</c:v>
+                  <c:v>5.502091823899371</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>3.3880789650000001</c:v>
+                  <c:v>5.4934176100628926</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>3.3825974400000001</c:v>
+                  <c:v>5.4847446540880505</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>3.3771151199999996</c:v>
+                  <c:v>5.4760704402515721</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>3.3716328000000004</c:v>
+                  <c:v>5.4673962264150946</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>3.366151275</c:v>
+                  <c:v>5.4587232704402515</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>3.3608557800000001</c:v>
+                  <c:v>5.4503446540880498</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>3.3555650549999996</c:v>
+                  <c:v>5.4419735849056599</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>3.35027433</c:v>
+                  <c:v>5.4336025157232708</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>3.3449828099999999</c:v>
+                  <c:v>5.4252301886792447</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>3.3396920850000003</c:v>
+                  <c:v>5.4168591194968556</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>3.3344013600000002</c:v>
+                  <c:v>5.4084880503144657</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>3.3291098399999997</c:v>
+                  <c:v>5.4001157232704395</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>3.323819115</c:v>
+                  <c:v>5.3917446540880505</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>3.31852839</c:v>
+                  <c:v>5.3833735849056605</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>3.3132368700000003</c:v>
+                  <c:v>5.3750012578616353</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3.3081894150000002</c:v>
+                  <c:v>5.3670150943396226</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>3.3031459349999999</c:v>
+                  <c:v>5.3590352201257856</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>3.2981016600000004</c:v>
+                  <c:v>5.351054088050315</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>3.2930581800000001</c:v>
+                  <c:v>5.343074213836478</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3.2880146999999997</c:v>
+                  <c:v>5.3350943396226409</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>3.2829704249999998</c:v>
+                  <c:v>5.3271132075471694</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3.2779269449999995</c:v>
+                  <c:v>5.3191333333333333</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>3.27288267</c:v>
+                  <c:v>5.3111522012578618</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>3.2678383950000005</c:v>
+                  <c:v>5.3031710691823903</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>3.2627949150000002</c:v>
+                  <c:v>5.2951911949685533</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>3.2576544449999996</c:v>
+                  <c:v>5.28705786163522</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>3.2525131799999998</c:v>
+                  <c:v>5.2789232704402513</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>3.2473727100000001</c:v>
+                  <c:v>5.270789937106918</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>3.2422314450000003</c:v>
+                  <c:v>5.2626553459119503</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>3.2370909749999996</c:v>
+                  <c:v>5.2545220125786161</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>3.2319497099999999</c:v>
+                  <c:v>5.2463874213836474</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3.2268092400000001</c:v>
+                  <c:v>5.238254088050315</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>3.2216679749999999</c:v>
+                  <c:v>5.2301194968553455</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>3.2165275050000002</c:v>
+                  <c:v>5.2219861635220131</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>3.2113838549999998</c:v>
+                  <c:v>5.2138477987421386</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>3.2059484399999998</c:v>
+                  <c:v>5.2052477987421382</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>3.2005130249999998</c:v>
+                  <c:v>5.1966477987421387</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>3.1950776099999998</c:v>
+                  <c:v>5.1880477987421383</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>3.1896421949999998</c:v>
+                  <c:v>5.1794477987421379</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>3.1842067799999998</c:v>
+                  <c:v>5.1708477987421384</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>3.1787713649999998</c:v>
+                  <c:v>5.162247798742138</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3.1733351549999997</c:v>
+                  <c:v>5.1536465408805032</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>3.1678997399999997</c:v>
+                  <c:v>5.1450465408805028</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>3.1624635299999997</c:v>
+                  <c:v>5.136445283018868</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>3.1570328849999996</c:v>
+                  <c:v>5.1278528301886785</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>3.1518280200000004</c:v>
+                  <c:v>5.1196176100628934</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3.1466231549999999</c:v>
+                  <c:v>5.1113823899371074</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>3.1414190849999999</c:v>
+                  <c:v>5.1031484276729557</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>3.1362142199999998</c:v>
+                  <c:v>5.0949132075471697</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>3.1310101500000003</c:v>
+                  <c:v>5.086679245283019</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>3.1258052849999998</c:v>
+                  <c:v>5.0784440251572329</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>3.1206012149999998</c:v>
+                  <c:v>5.0702100628930813</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>3.1153971449999998</c:v>
+                  <c:v>5.0619761006289306</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>3.1101922800000001</c:v>
+                  <c:v>5.0537408805031454</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>3.1049961599999998</c:v>
+                  <c:v>5.0455194968553458</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3.1000385400000003</c:v>
+                  <c:v>5.0376754716981136</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>3.095080125</c:v>
+                  <c:v>5.0298301886792451</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>3.0901225050000001</c:v>
+                  <c:v>5.0219861635220129</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>3.0851640899999997</c:v>
+                  <c:v>5.0141408805031444</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>3.0802064700000003</c:v>
+                  <c:v>5.0062968553459122</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>3.0752488499999999</c:v>
+                  <c:v>4.998452830188679</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>3.0702912299999996</c:v>
+                  <c:v>4.9906088050314459</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>3.0653336100000002</c:v>
+                  <c:v>4.9827647798742136</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>3.0603759899999998</c:v>
+                  <c:v>4.9749207547169805</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>3.0554215500000002</c:v>
+                  <c:v>4.9670817610062894</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>3.0505275300000001</c:v>
+                  <c:v>4.9593383647798746</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>3.0456335100000005</c:v>
+                  <c:v>4.9515949685534597</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>3.0407386950000004</c:v>
+                  <c:v>4.9438503144654096</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>3.0358446749999999</c:v>
+                  <c:v>4.9361069182389929</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3.0309506549999998</c:v>
+                  <c:v>4.9283635220125781</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>3.0260566349999998</c:v>
+                  <c:v>4.9206201257861633</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3.0211618200000001</c:v>
+                  <c:v>4.9128754716981131</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>3.0162678000000001</c:v>
+                  <c:v>4.9051320754716983</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>3.0113737800000004</c:v>
+                  <c:v>4.8973886792452834</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>3.006486915</c:v>
+                  <c:v>4.8896566037735854</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>3.0017256599999995</c:v>
+                  <c:v>4.8821232704402506</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>2.9969652</c:v>
+                  <c:v>4.8745911949685539</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>2.99220474</c:v>
+                  <c:v>4.8670591194968553</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>2.9874442800000001</c:v>
+                  <c:v>4.8595270440251577</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>2.9826838200000001</c:v>
+                  <c:v>4.8519949685534591</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>2.9779233599999997</c:v>
+                  <c:v>4.8444628930817606</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>2.9731629000000002</c:v>
+                  <c:v>4.8369308176100629</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>2.9684016449999997</c:v>
+                  <c:v>4.8293974842767291</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>2.9636411850000002</c:v>
+                  <c:v>4.8218654088050323</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>2.9588783399999996</c:v>
+                  <c:v>4.814329559748427</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>2.9540805149999998</c:v>
+                  <c:v>4.806738364779874</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>2.94928269</c:v>
+                  <c:v>4.7991471698113211</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>2.9444848649999997</c:v>
+                  <c:v>4.7915559748427672</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>2.9396870399999999</c:v>
+                  <c:v>4.7839647798742142</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>2.9348892149999997</c:v>
+                  <c:v>4.7763735849056603</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>2.9300905949999998</c:v>
+                  <c:v>4.7687811320754712</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>2.92529277</c:v>
+                  <c:v>4.7611899371069182</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>2.9204949449999997</c:v>
+                  <c:v>4.7535987421383643</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>2.9156971199999999</c:v>
+                  <c:v>4.7460075471698113</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>2.9109072449999998</c:v>
+                  <c:v>4.7384289308176095</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>2.9062183350000002</c:v>
+                  <c:v>4.7310100628930822</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2.9015286300000001</c:v>
+                  <c:v>4.7235899371069179</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>2.89683972</c:v>
+                  <c:v>4.7161710691823897</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>2.89215081</c:v>
+                  <c:v>4.7087522012578615</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>2.8874618999999999</c:v>
+                  <c:v>4.7013333333333334</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>2.8827729899999999</c:v>
+                  <c:v>4.6939144654088052</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>2.8780840799999998</c:v>
+                  <c:v>4.6864955974842761</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>2.8733951700000002</c:v>
+                  <c:v>4.6790767295597488</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>2.8687062599999997</c:v>
+                  <c:v>4.6716578616352198</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>2.8640101949999996</c:v>
+                  <c:v>4.6642276729559748</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>2.85924099</c:v>
+                  <c:v>4.6566817610062898</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>2.8544725799999999</c:v>
+                  <c:v>4.6491371069182392</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>2.8497041699999999</c:v>
+                  <c:v>4.6415924528301886</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>2.8449357599999998</c:v>
+                  <c:v>4.634047798742138</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>2.8401665549999997</c:v>
+                  <c:v>4.626501886792453</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>2.8353981449999996</c:v>
+                  <c:v>4.6189572327044024</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>2.830629735</c:v>
+                  <c:v>4.6114125786163518</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>2.8258605299999999</c:v>
+                  <c:v>4.6038666666666668</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>2.8210921199999999</c:v>
+                  <c:v>4.5963220125786162</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>2.8163030399999998</c:v>
+                  <c:v>4.5887446540880497</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>2.8113366750000002</c:v>
+                  <c:v>4.58088679245283</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>2.8063703100000001</c:v>
+                  <c:v>4.5730289308176104</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>2.8014031499999996</c:v>
+                  <c:v>4.5651698113207546</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>2.796436785</c:v>
+                  <c:v>4.557311949685535</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>2.79147042</c:v>
+                  <c:v>4.5494540880503145</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>2.7865032599999999</c:v>
+                  <c:v>4.5415949685534596</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>2.7815368949999999</c:v>
+                  <c:v>4.5337371069182391</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>2.7765705299999999</c:v>
+                  <c:v>4.5258792452830185</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>2.7716033700000002</c:v>
+                  <c:v>4.5180201257861636</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>2.7666711899999998</c:v>
+                  <c:v>4.5102163522012573</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>2.7620013599999997</c:v>
+                  <c:v>4.5028276729559744</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>2.7573323250000001</c:v>
+                  <c:v>4.4954402515723269</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>2.7526632899999997</c:v>
+                  <c:v>4.4880528301886793</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>2.7479942550000001</c:v>
+                  <c:v>4.4806654088050317</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>2.7433260150000001</c:v>
+                  <c:v>4.4732792452830186</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>2.73865698</c:v>
+                  <c:v>4.465891823899371</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>2.73398874</c:v>
+                  <c:v>4.4585056603773587</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>2.729319705</c:v>
+                  <c:v>4.4511182389937103</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>2.724651465</c:v>
+                  <c:v>4.443732075471698</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>2.719989585</c:v>
+                  <c:v>4.4363559748427672</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>2.7153690450000001</c:v>
+                  <c:v>4.4290452830188682</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>2.7107477099999997</c:v>
+                  <c:v>4.4217333333333331</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>2.7061271700000002</c:v>
+                  <c:v>4.4144226415094341</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>2.7015066299999999</c:v>
+                  <c:v>4.4071119496855342</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>2.696885295</c:v>
+                  <c:v>4.3997999999999999</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>2.6922647550000001</c:v>
+                  <c:v>4.3924893081761009</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>2.6876434200000001</c:v>
+                  <c:v>4.3851773584905667</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>2.6830228799999998</c:v>
+                  <c:v>4.3778666666666668</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>2.6784015450000003</c:v>
+                  <c:v>4.3705547169811325</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>2.6737913400000002</c:v>
+                  <c:v>4.3632603773584906</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>2.6692487099999997</c:v>
+                  <c:v>4.3560729559748426</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>2.6647060800000002</c:v>
+                  <c:v>4.3488855345911954</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>2.6601634499999998</c:v>
+                  <c:v>4.3416981132075474</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>2.6556208200000002</c:v>
+                  <c:v>4.3345106918238994</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>2.6510781899999998</c:v>
+                  <c:v>4.3273232704402513</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>2.6465355600000002</c:v>
+                  <c:v>4.3201358490566042</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>2.6419929299999998</c:v>
+                  <c:v>4.3129484276729562</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>2.6374502999999998</c:v>
+                  <c:v>4.3057610062893081</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>2.6329068750000002</c:v>
+                  <c:v>4.2985723270440257</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>2.62833483</c:v>
+                  <c:v>4.2913383647798744</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>2.623594245</c:v>
+                  <c:v>4.2838377358490565</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>2.6188536599999996</c:v>
+                  <c:v>4.2763371069182385</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>2.6141122800000001</c:v>
+                  <c:v>4.2688352201257862</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>2.6093716950000001</c:v>
+                  <c:v>4.2613345911949692</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>2.6046311099999997</c:v>
+                  <c:v>4.2538339622641503</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>2.5998905249999997</c:v>
+                  <c:v>4.2463333333333333</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>2.5951499399999998</c:v>
+                  <c:v>4.2388327044025154</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>2.5904085599999997</c:v>
+                  <c:v>4.231330817610063</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>2.5856679749999998</c:v>
+                  <c:v>4.2238301886792451</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>2.5809727049999998</c:v>
+                  <c:v>4.2164012578616354</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>2.57651355</c:v>
+                  <c:v>4.2093459119496854</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>2.5720543949999999</c:v>
+                  <c:v>4.2022905660377363</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>2.5675960349999998</c:v>
+                  <c:v>4.1952364779874216</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>2.5631368800000001</c:v>
+                  <c:v>4.1881811320754716</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>2.5586777249999999</c:v>
+                  <c:v>4.1811257861635225</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>2.5542193649999998</c:v>
+                  <c:v>4.1740716981132078</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>2.5497602100000001</c:v>
+                  <c:v>4.1670163522012578</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>2.54530185</c:v>
+                  <c:v>4.1599622641509439</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>2.5408426949999998</c:v>
+                  <c:v>4.1529069182389939</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>2.5363922849999998</c:v>
+                  <c:v>4.1458654088050313</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>2.5319824199999998</c:v>
+                  <c:v>4.1388880503144652</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>2.5275717599999998</c:v>
+                  <c:v>4.1319094339622637</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>2.5231611000000003</c:v>
+                  <c:v>4.1249308176100632</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>2.5187512349999999</c:v>
+                  <c:v>4.1179534591194971</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>2.5143405749999999</c:v>
+                  <c:v>4.1109748427672956</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>2.5099299149999998</c:v>
+                  <c:v>4.1039962264150942</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>2.5055200499999999</c:v>
+                  <c:v>4.0970188679245281</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>2.5011093899999999</c:v>
+                  <c:v>4.0900402515723266</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>2.4966995249999999</c:v>
+                  <c:v>4.0830628930817614</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>2.4923270249999998</c:v>
+                  <c:v>4.0761446540880506</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>2.4881230649999999</c:v>
+                  <c:v>4.0694930817610064</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>2.48391831</c:v>
+                  <c:v>4.062840251572327</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>2.479713555</c:v>
+                  <c:v>4.0561874213836475</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>2.4755088000000001</c:v>
+                  <c:v>4.0495345911949689</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>2.4713040449999997</c:v>
+                  <c:v>4.0428817610062895</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>2.4670992899999997</c:v>
+                  <c:v>4.03622893081761</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>2.4628953300000003</c:v>
+                  <c:v>4.0295773584905659</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>2.4586905749999999</c:v>
+                  <c:v>4.0229245283018864</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>2.4544858199999999</c:v>
+                  <c:v>4.0162716981132078</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>2.450308095</c:v>
+                  <c:v>4.0096616352201258</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>2.4462376950000002</c:v>
+                  <c:v>4.0032213836477988</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>2.44216809</c:v>
+                  <c:v>3.9967823899371067</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>2.4380984849999998</c:v>
+                  <c:v>3.990343396226415</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>2.4340288800000001</c:v>
+                  <c:v>3.9839044025157224</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>2.4299584799999998</c:v>
+                  <c:v>3.9774641509433963</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>2.4258888750000001</c:v>
+                  <c:v>3.9710251572327038</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>2.4218192699999999</c:v>
+                  <c:v>3.9645861635220121</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>2.4177496649999997</c:v>
+                  <c:v>3.9581471698113204</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>2.4136800599999999</c:v>
+                  <c:v>3.9517081761006287</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>2.4096454349999998</c:v>
+                  <c:v>3.9453245283018865</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>2.4057411900000001</c:v>
+                  <c:v>3.9391471698113203</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>2.4018369449999999</c:v>
+                  <c:v>3.932969811320755</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>2.3979326999999997</c:v>
+                  <c:v>3.9267924528301879</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>2.39402925</c:v>
+                  <c:v>3.9206163522012578</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>2.3901250049999998</c:v>
+                  <c:v>3.9144389937106916</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>2.3862215550000001</c:v>
+                  <c:v>3.9082628930817607</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>2.3823173099999999</c:v>
+                  <c:v>3.9020855345911944</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>2.3784138599999998</c:v>
+                  <c:v>3.8959094339622635</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>2.374509615</c:v>
+                  <c:v>3.8897320754716982</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>2.3706061649999999</c:v>
+                  <c:v>3.8835559748427664</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>2.3667019200000001</c:v>
+                  <c:v>3.877378616352201</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>2.36279847</c:v>
+                  <c:v>3.8712025157232701</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>2.3588942249999998</c:v>
+                  <c:v>3.8650251572327039</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>2.35498998</c:v>
+                  <c:v>3.8588477987421377</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>2.3510857349999998</c:v>
+                  <c:v>3.8526704402515723</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>2.3471822849999997</c:v>
+                  <c:v>3.8464943396226414</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>2.34327804</c:v>
+                  <c:v>3.8403169811320752</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>2.3393730000000001</c:v>
+                  <c:v>3.8341383647798737</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>2.335468755</c:v>
+                  <c:v>3.8279610062893084</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>2.3315732549999999</c:v>
+                  <c:v>3.8217974842767295</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>2.3277079649999997</c:v>
+                  <c:v>3.8156817610062892</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>2.3238418799999998</c:v>
+                  <c:v>3.8095647798742136</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>2.31997659</c:v>
+                  <c:v>3.8034490566037733</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>2.3161105050000002</c:v>
+                  <c:v>3.7973320754716977</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>2.3122452149999999</c:v>
+                  <c:v>3.7912163522012574</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>2.3083791300000001</c:v>
+                  <c:v>3.7850993710691818</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>2.3045130449999998</c:v>
+                  <c:v>3.7789823899371062</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>2.300647755</c:v>
+                  <c:v>3.7728666666666668</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>2.2967816699999997</c:v>
+                  <c:v>3.7667496855345908</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>2.292898095</c:v>
+                  <c:v>3.7606050314465405</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>2.2889604599999998</c:v>
+                  <c:v>3.7543748427672954</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>2.2850220299999999</c:v>
+                  <c:v>3.7481433962264146</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>2.2810843949999997</c:v>
+                  <c:v>3.7419132075471695</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>2.2771467599999999</c:v>
+                  <c:v>3.735683018867924</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>2.2732091249999997</c:v>
+                  <c:v>3.7294528301886789</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>2.2692706949999999</c:v>
+                  <c:v>3.7232213836477981</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>2.2653330599999997</c:v>
+                  <c:v>3.716991194968553</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>2.2613954249999999</c:v>
+                  <c:v>3.7107610062893075</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>2.2574577899999997</c:v>
+                  <c:v>3.7045308176100624</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>2.2535463899999999</c:v>
+                  <c:v>3.6983421383647794</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>2.2497144900000001</c:v>
+                  <c:v>3.6922792452830184</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>2.2458825899999999</c:v>
+                  <c:v>3.6862163522012574</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>2.2420514850000002</c:v>
+                  <c:v>3.6801547169811317</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>2.238219585</c:v>
+                  <c:v>3.6740918238993707</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>2.2343876849999997</c:v>
+                  <c:v>3.6680289308176097</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>2.230555785</c:v>
+                  <c:v>3.6619660377358487</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>2.2267246799999998</c:v>
+                  <c:v>3.655904402515723</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>2.22289278</c:v>
+                  <c:v>3.649841509433962</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>2.2190616749999998</c:v>
+                  <c:v>3.6437798742138363</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>2.2152496500000001</c:v>
+                  <c:v>3.6377484276729555</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>2.21149248</c:v>
+                  <c:v>3.6318037735849056</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>2.2077345149999998</c:v>
+                  <c:v>3.6258578616352195</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>2.2039765499999997</c:v>
+                  <c:v>3.6199119496855339</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>2.2002193800000001</c:v>
+                  <c:v>3.613967295597484</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>2.1964614149999999</c:v>
+                  <c:v>3.6080213836477983</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>2.1927034499999998</c:v>
+                  <c:v>3.6020754716981127</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>2.1889462800000001</c:v>
+                  <c:v>3.5961308176100624</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>2.185188315</c:v>
+                  <c:v>3.5901849056603772</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>2.1814303499999999</c:v>
+                  <c:v>3.5842389937106915</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>2.1777113400000001</c:v>
+                  <c:v>3.5783547169811318</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>2.1740925</c:v>
+                  <c:v>3.5726289308176096</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>2.1704728649999998</c:v>
+                  <c:v>3.5669018867924525</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>2.1668540250000001</c:v>
+                  <c:v>3.5611761006289306</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>2.16323439</c:v>
+                  <c:v>3.5554490566037735</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>2.1596155499999998</c:v>
+                  <c:v>3.5497232704402508</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>2.1559959150000001</c:v>
+                  <c:v>3.5439962264150942</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>2.152377075</c:v>
+                  <c:v>3.5382704402515719</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>2.1487574399999998</c:v>
+                  <c:v>3.5325433962264143</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>2.1451385999999997</c:v>
+                  <c:v>3.5268176100628925</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>2.14148001</c:v>
+                  <c:v>3.5210289308176099</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>2.1377268150000002</c:v>
+                  <c:v>3.5150905660377356</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>2.1339736199999999</c:v>
+                  <c:v>3.5091522012578609</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>2.1302204249999996</c:v>
+                  <c:v>3.503213836477987</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>2.1264672299999998</c:v>
+                  <c:v>3.4972754716981127</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>2.122714035</c:v>
+                  <c:v>3.4913371069182384</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>2.1189608399999997</c:v>
+                  <c:v>3.4853987421383641</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>2.11520844</c:v>
+                  <c:v>3.4794616352201255</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>2.1114552450000001</c:v>
+                  <c:v>3.4735232704402512</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>2.1077020499999999</c:v>
+                  <c:v>3.4675849056603769</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>2.1039830399999997</c:v>
+                  <c:v>3.4617006289308172</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>2.1003427349999999</c:v>
+                  <c:v>3.4559408805031442</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>2.0967024300000001</c:v>
+                  <c:v>3.4501811320754716</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>2.0930621249999999</c:v>
+                  <c:v>3.4444213836477986</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>2.0894218199999997</c:v>
+                  <c:v>3.4386616352201251</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>2.0857807199999998</c:v>
+                  <c:v>3.4329006289308173</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>2.082140415</c:v>
+                  <c:v>3.4271408805031442</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>2.0785001099999998</c:v>
+                  <c:v>3.4213811320754712</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>2.0748598049999996</c:v>
+                  <c:v>3.4156213836477982</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>2.0712195000000002</c:v>
+                  <c:v>3.4098616352201256</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>2.0675966849999998</c:v>
+                  <c:v>3.4041295597484273</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>2.0640104400000001</c:v>
+                  <c:v>3.3984553459119495</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>2.0604249899999996</c:v>
+                  <c:v>3.3927823899371061</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>2.0568387449999999</c:v>
+                  <c:v>3.3871081761006283</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>2.0532532949999998</c:v>
+                  <c:v>3.3814352201257858</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>2.0496678449999997</c:v>
+                  <c:v>3.3757622641509428</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>2.0460815999999999</c:v>
+                  <c:v>3.370088050314465</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>2.0424961499999998</c:v>
+                  <c:v>3.3644150943396225</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>2.0389099050000001</c:v>
+                  <c:v>3.3587408805031447</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>2.035324455</c:v>
+                  <c:v>3.3530679245283013</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>2.0317803449999996</c:v>
+                  <c:v>3.3474603773584901</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>2.0283236850000002</c:v>
+                  <c:v>3.341991194968553</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>2.0248670249999998</c:v>
+                  <c:v>3.3365220125786159</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>2.0214103649999999</c:v>
+                  <c:v>3.3310528301886788</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>2.0179544999999997</c:v>
+                  <c:v>3.325584905660377</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>2.0144978400000002</c:v>
+                  <c:v>3.3201157232704399</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>2.0110411799999999</c:v>
+                  <c:v>3.3146465408805028</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>2.0075853149999996</c:v>
+                  <c:v>3.3091786163522006</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>2.0041286549999997</c:v>
+                  <c:v>3.3037094339622639</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>2.0006727899999999</c:v>
+                  <c:v>3.2982415094339617</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>1.9972177200000003</c:v>
+                  <c:v>3.2927748427672952</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>1.9937650350000002</c:v>
+                  <c:v>3.2873119496855341</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>1.9903123500000002</c:v>
+                  <c:v>3.281849056603773</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>1.9868588700000001</c:v>
+                  <c:v>3.2763849056603767</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>1.983406185</c:v>
+                  <c:v>3.2709220125786156</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>1.9799534999999999</c:v>
+                  <c:v>3.265459119496855</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>1.9765008149999999</c:v>
+                  <c:v>3.2599962264150939</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>1.9730481300000002</c:v>
+                  <c:v>3.2545333333333328</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>1.9695954450000002</c:v>
+                  <c:v>3.2490704402515718</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>1.9661427600000001</c:v>
+                  <c:v>3.2436075471698107</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>1.9627703700000001</c:v>
+                  <c:v>3.2382716981132069</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>1.959548235</c:v>
+                  <c:v>3.2331735849056602</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>1.9563261000000003</c:v>
+                  <c:v>3.228075471698113</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>1.9531039650000002</c:v>
+                  <c:v>3.2229773584905654</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>1.94988183</c:v>
+                  <c:v>3.2178792452830183</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>1.9466596950000004</c:v>
+                  <c:v>3.2127811320754716</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>1.9434375599999998</c:v>
+                  <c:v>3.207683018867924</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>1.9402154250000001</c:v>
+                  <c:v>3.2025849056603768</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>1.93699329</c:v>
+                  <c:v>3.1974867924528301</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>1.9337711550000003</c:v>
+                  <c:v>3.1923886792452829</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>1.9305506100000003</c:v>
+                  <c:v>3.1872930817610063</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>1.9273308599999999</c:v>
+                  <c:v>3.1821987421383642</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>1.9241111099999999</c:v>
+                  <c:v>3.1771044025157229</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>1.9208905649999999</c:v>
+                  <c:v>3.1720088050314459</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>1.9176708150000004</c:v>
+                  <c:v>3.1669144654088046</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>1.9144510650000004</c:v>
+                  <c:v>3.1618201257861633</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>1.911231315</c:v>
+                  <c:v>3.1567257861635216</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>1.908011565</c:v>
+                  <c:v>3.1516314465408799</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>1.9047918150000001</c:v>
+                  <c:v>3.1465371069182386</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>1.9015720650000001</c:v>
+                  <c:v>3.1414427672955973</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>1.8983276700000002</c:v>
+                  <c:v>3.1363094339622637</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>1.8950411400000002</c:v>
+                  <c:v>3.1311094339622638</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>1.8917554050000003</c:v>
+                  <c:v>3.1259106918238988</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>1.8884688749999998</c:v>
+                  <c:v>3.1207106918238989</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>1.8851831399999999</c:v>
+                  <c:v>3.1155119496855339</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>1.8818966099999999</c:v>
+                  <c:v>3.110311949685534</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>1.8786108749999999</c:v>
+                  <c:v>3.1051132075471695</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>1.8753243449999999</c:v>
+                  <c:v>3.0999132075471691</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>1.8720386099999999</c:v>
+                  <c:v>3.0947144654088046</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>1.868752875</c:v>
+                  <c:v>3.0895157232704396</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>1.8654424950000001</c:v>
+                  <c:v>3.0842779874213835</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>1.8620939550000004</c:v>
+                  <c:v>3.0789798742138363</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>1.8587454150000002</c:v>
+                  <c:v>3.0736817610062888</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>1.8553968750000001</c:v>
+                  <c:v>3.0683836477987416</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>1.8520483350000003</c:v>
+                  <c:v>3.0630855345911949</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>1.8486997950000001</c:v>
+                  <c:v>3.0577874213836478</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>1.845351255</c:v>
+                  <c:v>3.0524893081761002</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>1.8420027150000002</c:v>
+                  <c:v>3.0471911949685531</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>1.8386541750000001</c:v>
+                  <c:v>3.0418930817610059</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>1.8353056349999999</c:v>
+                  <c:v>3.0365949685534583</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>1.831941195</c:v>
+                  <c:v>3.0312716981132071</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>1.8285537000000003</c:v>
+                  <c:v>3.0259119496855345</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>1.8251662050000002</c:v>
+                  <c:v>3.0205522012578614</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>1.82177871</c:v>
+                  <c:v>3.0151924528301883</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>1.8183904199999998</c:v>
+                  <c:v>3.00983144654088</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>1.8150029250000002</c:v>
+                  <c:v>3.0044716981132074</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>1.81161543</c:v>
+                  <c:v>2.9991119496855343</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>1.8082279350000003</c:v>
+                  <c:v>2.9937522012578612</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>1.8048396450000002</c:v>
+                  <c:v>2.9883911949685529</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>1.8014521500000005</c:v>
+                  <c:v>2.9830314465408803</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>1.79813223</c:v>
+                  <c:v>2.9777786163522011</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>1.7949108899999999</c:v>
+                  <c:v>2.9726817610062888</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>1.7916895500000003</c:v>
+                  <c:v>2.9675849056603774</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>1.7884682100000002</c:v>
+                  <c:v>2.962488050314465</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>1.7852468700000002</c:v>
+                  <c:v>2.9573911949685527</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>1.7820255300000001</c:v>
+                  <c:v>2.9522943396226413</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>1.77880419</c:v>
+                  <c:v>2.947197484276729</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>1.7755828500000004</c:v>
+                  <c:v>2.9421006289308176</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>1.7723615100000003</c:v>
+                  <c:v>2.9370037735849053</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>1.76914017</c:v>
+                  <c:v>2.931906918238993</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>1.7660031</c:v>
+                  <c:v>2.9269433962264144</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>1.7629836900000002</c:v>
+                  <c:v>2.9221660377358489</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>1.7599642800000002</c:v>
+                  <c:v>2.9173886792452826</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>1.756944075</c:v>
+                  <c:v>2.9126100628930813</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>1.753924665</c:v>
+                  <c:v>2.907832704402515</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>1.7509052550000002</c:v>
+                  <c:v>2.9030553459119495</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>1.7478858450000001</c:v>
+                  <c:v>2.8982779874213831</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>1.7448664350000003</c:v>
+                  <c:v>2.8935006289308176</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>1.7418462299999999</c:v>
+                  <c:v>2.8887220125786159</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>1.7388268200000001</c:v>
+                  <c:v>2.88394465408805</c:v>
                 </c:pt>
                 <c:pt idx="661">
-                  <c:v>1.7358670350000003</c:v>
+                  <c:v>2.8792616352201255</c:v>
                 </c:pt>
                 <c:pt idx="662">
-                  <c:v>1.732985955</c:v>
+                  <c:v>2.8747031446540876</c:v>
                 </c:pt>
                 <c:pt idx="663">
-                  <c:v>1.73010408</c:v>
+                  <c:v>2.8701433962264145</c:v>
                 </c:pt>
                 <c:pt idx="664">
-                  <c:v>1.7272230000000002</c:v>
+                  <c:v>2.865584905660377</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>1.7243419200000003</c:v>
+                  <c:v>2.8610264150943396</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>1.7214600450000002</c:v>
+                  <c:v>2.8564666666666665</c:v>
                 </c:pt>
                 <c:pt idx="667">
-                  <c:v>1.7185789650000001</c:v>
+                  <c:v>2.8519081761006286</c:v>
                 </c:pt>
                 <c:pt idx="668">
-                  <c:v>1.7156978850000002</c:v>
+                  <c:v>2.8473496855345908</c:v>
                 </c:pt>
                 <c:pt idx="669">
-                  <c:v>1.7128160100000001</c:v>
+                  <c:v>2.8427899371069181</c:v>
                 </c:pt>
                 <c:pt idx="670">
-                  <c:v>1.7099349300000002</c:v>
+                  <c:v>2.8382314465408802</c:v>
                 </c:pt>
                 <c:pt idx="671">
-                  <c:v>1.7070610049999999</c:v>
+                  <c:v>2.8336842767295591</c:v>
                 </c:pt>
                 <c:pt idx="672">
-                  <c:v>1.7041950300000002</c:v>
+                  <c:v>2.829149685534591</c:v>
                 </c:pt>
                 <c:pt idx="673">
-                  <c:v>1.70132985</c:v>
+                  <c:v>2.8246163522012573</c:v>
                 </c:pt>
                 <c:pt idx="674">
-                  <c:v>1.6984638750000001</c:v>
+                  <c:v>2.8200817610062887</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>1.6955986949999999</c:v>
+                  <c:v>2.8155484276729554</c:v>
                 </c:pt>
                 <c:pt idx="676">
-                  <c:v>1.69273272</c:v>
+                  <c:v>2.8110138364779869</c:v>
                 </c:pt>
                 <c:pt idx="677">
-                  <c:v>1.6898675399999998</c:v>
+                  <c:v>2.8064805031446536</c:v>
                 </c:pt>
                 <c:pt idx="678">
-                  <c:v>1.6870015650000001</c:v>
+                  <c:v>2.801945911949685</c:v>
                 </c:pt>
                 <c:pt idx="679">
-                  <c:v>1.6841363850000002</c:v>
+                  <c:v>2.7974125786163522</c:v>
                 </c:pt>
                 <c:pt idx="680">
-                  <c:v>1.68127041</c:v>
+                  <c:v>2.7928779874213832</c:v>
                 </c:pt>
                 <c:pt idx="681">
-                  <c:v>1.6783996650000002</c:v>
+                  <c:v>2.7883358490566037</c:v>
                 </c:pt>
                 <c:pt idx="682">
-                  <c:v>1.6755225600000001</c:v>
+                  <c:v>2.7837836477987419</c:v>
                 </c:pt>
                 <c:pt idx="683">
-                  <c:v>1.6726454550000001</c:v>
+                  <c:v>2.7792314465408801</c:v>
                 </c:pt>
                 <c:pt idx="684">
-                  <c:v>1.66976835</c:v>
+                  <c:v>2.7746792452830187</c:v>
                 </c:pt>
                 <c:pt idx="685">
-                  <c:v>1.666891245</c:v>
+                  <c:v>2.7701270440251569</c:v>
                 </c:pt>
                 <c:pt idx="686">
-                  <c:v>1.6640141400000001</c:v>
+                  <c:v>2.765574842767295</c:v>
                 </c:pt>
                 <c:pt idx="687">
-                  <c:v>1.6611370350000001</c:v>
+                  <c:v>2.7610226415094332</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>1.65825993</c:v>
+                  <c:v>2.7564704402515718</c:v>
                 </c:pt>
                 <c:pt idx="689">
-                  <c:v>1.655382825</c:v>
+                  <c:v>2.75191823899371</c:v>
                 </c:pt>
                 <c:pt idx="690">
-                  <c:v>1.6525057200000002</c:v>
+                  <c:v>2.7473660377358491</c:v>
                 </c:pt>
                 <c:pt idx="691">
-                  <c:v>1.6496349750000001</c:v>
+                  <c:v>2.7428238993710687</c:v>
                 </c:pt>
                 <c:pt idx="692">
-                  <c:v>1.6467721800000004</c:v>
+                  <c:v>2.7382943396226413</c:v>
                 </c:pt>
                 <c:pt idx="693">
-                  <c:v>1.6439093850000002</c:v>
+                  <c:v>2.7337647798742135</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>1.641047385</c:v>
+                  <c:v>2.729236477987421</c:v>
                 </c:pt>
                 <c:pt idx="695">
-                  <c:v>1.6381845900000003</c:v>
+                  <c:v>2.7247069182389936</c:v>
                 </c:pt>
                 <c:pt idx="696">
-                  <c:v>1.6353217950000001</c:v>
+                  <c:v>2.7201773584905657</c:v>
                 </c:pt>
                 <c:pt idx="697">
-                  <c:v>1.6324589999999999</c:v>
+                  <c:v>2.7156477987421379</c:v>
                 </c:pt>
                 <c:pt idx="698">
-                  <c:v>1.6295962050000001</c:v>
+                  <c:v>2.7111182389937105</c:v>
                 </c:pt>
                 <c:pt idx="699">
-                  <c:v>1.6267342050000002</c:v>
+                  <c:v>2.706589937106918</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>1.62387141</c:v>
+                  <c:v>2.7020603773584901</c:v>
                 </c:pt>
                 <c:pt idx="701">
-                  <c:v>1.62077727</c:v>
+                  <c:v>2.6971647798742131</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>1.6174295250000001</c:v>
+                  <c:v>2.6918679245283017</c:v>
                 </c:pt>
                 <c:pt idx="703">
-                  <c:v>1.6140825750000001</c:v>
+                  <c:v>2.6865723270440247</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>1.61073483</c:v>
+                  <c:v>2.6812754716981129</c:v>
                 </c:pt>
                 <c:pt idx="705">
-                  <c:v>1.6073878799999999</c:v>
+                  <c:v>2.6759798742138359</c:v>
                 </c:pt>
                 <c:pt idx="706">
-                  <c:v>1.60404093</c:v>
+                  <c:v>2.6706842767295593</c:v>
                 </c:pt>
                 <c:pt idx="707">
-                  <c:v>1.600694775</c:v>
+                  <c:v>2.6653899371069176</c:v>
                 </c:pt>
                 <c:pt idx="708">
-                  <c:v>1.5973478249999999</c:v>
+                  <c:v>2.6600943396226411</c:v>
                 </c:pt>
                 <c:pt idx="709">
-                  <c:v>1.5940016700000001</c:v>
+                  <c:v>2.6547999999999994</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>1.5906555150000001</c:v>
+                  <c:v>2.6495056603773581</c:v>
                 </c:pt>
                 <c:pt idx="711">
-                  <c:v>1.5583475099999999</c:v>
+                  <c:v>2.5983874213836473</c:v>
                 </c:pt>
                 <c:pt idx="712">
-                  <c:v>1.4957627250000001</c:v>
+                  <c:v>2.4993647798742131</c:v>
                 </c:pt>
                 <c:pt idx="713">
-                  <c:v>1.4331779400000002</c:v>
+                  <c:v>2.4003421383647798</c:v>
                 </c:pt>
                 <c:pt idx="714">
-                  <c:v>1.3705931550000001</c:v>
+                  <c:v>2.3013194968553456</c:v>
                 </c:pt>
                 <c:pt idx="715">
-                  <c:v>1.3080075750000002</c:v>
+                  <c:v>2.2022955974842766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,11 +4493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218108344"/>
-        <c:axId val="478849032"/>
+        <c:axId val="219018088"/>
+        <c:axId val="408781984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218108344"/>
+        <c:axId val="219018088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,12 +4554,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478849032"/>
+        <c:crossAx val="408781984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478849032"/>
+        <c:axId val="408781984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4616,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218108344"/>
+        <c:crossAx val="219018088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.9365841549999998</v>
+        <v>4.7790553459119494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
         <v>2.503E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>3.2994213599999997</v>
+        <v>5.3531421383647793</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
         <v>5.0058999999999999E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>3.4753596299999998</v>
+        <v>5.631514465408805</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>7.5089000000000003E-2</v>
       </c>
       <c r="B5" s="2">
-        <v>3.5542967700000001</v>
+        <v>5.7564100628930817</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5512,7 @@
         <v>0.100119</v>
       </c>
       <c r="B6" s="2">
-        <v>3.6332203949999995</v>
+        <v>5.8812842767295592</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>0.12514800000000001</v>
       </c>
       <c r="B7" s="2">
-        <v>3.7121320949999999</v>
+        <v>6.0061396226415091</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
         <v>0.15017800000000001</v>
       </c>
       <c r="B8" s="2">
-        <v>3.7910318699999999</v>
+        <v>6.1309761006289314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>0.175208</v>
       </c>
       <c r="B9" s="2">
-        <v>3.8699181299999998</v>
+        <v>6.2557911949685527</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>0.200237</v>
       </c>
       <c r="B10" s="2">
-        <v>3.9487924649999999</v>
+        <v>6.3805874213836482</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>0.225267</v>
       </c>
       <c r="B11" s="2">
-        <v>4.0276540800000005</v>
+        <v>6.5053635220125781</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>0.25029699999999999</v>
       </c>
       <c r="B12" s="2">
-        <v>4.1065029750000006</v>
+        <v>6.6301194968553459</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>0.27532600000000002</v>
       </c>
       <c r="B13" s="2">
-        <v>4.1853391500000008</v>
+        <v>6.7548553459119498</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>0.30035600000000001</v>
       </c>
       <c r="B14" s="2">
-        <v>4.2329620349999999</v>
+        <v>6.8302050314465408</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>0.32538600000000001</v>
       </c>
       <c r="B15" s="2">
-        <v>4.2652080300000002</v>
+        <v>6.8812251572327039</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>0.35041499999999998</v>
       </c>
       <c r="B16" s="2">
-        <v>4.2974405100000004</v>
+        <v>6.9322238993710688</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>0.37544499999999997</v>
       </c>
       <c r="B17" s="2">
-        <v>4.3296578850000005</v>
+        <v>6.9831987421383648</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>0.40047500000000003</v>
       </c>
       <c r="B18" s="2">
-        <v>4.3618609500000005</v>
+        <v>7.0341509433962264</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>0.42550399999999999</v>
       </c>
       <c r="B19" s="2">
-        <v>4.3940489100000004</v>
+        <v>7.0850792452830191</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>0.45053399999999999</v>
       </c>
       <c r="B20" s="2">
-        <v>4.4262225600000003</v>
+        <v>7.1359849056603775</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>0.47556399999999999</v>
       </c>
       <c r="B21" s="2">
-        <v>4.4583819000000009</v>
+        <v>7.1868679245283023</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>0.50059299999999995</v>
       </c>
       <c r="B22" s="2">
-        <v>4.4905261350000005</v>
+        <v>7.2377270440251573</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>0.52562299999999995</v>
       </c>
       <c r="B23" s="2">
-        <v>4.5226560600000001</v>
+        <v>7.288563522012578</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
         <v>0.55065299999999995</v>
       </c>
       <c r="B24" s="2">
-        <v>4.5411398100000007</v>
+        <v>7.3178088050314463</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5664,7 +5664,7 @@
         <v>0.57568200000000003</v>
       </c>
       <c r="B25" s="2">
-        <v>4.5532516350000005</v>
+        <v>7.336972327044025</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>0.60071200000000002</v>
       </c>
       <c r="B26" s="2">
-        <v>4.5653539200000006</v>
+        <v>7.3561207547169811</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>0.62574200000000002</v>
       </c>
       <c r="B27" s="2">
-        <v>4.5774482550000011</v>
+        <v>7.3752566037735852</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5688,7 +5688,7 @@
         <v>0.65077099999999999</v>
       </c>
       <c r="B28" s="2">
-        <v>4.58953305</v>
+        <v>7.3943773584905657</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>0.67580099999999999</v>
       </c>
       <c r="B29" s="2">
-        <v>4.6016098950000011</v>
+        <v>7.413485534591195</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>0.70083099999999998</v>
       </c>
       <c r="B30" s="2">
-        <v>4.6136779950000006</v>
+        <v>7.4325798742138369</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,7 +5712,7 @@
         <v>0.72585999999999995</v>
       </c>
       <c r="B31" s="2">
-        <v>4.6257365550000005</v>
+        <v>7.4516591194968553</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>0.75088999999999995</v>
       </c>
       <c r="B32" s="2">
-        <v>4.6377871650000007</v>
+        <v>7.4707257861635217</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,7 +5728,7 @@
         <v>0.77592000000000005</v>
       </c>
       <c r="B33" s="2">
-        <v>4.6498290300000003</v>
+        <v>7.4897786163522007</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,7 +5736,7 @@
         <v>0.80094900000000002</v>
       </c>
       <c r="B34" s="2">
-        <v>4.6555919850000009</v>
+        <v>7.4988968553459125</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>0.82597900000000002</v>
       </c>
       <c r="B35" s="2">
-        <v>4.6585780050000007</v>
+        <v>7.5036213836477987</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>0.85100900000000002</v>
       </c>
       <c r="B36" s="2">
-        <v>4.6615600500000003</v>
+        <v>7.5083396226415093</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>0.87603799999999998</v>
       </c>
       <c r="B37" s="2">
-        <v>4.6645373250000004</v>
+        <v>7.5130503144654091</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>0.90106799999999998</v>
       </c>
       <c r="B38" s="2">
-        <v>4.6675098300000002</v>
+        <v>7.5177534591194961</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>0.92609799999999998</v>
       </c>
       <c r="B39" s="2">
-        <v>4.6704775650000006</v>
+        <v>7.5224490566037732</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>0.95112699999999994</v>
       </c>
       <c r="B40" s="2">
-        <v>4.6734405300000006</v>
+        <v>7.5271371069182385</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>0.97615700000000005</v>
       </c>
       <c r="B41" s="2">
-        <v>4.6763995200000004</v>
+        <v>7.5318188679245281</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,7 +5800,7 @@
         <v>1.001187</v>
       </c>
       <c r="B42" s="2">
-        <v>4.6793529450000007</v>
+        <v>7.5364918238993708</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>1.026216</v>
       </c>
       <c r="B43" s="2">
-        <v>4.6823023950000007</v>
+        <v>7.5411584905660378</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,7 +5816,7 @@
         <v>1.0512459999999999</v>
       </c>
       <c r="B44" s="2">
-        <v>4.682082975000001</v>
+        <v>7.5408113207547176</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
         <v>1.076276</v>
       </c>
       <c r="B45" s="2">
-        <v>4.6805367000000011</v>
+        <v>7.5383647798742137</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
         <v>1.1013059999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>4.6789888350000002</v>
+        <v>7.5359157232704401</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>1.1263350000000001</v>
       </c>
       <c r="B47" s="2">
-        <v>4.6774377900000008</v>
+        <v>7.5334616352201254</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5848,7 @@
         <v>1.151365</v>
       </c>
       <c r="B48" s="2">
-        <v>4.6758843600000004</v>
+        <v>7.5310037735849056</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>1.1763950000000001</v>
       </c>
       <c r="B49" s="2">
-        <v>4.6743293399999999</v>
+        <v>7.5285433962264143</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>1.201424</v>
       </c>
       <c r="B50" s="2">
-        <v>4.6727711400000009</v>
+        <v>7.5260779874213837</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>1.2264539999999999</v>
       </c>
       <c r="B51" s="2">
-        <v>4.6712105550000009</v>
+        <v>7.5236088050314462</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5880,7 @@
         <v>1.251484</v>
       </c>
       <c r="B52" s="2">
-        <v>4.6696475849999999</v>
+        <v>7.5211358490566029</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
         <v>1.276513</v>
       </c>
       <c r="B53" s="2">
-        <v>4.6680822300000004</v>
+        <v>7.5186591194968555</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>1.3015429999999999</v>
       </c>
       <c r="B54" s="2">
-        <v>4.6649260800000008</v>
+        <v>7.5136654088050312</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>1.326573</v>
       </c>
       <c r="B55" s="2">
-        <v>4.6611402900000005</v>
+        <v>7.5076754716981124</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>1.351602</v>
       </c>
       <c r="B56" s="2">
-        <v>4.6573529100000002</v>
+        <v>7.501683018867924</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>1.3766320000000001</v>
       </c>
       <c r="B57" s="2">
-        <v>4.6535639400000006</v>
+        <v>7.4956880503144649</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>1.401662</v>
       </c>
       <c r="B58" s="2">
-        <v>4.6497733800000001</v>
+        <v>7.4896905660377353</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>1.4266909999999999</v>
       </c>
       <c r="B59" s="2">
-        <v>4.6459812300000003</v>
+        <v>7.4836905660377351</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>1.451721</v>
       </c>
       <c r="B60" s="2">
-        <v>4.6421874900000004</v>
+        <v>7.4776880503144652</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>1.4767509999999999</v>
       </c>
       <c r="B61" s="2">
-        <v>4.6383921600000004</v>
+        <v>7.4716830188679237</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>1.5017799999999999</v>
       </c>
       <c r="B62" s="2">
-        <v>4.6345960350000004</v>
+        <v>7.4656767295597479</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>1.52681</v>
       </c>
       <c r="B63" s="2">
-        <v>4.6307975250000002</v>
+        <v>7.4596666666666662</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5976,7 @@
         <v>1.5518400000000001</v>
       </c>
       <c r="B64" s="2">
-        <v>4.6257198600000002</v>
+        <v>7.4516327044025159</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
         <v>1.5768690000000001</v>
       </c>
       <c r="B65" s="2">
-        <v>4.6201659900000003</v>
+        <v>7.4428452830188672</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
         <v>1.601899</v>
       </c>
       <c r="B66" s="2">
-        <v>4.6146113250000003</v>
+        <v>7.4340566037735849</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,7 +6000,7 @@
         <v>1.6269290000000001</v>
       </c>
       <c r="B67" s="2">
-        <v>4.6090550700000001</v>
+        <v>7.4252654088050312</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>1.651958</v>
       </c>
       <c r="B68" s="2">
-        <v>4.6034980200000009</v>
+        <v>7.416472955974843</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>1.6769879999999999</v>
       </c>
       <c r="B69" s="2">
-        <v>4.5979393800000006</v>
+        <v>7.4076779874213834</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>1.702018</v>
       </c>
       <c r="B70" s="2">
-        <v>4.5923807400000003</v>
+        <v>7.3988830188679247</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>1.727047</v>
       </c>
       <c r="B71" s="2">
-        <v>4.5868205099999999</v>
+        <v>7.3900855345911944</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>1.7520770000000001</v>
       </c>
       <c r="B72" s="2">
-        <v>4.5812594850000004</v>
+        <v>7.3812867924528298</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>1.777107</v>
       </c>
       <c r="B73" s="2">
-        <v>4.5756976649999999</v>
+        <v>7.3724867924528299</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>1.802136</v>
       </c>
       <c r="B74" s="2">
-        <v>4.570028520000001</v>
+        <v>7.3635169811320758</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>1.8271660000000001</v>
       </c>
       <c r="B75" s="2">
-        <v>4.5643220100000006</v>
+        <v>7.3544880503144654</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,7 @@
         <v>1.852196</v>
       </c>
       <c r="B76" s="2">
-        <v>4.5586155000000002</v>
+        <v>7.345459119496855</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
         <v>1.8772249999999999</v>
       </c>
       <c r="B77" s="2">
-        <v>4.5529081950000005</v>
+        <v>7.3364289308176103</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,7 +6088,7 @@
         <v>1.902255</v>
       </c>
       <c r="B78" s="2">
-        <v>4.5472000950000009</v>
+        <v>7.3273974842767302</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>1.9272849999999999</v>
       </c>
       <c r="B79" s="2">
-        <v>4.5414912000000003</v>
+        <v>7.318364779874214</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
         <v>1.9523140000000001</v>
       </c>
       <c r="B80" s="2">
-        <v>4.5357815100000005</v>
+        <v>7.3093308176100624</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>1.977344</v>
       </c>
       <c r="B81" s="2">
-        <v>4.5300718199999999</v>
+        <v>7.3002968553459118</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>2.0023740000000001</v>
       </c>
       <c r="B82" s="2">
-        <v>4.5243613350000009</v>
+        <v>7.2912616352201258</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>2.0274030000000001</v>
       </c>
       <c r="B83" s="2">
-        <v>4.5186500550000002</v>
+        <v>7.2822251572327037</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,7 +6136,7 @@
         <v>2.0524330000000002</v>
       </c>
       <c r="B84" s="2">
-        <v>4.5125985150000005</v>
+        <v>7.272650314465408</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,7 +6144,7 @@
         <v>2.0774629999999998</v>
       </c>
       <c r="B85" s="2">
-        <v>4.5064332900000004</v>
+        <v>7.2628955974842766</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>2.1024919999999998</v>
       </c>
       <c r="B86" s="2">
-        <v>4.5002688600000003</v>
+        <v>7.2531421383647796</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>2.1275219999999999</v>
       </c>
       <c r="B87" s="2">
-        <v>4.4941036350000001</v>
+        <v>7.2433874213836473</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>2.152552</v>
       </c>
       <c r="B88" s="2">
-        <v>4.4879376150000008</v>
+        <v>7.2336314465408806</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>2.177581</v>
       </c>
       <c r="B89" s="2">
-        <v>4.4817715950000006</v>
+        <v>7.2238754716981131</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>2.2026110000000001</v>
       </c>
       <c r="B90" s="2">
-        <v>4.4756055750000003</v>
+        <v>7.2141194968553455</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>2.2276410000000002</v>
       </c>
       <c r="B91" s="2">
-        <v>4.469439555000001</v>
+        <v>7.2043635220125788</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
         <v>2.2526700000000002</v>
       </c>
       <c r="B92" s="2">
-        <v>4.4632719450000007</v>
+        <v>7.1946050314465406</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,7 +6208,7 @@
         <v>2.2776999999999998</v>
       </c>
       <c r="B93" s="2">
-        <v>4.4571051300000004</v>
+        <v>7.1848477987421386</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>2.3027299999999999</v>
       </c>
       <c r="B94" s="2">
-        <v>4.4506378050000004</v>
+        <v>7.1746150943396225</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>2.3277589999999999</v>
       </c>
       <c r="B95" s="2">
-        <v>4.4440782600000004</v>
+        <v>7.164236477987421</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>2.352789</v>
       </c>
       <c r="B96" s="2">
-        <v>4.4375179200000003</v>
+        <v>7.1538566037735851</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,7 +6240,7 @@
         <v>2.3778190000000001</v>
       </c>
       <c r="B97" s="2">
-        <v>4.4309575800000003</v>
+        <v>7.1434767295597483</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>2.4028480000000001</v>
       </c>
       <c r="B98" s="2">
-        <v>4.4243972400000002</v>
+        <v>7.1330968553459115</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
         <v>2.4278780000000002</v>
       </c>
       <c r="B99" s="2">
-        <v>4.4178369000000002</v>
+        <v>7.1227169811320756</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,7 +6264,7 @@
         <v>2.4529079999999999</v>
       </c>
       <c r="B100" s="2">
-        <v>4.411275765000001</v>
+        <v>7.1123358490566035</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>2.4779369999999998</v>
       </c>
       <c r="B101" s="2">
-        <v>4.404715425</v>
+        <v>7.1019559748427668</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,7 +6280,7 @@
         <v>2.5029669999999999</v>
       </c>
       <c r="B102" s="2">
-        <v>4.3981542899999999</v>
+        <v>7.0915748427672956</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>2.527997</v>
       </c>
       <c r="B103" s="2">
-        <v>4.3915923600000006</v>
+        <v>7.0811924528301882</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>2.553026</v>
       </c>
       <c r="B104" s="2">
-        <v>4.38493026</v>
+        <v>7.0706515723270442</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
         <v>2.5780560000000001</v>
       </c>
       <c r="B105" s="2">
-        <v>4.3782379500000008</v>
+        <v>7.0600628930817608</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>2.6030859999999998</v>
       </c>
       <c r="B106" s="2">
-        <v>4.3715456400000008</v>
+        <v>7.0494742138364783</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
         <v>2.6281150000000002</v>
       </c>
       <c r="B107" s="2">
-        <v>4.3648525350000007</v>
+        <v>7.0388842767295596</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
         <v>2.6531449999999999</v>
       </c>
       <c r="B108" s="2">
-        <v>4.3581602249999998</v>
+        <v>7.0282955974842762</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>2.678175</v>
       </c>
       <c r="B109" s="2">
-        <v>4.3514671200000006</v>
+        <v>7.0177056603773575</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>2.7032039999999999</v>
       </c>
       <c r="B110" s="2">
-        <v>4.3447740150000005</v>
+        <v>7.0071157232704397</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>2.728234</v>
       </c>
       <c r="B111" s="2">
-        <v>4.3380809100000004</v>
+        <v>6.9965257861635219</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
         <v>2.7532640000000002</v>
       </c>
       <c r="B112" s="2">
-        <v>4.3313870100000003</v>
+        <v>6.985934591194968</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>2.7782930000000001</v>
       </c>
       <c r="B113" s="2">
-        <v>4.3246939050000002</v>
+        <v>6.9753446540880502</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>2.8033229999999998</v>
       </c>
       <c r="B114" s="2">
-        <v>4.318252020000001</v>
+        <v>6.9651522012578617</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>2.8283529999999999</v>
       </c>
       <c r="B115" s="2">
-        <v>4.3118785050000001</v>
+        <v>6.9550679245283016</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>2.8533819999999999</v>
       </c>
       <c r="B116" s="2">
-        <v>4.3055049900000002</v>
+        <v>6.9449836477987423</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>2.878412</v>
       </c>
       <c r="B117" s="2">
-        <v>4.2991314750000011</v>
+        <v>6.9348993710691831</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
         <v>2.9034420000000001</v>
       </c>
       <c r="B118" s="2">
-        <v>4.2927579600000003</v>
+        <v>6.9248150943396221</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,7 +6416,7 @@
         <v>2.928471</v>
       </c>
       <c r="B119" s="2">
-        <v>4.2863836500000003</v>
+        <v>6.9147295597484275</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6424,7 @@
         <v>2.9535010000000002</v>
       </c>
       <c r="B120" s="2">
-        <v>4.2800101350000004</v>
+        <v>6.9046452830188683</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>2.9785309999999998</v>
       </c>
       <c r="B121" s="2">
-        <v>4.2736358250000004</v>
+        <v>6.8945597484276728</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>3.0035599999999998</v>
       </c>
       <c r="B122" s="2">
-        <v>4.2672623100000004</v>
+        <v>6.8844754716981127</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
         <v>3.0285899999999999</v>
       </c>
       <c r="B123" s="2">
-        <v>4.2608880000000005</v>
+        <v>6.8743899371069181</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>3.05362</v>
       </c>
       <c r="B124" s="2">
-        <v>4.2544850700000003</v>
+        <v>6.8642591194968556</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>3.078649</v>
       </c>
       <c r="B125" s="2">
-        <v>4.2480749850000006</v>
+        <v>6.8541169811320755</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>3.1036790000000001</v>
       </c>
       <c r="B126" s="2">
-        <v>4.2416649000000008</v>
+        <v>6.8439748427672962</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
         <v>3.1287090000000002</v>
       </c>
       <c r="B127" s="2">
-        <v>4.2352548150000002</v>
+        <v>6.8338327044025151</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6488,7 +6488,7 @@
         <v>3.1537380000000002</v>
       </c>
       <c r="B128" s="2">
-        <v>4.2288447300000005</v>
+        <v>6.8236905660377349</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>3.1787679999999998</v>
       </c>
       <c r="B129" s="2">
-        <v>4.2224338499999998</v>
+        <v>6.8135471698113204</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
         <v>3.2037979999999999</v>
       </c>
       <c r="B130" s="2">
-        <v>4.2160237650000001</v>
+        <v>6.8034050314465402</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>3.228828</v>
       </c>
       <c r="B131" s="2">
-        <v>4.2096128850000003</v>
+        <v>6.7932616352201256</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6520,7 +6520,7 @@
         <v>3.253857</v>
       </c>
       <c r="B132" s="2">
-        <v>4.2032020050000005</v>
+        <v>6.783118238993711</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6528,7 +6528,7 @@
         <v>3.2788870000000001</v>
       </c>
       <c r="B133" s="2">
-        <v>4.1967911250000007</v>
+        <v>6.7729748427672956</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>3.3039170000000002</v>
       </c>
       <c r="B134" s="2">
-        <v>4.1902641750000011</v>
+        <v>6.7626477987421385</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
         <v>3.3289460000000002</v>
       </c>
       <c r="B135" s="2">
-        <v>4.1837101950000006</v>
+        <v>6.7522779874213832</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>3.3539759999999998</v>
       </c>
       <c r="B136" s="2">
-        <v>4.1771562150000001</v>
+        <v>6.7419081761006279</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>3.379006</v>
       </c>
       <c r="B137" s="2">
-        <v>4.1706022350000005</v>
+        <v>6.7315383647798743</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>3.4040349999999999</v>
       </c>
       <c r="B138" s="2">
-        <v>4.1640474599999999</v>
+        <v>6.7211672955974837</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
         <v>3.429065</v>
       </c>
       <c r="B139" s="2">
-        <v>4.1574934800000003</v>
+        <v>6.7107974842767293</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,7 +6584,7 @@
         <v>3.4540950000000001</v>
       </c>
       <c r="B140" s="2">
-        <v>4.1509387049999997</v>
+        <v>6.7004264150943387</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>3.4791240000000001</v>
       </c>
       <c r="B141" s="2">
-        <v>4.144384725000001</v>
+        <v>6.6900566037735851</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>3.5041540000000002</v>
       </c>
       <c r="B142" s="2">
-        <v>4.1378299500000004</v>
+        <v>6.6796855345911945</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6608,7 +6608,7 @@
         <v>3.5291839999999999</v>
       </c>
       <c r="B143" s="2">
-        <v>4.1312759700000008</v>
+        <v>6.6693157232704401</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
         <v>3.5542129999999998</v>
       </c>
       <c r="B144" s="2">
-        <v>4.1245462950000009</v>
+        <v>6.6586679245283014</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
         <v>3.579243</v>
       </c>
       <c r="B145" s="2">
-        <v>4.1177784600000003</v>
+        <v>6.6479597484276729</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
         <v>3.6042730000000001</v>
       </c>
       <c r="B146" s="2">
-        <v>4.1110114200000005</v>
+        <v>6.6372528301886788</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>3.629302</v>
       </c>
       <c r="B147" s="2">
-        <v>4.1042435850000007</v>
+        <v>6.6265446540880504</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>3.6543320000000001</v>
       </c>
       <c r="B148" s="2">
-        <v>4.097476545000001</v>
+        <v>6.6158377358490572</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>3.6793619999999998</v>
       </c>
       <c r="B149" s="2">
-        <v>4.0907087100000004</v>
+        <v>6.605129559748427</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>3.7043910000000002</v>
       </c>
       <c r="B150" s="2">
-        <v>4.0839416700000006</v>
+        <v>6.5944226415094338</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>3.7294209999999999</v>
       </c>
       <c r="B151" s="2">
-        <v>4.0771738350000009</v>
+        <v>6.5837144654088053</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>3.754451</v>
       </c>
       <c r="B152" s="2">
-        <v>4.0704060000000002</v>
+        <v>6.5730062893081751</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>3.77948</v>
       </c>
       <c r="B153" s="2">
-        <v>4.0636389600000005</v>
+        <v>6.5622993710691819</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>3.8045100000000001</v>
       </c>
       <c r="B154" s="2">
-        <v>4.0571676600000002</v>
+        <v>6.5520603773584902</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>3.8295400000000002</v>
       </c>
       <c r="B155" s="2">
-        <v>4.0507551900000003</v>
+        <v>6.5419144654088042</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>3.8545690000000001</v>
       </c>
       <c r="B156" s="2">
-        <v>4.0443427200000004</v>
+        <v>6.5317685534591199</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>3.8795989999999998</v>
       </c>
       <c r="B157" s="2">
-        <v>4.0379310450000006</v>
+        <v>6.5216238993710691</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>3.9046289999999999</v>
       </c>
       <c r="B158" s="2">
-        <v>4.0315185749999998</v>
+        <v>6.5114779874213831</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>3.9296579999999999</v>
       </c>
       <c r="B159" s="2">
-        <v>4.0251061050000008</v>
+        <v>6.5013320754716979</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
         <v>3.954688</v>
       </c>
       <c r="B160" s="2">
-        <v>4.018693635</v>
+        <v>6.4911861635220118</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>3.9797180000000001</v>
       </c>
       <c r="B161" s="2">
-        <v>4.012281165000001</v>
+        <v>6.4810402515723275</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>4.0047470000000001</v>
       </c>
       <c r="B162" s="2">
-        <v>4.0058686950000002</v>
+        <v>6.4708943396226415</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6768,7 +6768,7 @@
         <v>4.0297770000000002</v>
       </c>
       <c r="B163" s="2">
-        <v>3.9994562249999999</v>
+        <v>6.4607484276729554</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
         <v>4.0548070000000003</v>
       </c>
       <c r="B164" s="2">
-        <v>3.9932631749999996</v>
+        <v>6.4509496855345905</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,7 +6784,7 @@
         <v>4.0798360000000002</v>
       </c>
       <c r="B165" s="2">
-        <v>3.9871090800000002</v>
+        <v>6.4412125786163523</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>4.1048660000000003</v>
       </c>
       <c r="B166" s="2">
-        <v>3.9809557799999999</v>
+        <v>6.4314767295597486</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
         <v>4.1298959999999996</v>
       </c>
       <c r="B167" s="2">
-        <v>3.9748016849999996</v>
+        <v>6.4217396226415095</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
         <v>4.1549250000000004</v>
       </c>
       <c r="B168" s="2">
-        <v>3.9686483850000003</v>
+        <v>6.4120037735849058</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
         <v>4.1799549999999996</v>
       </c>
       <c r="B169" s="2">
-        <v>3.962495085</v>
+        <v>6.4022679245283012</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>4.2049849999999998</v>
       </c>
       <c r="B170" s="2">
-        <v>3.9563409899999997</v>
+        <v>6.3925308176100621</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
         <v>4.2300139999999997</v>
       </c>
       <c r="B171" s="2">
-        <v>3.9501876900000004</v>
+        <v>6.3827949685534593</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
         <v>4.2550439999999998</v>
       </c>
       <c r="B172" s="2">
-        <v>3.9440335950000001</v>
+        <v>6.3730578616352203</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>4.2800739999999999</v>
       </c>
       <c r="B173" s="2">
-        <v>3.9378802949999998</v>
+        <v>6.3633220125786165</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>4.3051029999999999</v>
       </c>
       <c r="B174" s="2">
-        <v>3.9316443150000002</v>
+        <v>6.3534553459119492</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>4.330133</v>
       </c>
       <c r="B175" s="2">
-        <v>3.9253940250000006</v>
+        <v>6.3435660377358492</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>4.3551630000000001</v>
       </c>
       <c r="B176" s="2">
-        <v>3.9191445300000001</v>
+        <v>6.3336779874213835</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,7 +6880,7 @@
         <v>4.3801920000000001</v>
       </c>
       <c r="B177" s="2">
-        <v>3.9128950350000005</v>
+        <v>6.3237899371069179</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6888,7 +6888,7 @@
         <v>4.4052220000000002</v>
       </c>
       <c r="B178" s="2">
-        <v>3.9066447449999999</v>
+        <v>6.313900628930817</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>4.4302520000000003</v>
       </c>
       <c r="B179" s="2">
-        <v>3.9003952499999994</v>
+        <v>6.3040125786163514</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>4.4552810000000003</v>
       </c>
       <c r="B180" s="2">
-        <v>3.8941457549999998</v>
+        <v>6.2941245283018858</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>4.4803110000000004</v>
       </c>
       <c r="B181" s="2">
-        <v>3.8878954650000002</v>
+        <v>6.2842352201257867</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,7 +6920,7 @@
         <v>4.5053409999999996</v>
       </c>
       <c r="B182" s="2">
-        <v>3.8816459699999997</v>
+        <v>6.2743471698113211</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,7 +6928,7 @@
         <v>4.5303699999999996</v>
       </c>
       <c r="B183" s="2">
-        <v>3.8753964750000001</v>
+        <v>6.2644591194968555</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>4.5553999999999997</v>
       </c>
       <c r="B184" s="2">
-        <v>3.8690507850000002</v>
+        <v>6.2544188679245281</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
         <v>4.5804299999999998</v>
       </c>
       <c r="B185" s="2">
-        <v>3.8626915800000003</v>
+        <v>6.2443572327044023</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
         <v>4.6054589999999997</v>
       </c>
       <c r="B186" s="2">
-        <v>3.8563323750000005</v>
+        <v>6.2342955974842766</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>4.6304889999999999</v>
       </c>
       <c r="B187" s="2">
-        <v>3.8499731700000006</v>
+        <v>6.2242339622641509</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6968,7 +6968,7 @@
         <v>4.655519</v>
       </c>
       <c r="B188" s="2">
-        <v>3.8436147599999999</v>
+        <v>6.2141735849056596</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,7 +6976,7 @@
         <v>4.6805479999999999</v>
       </c>
       <c r="B189" s="2">
-        <v>3.837255555</v>
+        <v>6.2041119496855339</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
         <v>4.705578</v>
       </c>
       <c r="B190" s="2">
-        <v>3.8308963500000002</v>
+        <v>6.1940503144654082</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>4.7306080000000001</v>
       </c>
       <c r="B191" s="2">
-        <v>3.8245379400000004</v>
+        <v>6.1839899371069187</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
         <v>4.7556370000000001</v>
       </c>
       <c r="B192" s="2">
-        <v>3.8181787350000005</v>
+        <v>6.173928301886793</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>4.7806670000000002</v>
       </c>
       <c r="B193" s="2">
-        <v>3.8118203249999998</v>
+        <v>6.1638679245283017</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>4.8056970000000003</v>
       </c>
       <c r="B194" s="2">
-        <v>3.8059134750000001</v>
+        <v>6.1545220125786164</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>4.8307260000000003</v>
       </c>
       <c r="B195" s="2">
-        <v>3.8000678400000001</v>
+        <v>6.1452729559748427</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>4.8557560000000004</v>
       </c>
       <c r="B196" s="2">
-        <v>3.7942222050000001</v>
+        <v>6.136023899371069</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
         <v>4.8807859999999996</v>
       </c>
       <c r="B197" s="2">
-        <v>3.7883765700000001</v>
+        <v>6.1267748427672952</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>4.9058149999999996</v>
       </c>
       <c r="B198" s="2">
-        <v>3.7825317300000001</v>
+        <v>6.1175270440251568</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7056,7 +7056,7 @@
         <v>4.9308449999999997</v>
       </c>
       <c r="B199" s="2">
-        <v>3.7766860950000001</v>
+        <v>6.1082779874213831</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>4.9558749999999998</v>
       </c>
       <c r="B200" s="2">
-        <v>3.7708404600000001</v>
+        <v>6.0990289308176102</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>4.9809039999999998</v>
       </c>
       <c r="B201" s="2">
-        <v>3.7649956200000001</v>
+        <v>6.0897811320754718</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
         <v>5.0059339999999999</v>
       </c>
       <c r="B202" s="2">
-        <v>3.7591499850000001</v>
+        <v>6.0805320754716981</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,7 +7088,7 @@
         <v>5.030964</v>
       </c>
       <c r="B203" s="2">
-        <v>3.7533051450000001</v>
+        <v>6.0712842767295596</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7096,7 @@
         <v>5.055993</v>
       </c>
       <c r="B204" s="2">
-        <v>3.7477313999999997</v>
+        <v>6.0624654088050312</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
         <v>5.0810230000000001</v>
       </c>
       <c r="B205" s="2">
-        <v>3.7421902499999997</v>
+        <v>6.0536981132075471</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,7 +7112,7 @@
         <v>5.1060530000000002</v>
       </c>
       <c r="B206" s="2">
-        <v>3.7366498950000002</v>
+        <v>6.0449320754716984</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>5.1310820000000001</v>
       </c>
       <c r="B207" s="2">
-        <v>3.7311087450000002</v>
+        <v>6.0361647798742144</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7128,7 @@
         <v>5.1561120000000003</v>
       </c>
       <c r="B208" s="2">
-        <v>3.7255683900000003</v>
+        <v>6.0273987421383648</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7136,7 +7136,7 @@
         <v>5.1811420000000004</v>
       </c>
       <c r="B209" s="2">
-        <v>3.7200272399999998</v>
+        <v>6.0186314465408799</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>5.2061710000000003</v>
       </c>
       <c r="B210" s="2">
-        <v>3.7144860899999999</v>
+        <v>6.0098641509433959</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
         <v>5.2312010000000004</v>
       </c>
       <c r="B211" s="2">
-        <v>3.7089457349999999</v>
+        <v>6.0010981132075472</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
         <v>5.2562309999999997</v>
       </c>
       <c r="B212" s="2">
-        <v>3.7034045849999999</v>
+        <v>5.9923308176100631</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>5.2812599999999996</v>
       </c>
       <c r="B213" s="2">
-        <v>3.69786423</v>
+        <v>5.9835647798742144</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
         <v>5.3062899999999997</v>
       </c>
       <c r="B214" s="2">
-        <v>3.6923119500000001</v>
+        <v>5.9747798742138363</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
         <v>5.3313199999999998</v>
       </c>
       <c r="B215" s="2">
-        <v>3.6867596699999998</v>
+        <v>5.965994968553459</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>5.3563499999999999</v>
       </c>
       <c r="B216" s="2">
-        <v>3.68120739</v>
+        <v>5.9572100628930817</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7200,7 +7200,7 @@
         <v>5.3813789999999999</v>
       </c>
       <c r="B217" s="2">
-        <v>3.6756551099999997</v>
+        <v>5.9484251572327045</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7208,7 +7208,7 @@
         <v>5.406409</v>
       </c>
       <c r="B218" s="2">
-        <v>3.6701028299999998</v>
+        <v>5.9396402515723263</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>5.4314390000000001</v>
       </c>
       <c r="B219" s="2">
-        <v>3.6645505499999995</v>
+        <v>5.9308553459119491</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7224,7 +7224,7 @@
         <v>5.4564680000000001</v>
       </c>
       <c r="B220" s="2">
-        <v>3.6589990649999997</v>
+        <v>5.9220716981132071</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>5.4814980000000002</v>
       </c>
       <c r="B221" s="2">
-        <v>3.6534475799999999</v>
+        <v>5.9132880503144651</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7240,7 +7240,7 @@
         <v>5.5065280000000003</v>
       </c>
       <c r="B222" s="2">
-        <v>3.6478952999999996</v>
+        <v>5.9045031446540879</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
         <v>5.5315570000000003</v>
       </c>
       <c r="B223" s="2">
-        <v>3.6423438149999998</v>
+        <v>5.895719496855345</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>5.5565870000000004</v>
       </c>
       <c r="B224" s="2">
-        <v>3.6369235049999995</v>
+        <v>5.8871433962264144</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
         <v>5.5816169999999996</v>
       </c>
       <c r="B225" s="2">
-        <v>3.6315143249999999</v>
+        <v>5.8785849056603769</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>5.6066459999999996</v>
       </c>
       <c r="B226" s="2">
-        <v>3.6261051449999999</v>
+        <v>5.8700264150943395</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7280,7 +7280,7 @@
         <v>5.6316759999999997</v>
       </c>
       <c r="B227" s="2">
-        <v>3.6206959650000003</v>
+        <v>5.8614679245283021</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7288,7 +7288,7 @@
         <v>5.6567059999999998</v>
       </c>
       <c r="B228" s="2">
-        <v>3.6152867850000003</v>
+        <v>5.8529094339622647</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,7 +7296,7 @@
         <v>5.6817349999999998</v>
       </c>
       <c r="B229" s="2">
-        <v>3.6098768100000003</v>
+        <v>5.844349685534592</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>5.7067649999999999</v>
       </c>
       <c r="B230" s="2">
-        <v>3.6044676299999998</v>
+        <v>5.8357911949685528</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
         <v>5.731795</v>
       </c>
       <c r="B231" s="2">
-        <v>3.5990584499999998</v>
+        <v>5.8272327044025154</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>5.7568239999999999</v>
       </c>
       <c r="B232" s="2">
-        <v>3.5936484750000002</v>
+        <v>5.8186729559748427</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>5.781854</v>
       </c>
       <c r="B233" s="2">
-        <v>3.5882392950000002</v>
+        <v>5.8101144654088053</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
         <v>5.8068840000000002</v>
       </c>
       <c r="B234" s="2">
-        <v>3.5827013249999999</v>
+        <v>5.8013522012578616</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
         <v>5.8319130000000001</v>
       </c>
       <c r="B235" s="2">
-        <v>3.577153815</v>
+        <v>5.7925748427672952</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>5.8569430000000002</v>
       </c>
       <c r="B236" s="2">
-        <v>3.5716055100000004</v>
+        <v>5.7837962264150944</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,7 +7360,7 @@
         <v>5.8819730000000003</v>
       </c>
       <c r="B237" s="2">
-        <v>3.566058</v>
+        <v>5.7750188679245289</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
         <v>5.9070020000000003</v>
       </c>
       <c r="B238" s="2">
-        <v>3.5605096949999999</v>
+        <v>5.7662402515723272</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>5.9320320000000004</v>
       </c>
       <c r="B239" s="2">
-        <v>3.5549613899999999</v>
+        <v>5.7574616352201256</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7384,7 +7384,7 @@
         <v>5.9570619999999996</v>
       </c>
       <c r="B240" s="2">
-        <v>3.5494130850000003</v>
+        <v>5.7486830188679248</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
         <v>5.9820909999999996</v>
       </c>
       <c r="B241" s="2">
-        <v>3.5438647799999998</v>
+        <v>5.7399044025157231</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7400,7 +7400,7 @@
         <v>6.0071209999999997</v>
       </c>
       <c r="B242" s="2">
-        <v>3.5383164749999998</v>
+        <v>5.7311257861635214</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7408,7 +7408,7 @@
         <v>6.0321509999999998</v>
       </c>
       <c r="B243" s="2">
-        <v>3.5327673750000002</v>
+        <v>5.7223459119496853</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
         <v>6.0571799999999998</v>
       </c>
       <c r="B244" s="2">
-        <v>3.5271880649999998</v>
+        <v>5.7135182389937098</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>6.0822099999999999</v>
       </c>
       <c r="B245" s="2">
-        <v>3.5216071649999998</v>
+        <v>5.7046880503144655</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7432,7 +7432,7 @@
         <v>6.10724</v>
       </c>
       <c r="B246" s="2">
-        <v>3.5160254699999998</v>
+        <v>5.6958566037735849</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
         <v>6.132269</v>
       </c>
       <c r="B247" s="2">
-        <v>3.5104445700000002</v>
+        <v>5.6870264150943397</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,7 +7448,7 @@
         <v>6.1572990000000001</v>
       </c>
       <c r="B248" s="2">
-        <v>3.5048636700000002</v>
+        <v>5.6781962264150945</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7456,7 +7456,7 @@
         <v>6.1823290000000002</v>
       </c>
       <c r="B249" s="2">
-        <v>3.4992819750000002</v>
+        <v>5.6693647798742139</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7464,7 @@
         <v>6.2073580000000002</v>
       </c>
       <c r="B250" s="2">
-        <v>3.4937010749999997</v>
+        <v>5.6605345911949678</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7472,7 +7472,7 @@
         <v>6.2323880000000003</v>
       </c>
       <c r="B251" s="2">
-        <v>3.4881201749999997</v>
+        <v>5.6517044025157235</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
         <v>6.2574180000000004</v>
       </c>
       <c r="B252" s="2">
-        <v>3.4825384800000001</v>
+        <v>5.642872955974843</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,7 @@
         <v>6.2824470000000003</v>
       </c>
       <c r="B253" s="2">
-        <v>3.4769575800000001</v>
+        <v>5.6340427672955977</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,7 +7496,7 @@
         <v>6.3074770000000004</v>
       </c>
       <c r="B254" s="2">
-        <v>3.4713607799999999</v>
+        <v>5.6251874213836484</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,7 +7504,7 @@
         <v>6.3325069999999997</v>
       </c>
       <c r="B255" s="2">
-        <v>3.4657623900000001</v>
+        <v>5.6163295597484275</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>6.3575359999999996</v>
       </c>
       <c r="B256" s="2">
-        <v>3.4601647949999998</v>
+        <v>5.6074729559748429</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7520,7 +7520,7 @@
         <v>6.3825659999999997</v>
       </c>
       <c r="B257" s="2">
-        <v>3.4545672000000001</v>
+        <v>5.5986163522012573</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
         <v>6.4075959999999998</v>
       </c>
       <c r="B258" s="2">
-        <v>3.4489688099999998</v>
+        <v>5.5897584905660374</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>6.4326249999999998</v>
       </c>
       <c r="B259" s="2">
-        <v>3.4433712150000004</v>
+        <v>5.5809018867924536</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
         <v>6.4576549999999999</v>
       </c>
       <c r="B260" s="2">
-        <v>3.4377736200000002</v>
+        <v>5.572045283018868</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>6.482685</v>
       </c>
       <c r="B261" s="2">
-        <v>3.4321752299999999</v>
+        <v>5.5631874213836481</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7560,7 +7560,7 @@
         <v>6.507714</v>
       </c>
       <c r="B262" s="2">
-        <v>3.4265776350000001</v>
+        <v>5.5543308176100625</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
         <v>6.5327440000000001</v>
       </c>
       <c r="B263" s="2">
-        <v>3.4209792449999998</v>
+        <v>5.5454729559748426</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
         <v>6.5577740000000002</v>
       </c>
       <c r="B264" s="2">
-        <v>3.4154921549999999</v>
+        <v>5.5367911949685533</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
         <v>6.5828030000000002</v>
       </c>
       <c r="B265" s="2">
-        <v>3.4100090400000003</v>
+        <v>5.5281157232704405</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
         <v>6.6078330000000003</v>
       </c>
       <c r="B266" s="2">
-        <v>3.4045267199999998</v>
+        <v>5.5194415094339622</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
         <v>6.6328630000000004</v>
       </c>
       <c r="B267" s="2">
-        <v>3.3990443999999997</v>
+        <v>5.5107672955974838</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,7 +7608,7 @@
         <v>6.6578920000000004</v>
       </c>
       <c r="B268" s="2">
-        <v>3.3935612850000001</v>
+        <v>5.502091823899371</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>6.6829219999999996</v>
       </c>
       <c r="B269" s="2">
-        <v>3.3880789650000001</v>
+        <v>5.4934176100628926</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
         <v>6.7079519999999997</v>
       </c>
       <c r="B270" s="2">
-        <v>3.3825974400000001</v>
+        <v>5.4847446540880505</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>6.7329809999999997</v>
       </c>
       <c r="B271" s="2">
-        <v>3.3771151199999996</v>
+        <v>5.4760704402515721</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,7 +7640,7 @@
         <v>6.7580109999999998</v>
       </c>
       <c r="B272" s="2">
-        <v>3.3716328000000004</v>
+        <v>5.4673962264150946</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7648,7 @@
         <v>6.7830409999999999</v>
       </c>
       <c r="B273" s="2">
-        <v>3.366151275</v>
+        <v>5.4587232704402515</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7656,7 +7656,7 @@
         <v>6.8080699999999998</v>
       </c>
       <c r="B274" s="2">
-        <v>3.3608557800000001</v>
+        <v>5.4503446540880498</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,7 +7664,7 @@
         <v>6.8331</v>
       </c>
       <c r="B275" s="2">
-        <v>3.3555650549999996</v>
+        <v>5.4419735849056599</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7672,7 +7672,7 @@
         <v>6.8581300000000001</v>
       </c>
       <c r="B276" s="2">
-        <v>3.35027433</v>
+        <v>5.4336025157232708</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7680,7 +7680,7 @@
         <v>6.883159</v>
       </c>
       <c r="B277" s="2">
-        <v>3.3449828099999999</v>
+        <v>5.4252301886792447</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>6.9081890000000001</v>
       </c>
       <c r="B278" s="2">
-        <v>3.3396920850000003</v>
+        <v>5.4168591194968556</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7696,7 +7696,7 @@
         <v>6.9332190000000002</v>
       </c>
       <c r="B279" s="2">
-        <v>3.3344013600000002</v>
+        <v>5.4084880503144657</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>6.9582480000000002</v>
       </c>
       <c r="B280" s="2">
-        <v>3.3291098399999997</v>
+        <v>5.4001157232704395</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7712,7 +7712,7 @@
         <v>6.9832780000000003</v>
       </c>
       <c r="B281" s="2">
-        <v>3.323819115</v>
+        <v>5.3917446540880505</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>7.0083080000000004</v>
       </c>
       <c r="B282" s="2">
-        <v>3.31852839</v>
+        <v>5.3833735849056605</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7728,7 +7728,7 @@
         <v>7.0333370000000004</v>
       </c>
       <c r="B283" s="2">
-        <v>3.3132368700000003</v>
+        <v>5.3750012578616353</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
         <v>7.0583669999999996</v>
       </c>
       <c r="B284" s="2">
-        <v>3.3081894150000002</v>
+        <v>5.3670150943396226</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>7.0833969999999997</v>
       </c>
       <c r="B285" s="2">
-        <v>3.3031459349999999</v>
+        <v>5.3590352201257856</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>7.1084259999999997</v>
       </c>
       <c r="B286" s="2">
-        <v>3.2981016600000004</v>
+        <v>5.351054088050315</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7760,7 +7760,7 @@
         <v>7.1334559999999998</v>
       </c>
       <c r="B287" s="2">
-        <v>3.2930581800000001</v>
+        <v>5.343074213836478</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
         <v>7.1584859999999999</v>
       </c>
       <c r="B288" s="2">
-        <v>3.2880146999999997</v>
+        <v>5.3350943396226409</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7776,7 +7776,7 @@
         <v>7.1835149999999999</v>
       </c>
       <c r="B289" s="2">
-        <v>3.2829704249999998</v>
+        <v>5.3271132075471694</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>7.208545</v>
       </c>
       <c r="B290" s="2">
-        <v>3.2779269449999995</v>
+        <v>5.3191333333333333</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>7.2335750000000001</v>
       </c>
       <c r="B291" s="2">
-        <v>3.27288267</v>
+        <v>5.3111522012578618</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,7 +7800,7 @@
         <v>7.2586040000000001</v>
       </c>
       <c r="B292" s="2">
-        <v>3.2678383950000005</v>
+        <v>5.3031710691823903</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7808,7 +7808,7 @@
         <v>7.2836340000000002</v>
       </c>
       <c r="B293" s="2">
-        <v>3.2627949150000002</v>
+        <v>5.2951911949685533</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>7.3086640000000003</v>
       </c>
       <c r="B294" s="2">
-        <v>3.2576544449999996</v>
+        <v>5.28705786163522</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
         <v>7.3336930000000002</v>
       </c>
       <c r="B295" s="2">
-        <v>3.2525131799999998</v>
+        <v>5.2789232704402513</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
         <v>7.3587230000000003</v>
       </c>
       <c r="B296" s="2">
-        <v>3.2473727100000001</v>
+        <v>5.270789937106918</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7840,7 +7840,7 @@
         <v>7.3837529999999996</v>
       </c>
       <c r="B297" s="2">
-        <v>3.2422314450000003</v>
+        <v>5.2626553459119503</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,7 +7848,7 @@
         <v>7.4087820000000004</v>
       </c>
       <c r="B298" s="2">
-        <v>3.2370909749999996</v>
+        <v>5.2545220125786161</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>7.4338119999999996</v>
       </c>
       <c r="B299" s="2">
-        <v>3.2319497099999999</v>
+        <v>5.2463874213836474</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7864,7 @@
         <v>7.4588419999999998</v>
       </c>
       <c r="B300" s="2">
-        <v>3.2268092400000001</v>
+        <v>5.238254088050315</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
         <v>7.4838709999999997</v>
       </c>
       <c r="B301" s="2">
-        <v>3.2216679749999999</v>
+        <v>5.2301194968553455</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
         <v>7.5089009999999998</v>
       </c>
       <c r="B302" s="2">
-        <v>3.2165275050000002</v>
+        <v>5.2219861635220131</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7888,7 +7888,7 @@
         <v>7.5339309999999999</v>
       </c>
       <c r="B303" s="2">
-        <v>3.2113838549999998</v>
+        <v>5.2138477987421386</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7896,7 +7896,7 @@
         <v>7.558961</v>
       </c>
       <c r="B304" s="2">
-        <v>3.2059484399999998</v>
+        <v>5.2052477987421382</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>7.58399</v>
       </c>
       <c r="B305" s="2">
-        <v>3.2005130249999998</v>
+        <v>5.1966477987421387</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7912,7 +7912,7 @@
         <v>7.6090200000000001</v>
       </c>
       <c r="B306" s="2">
-        <v>3.1950776099999998</v>
+        <v>5.1880477987421383</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,7 +7920,7 @@
         <v>7.6340500000000002</v>
       </c>
       <c r="B307" s="2">
-        <v>3.1896421949999998</v>
+        <v>5.1794477987421379</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7928,7 +7928,7 @@
         <v>7.6590790000000002</v>
       </c>
       <c r="B308" s="2">
-        <v>3.1842067799999998</v>
+        <v>5.1708477987421384</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7936,7 +7936,7 @@
         <v>7.6841090000000003</v>
       </c>
       <c r="B309" s="2">
-        <v>3.1787713649999998</v>
+        <v>5.162247798742138</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,7 +7944,7 @@
         <v>7.7091390000000004</v>
       </c>
       <c r="B310" s="2">
-        <v>3.1733351549999997</v>
+        <v>5.1536465408805032</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>7.7341680000000004</v>
       </c>
       <c r="B311" s="2">
-        <v>3.1678997399999997</v>
+        <v>5.1450465408805028</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
         <v>7.7591979999999996</v>
       </c>
       <c r="B312" s="2">
-        <v>3.1624635299999997</v>
+        <v>5.136445283018868</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>7.7842279999999997</v>
       </c>
       <c r="B313" s="2">
-        <v>3.1570328849999996</v>
+        <v>5.1278528301886785</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7976,7 +7976,7 @@
         <v>7.8092569999999997</v>
       </c>
       <c r="B314" s="2">
-        <v>3.1518280200000004</v>
+        <v>5.1196176100628934</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>7.8342869999999998</v>
       </c>
       <c r="B315" s="2">
-        <v>3.1466231549999999</v>
+        <v>5.1113823899371074</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>7.8593169999999999</v>
       </c>
       <c r="B316" s="2">
-        <v>3.1414190849999999</v>
+        <v>5.1031484276729557</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8000,7 +8000,7 @@
         <v>7.8843459999999999</v>
       </c>
       <c r="B317" s="2">
-        <v>3.1362142199999998</v>
+        <v>5.0949132075471697</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8008,7 +8008,7 @@
         <v>7.909376</v>
       </c>
       <c r="B318" s="2">
-        <v>3.1310101500000003</v>
+        <v>5.086679245283019</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>7.9344060000000001</v>
       </c>
       <c r="B319" s="2">
-        <v>3.1258052849999998</v>
+        <v>5.0784440251572329</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8024,7 +8024,7 @@
         <v>7.959435</v>
       </c>
       <c r="B320" s="2">
-        <v>3.1206012149999998</v>
+        <v>5.0702100628930813</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>7.9844650000000001</v>
       </c>
       <c r="B321" s="2">
-        <v>3.1153971449999998</v>
+        <v>5.0619761006289306</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8040,7 +8040,7 @@
         <v>8.0094949999999994</v>
       </c>
       <c r="B322" s="2">
-        <v>3.1101922800000001</v>
+        <v>5.0537408805031454</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,7 +8048,7 @@
         <v>8.0345239999999993</v>
       </c>
       <c r="B323" s="2">
-        <v>3.1049961599999998</v>
+        <v>5.0455194968553458</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
         <v>8.0595540000000003</v>
       </c>
       <c r="B324" s="2">
-        <v>3.1000385400000003</v>
+        <v>5.0376754716981136</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8064,7 +8064,7 @@
         <v>8.0845839999999995</v>
       </c>
       <c r="B325" s="2">
-        <v>3.095080125</v>
+        <v>5.0298301886792451</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>8.1096129999999995</v>
       </c>
       <c r="B326" s="2">
-        <v>3.0901225050000001</v>
+        <v>5.0219861635220129</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,7 +8080,7 @@
         <v>8.1346430000000005</v>
       </c>
       <c r="B327" s="2">
-        <v>3.0851640899999997</v>
+        <v>5.0141408805031444</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8088,7 +8088,7 @@
         <v>8.1596729999999997</v>
       </c>
       <c r="B328" s="2">
-        <v>3.0802064700000003</v>
+        <v>5.0062968553459122</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,7 +8096,7 @@
         <v>8.1847019999999997</v>
       </c>
       <c r="B329" s="2">
-        <v>3.0752488499999999</v>
+        <v>4.998452830188679</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,7 +8104,7 @@
         <v>8.2097320000000007</v>
       </c>
       <c r="B330" s="2">
-        <v>3.0702912299999996</v>
+        <v>4.9906088050314459</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8112,7 +8112,7 @@
         <v>8.2347619999999999</v>
       </c>
       <c r="B331" s="2">
-        <v>3.0653336100000002</v>
+        <v>4.9827647798742136</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>8.2597909999999999</v>
       </c>
       <c r="B332" s="2">
-        <v>3.0603759899999998</v>
+        <v>4.9749207547169805</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +8128,7 @@
         <v>8.2848210000000009</v>
       </c>
       <c r="B333" s="2">
-        <v>3.0554215500000002</v>
+        <v>4.9670817610062894</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
         <v>8.3098510000000001</v>
       </c>
       <c r="B334" s="2">
-        <v>3.0505275300000001</v>
+        <v>4.9593383647798746</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
         <v>8.3348800000000001</v>
       </c>
       <c r="B335" s="2">
-        <v>3.0456335100000005</v>
+        <v>4.9515949685534597</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>8.3599099999999993</v>
       </c>
       <c r="B336" s="2">
-        <v>3.0407386950000004</v>
+        <v>4.9438503144654096</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>8.3849400000000003</v>
       </c>
       <c r="B337" s="2">
-        <v>3.0358446749999999</v>
+        <v>4.9361069182389929</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,7 +8168,7 @@
         <v>8.4099690000000002</v>
       </c>
       <c r="B338" s="2">
-        <v>3.0309506549999998</v>
+        <v>4.9283635220125781</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8176,7 +8176,7 @@
         <v>8.4349989999999995</v>
       </c>
       <c r="B339" s="2">
-        <v>3.0260566349999998</v>
+        <v>4.9206201257861633</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,7 +8184,7 @@
         <v>8.4600290000000005</v>
       </c>
       <c r="B340" s="2">
-        <v>3.0211618200000001</v>
+        <v>4.9128754716981131</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>8.4850580000000004</v>
       </c>
       <c r="B341" s="2">
-        <v>3.0162678000000001</v>
+        <v>4.9051320754716983</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8200,7 +8200,7 @@
         <v>8.5100879999999997</v>
       </c>
       <c r="B342" s="2">
-        <v>3.0113737800000004</v>
+        <v>4.8973886792452834</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>8.5351180000000006</v>
       </c>
       <c r="B343" s="2">
-        <v>3.006486915</v>
+        <v>4.8896566037735854</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>8.5601470000000006</v>
       </c>
       <c r="B344" s="2">
-        <v>3.0017256599999995</v>
+        <v>4.8821232704402506</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8224,7 +8224,7 @@
         <v>8.5851769999999998</v>
       </c>
       <c r="B345" s="2">
-        <v>2.9969652</v>
+        <v>4.8745911949685539</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
         <v>8.6102070000000008</v>
       </c>
       <c r="B346" s="2">
-        <v>2.99220474</v>
+        <v>4.8670591194968553</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8240,7 +8240,7 @@
         <v>8.6352360000000008</v>
       </c>
       <c r="B347" s="2">
-        <v>2.9874442800000001</v>
+        <v>4.8595270440251577</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>8.660266</v>
       </c>
       <c r="B348" s="2">
-        <v>2.9826838200000001</v>
+        <v>4.8519949685534591</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8256,7 +8256,7 @@
         <v>8.6852959999999992</v>
       </c>
       <c r="B349" s="2">
-        <v>2.9779233599999997</v>
+        <v>4.8444628930817606</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8264,7 @@
         <v>8.7103249999999992</v>
       </c>
       <c r="B350" s="2">
-        <v>2.9731629000000002</v>
+        <v>4.8369308176100629</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
         <v>8.7353550000000002</v>
       </c>
       <c r="B351" s="2">
-        <v>2.9684016449999997</v>
+        <v>4.8293974842767291</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
         <v>8.7603849999999994</v>
       </c>
       <c r="B352" s="2">
-        <v>2.9636411850000002</v>
+        <v>4.8218654088050323</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,7 +8288,7 @@
         <v>8.7854139999999994</v>
       </c>
       <c r="B353" s="2">
-        <v>2.9588783399999996</v>
+        <v>4.814329559748427</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8296,7 +8296,7 @@
         <v>8.8104440000000004</v>
       </c>
       <c r="B354" s="2">
-        <v>2.9540805149999998</v>
+        <v>4.806738364779874</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
         <v>8.8354739999999996</v>
       </c>
       <c r="B355" s="2">
-        <v>2.94928269</v>
+        <v>4.7991471698113211</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>8.8605029999999996</v>
       </c>
       <c r="B356" s="2">
-        <v>2.9444848649999997</v>
+        <v>4.7915559748427672</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,7 +8320,7 @@
         <v>8.8855330000000006</v>
       </c>
       <c r="B357" s="2">
-        <v>2.9396870399999999</v>
+        <v>4.7839647798742142</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8328,7 +8328,7 @@
         <v>8.9105629999999998</v>
       </c>
       <c r="B358" s="2">
-        <v>2.9348892149999997</v>
+        <v>4.7763735849056603</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>8.9355919999999998</v>
       </c>
       <c r="B359" s="2">
-        <v>2.9300905949999998</v>
+        <v>4.7687811320754712</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8344,7 +8344,7 @@
         <v>8.9606220000000008</v>
       </c>
       <c r="B360" s="2">
-        <v>2.92529277</v>
+        <v>4.7611899371069182</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>8.985652</v>
       </c>
       <c r="B361" s="2">
-        <v>2.9204949449999997</v>
+        <v>4.7535987421383643</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8360,7 +8360,7 @@
         <v>9.0106809999999999</v>
       </c>
       <c r="B362" s="2">
-        <v>2.9156971199999999</v>
+        <v>4.7460075471698113</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8368,7 @@
         <v>9.0357109999999992</v>
       </c>
       <c r="B363" s="2">
-        <v>2.9109072449999998</v>
+        <v>4.7384289308176095</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8376,7 +8376,7 @@
         <v>9.0607410000000002</v>
       </c>
       <c r="B364" s="2">
-        <v>2.9062183350000002</v>
+        <v>4.7310100628930822</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
         <v>9.0857700000000001</v>
       </c>
       <c r="B365" s="2">
-        <v>2.9015286300000001</v>
+        <v>4.7235899371069179</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,7 +8392,7 @@
         <v>9.1107999999999993</v>
       </c>
       <c r="B366" s="2">
-        <v>2.89683972</v>
+        <v>4.7161710691823897</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8400,7 @@
         <v>9.1358300000000003</v>
       </c>
       <c r="B367" s="2">
-        <v>2.89215081</v>
+        <v>4.7087522012578615</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>9.1608590000000003</v>
       </c>
       <c r="B368" s="2">
-        <v>2.8874618999999999</v>
+        <v>4.7013333333333334</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
         <v>9.1858889999999995</v>
       </c>
       <c r="B369" s="2">
-        <v>2.8827729899999999</v>
+        <v>4.6939144654088052</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8424,7 +8424,7 @@
         <v>9.2109190000000005</v>
       </c>
       <c r="B370" s="2">
-        <v>2.8780840799999998</v>
+        <v>4.6864955974842761</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>9.2359480000000005</v>
       </c>
       <c r="B371" s="2">
-        <v>2.8733951700000002</v>
+        <v>4.6790767295597488</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
         <v>9.2609779999999997</v>
       </c>
       <c r="B372" s="2">
-        <v>2.8687062599999997</v>
+        <v>4.6716578616352198</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,7 +8448,7 @@
         <v>9.2860080000000007</v>
       </c>
       <c r="B373" s="2">
-        <v>2.8640101949999996</v>
+        <v>4.6642276729559748</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8456,7 +8456,7 @@
         <v>9.3110370000000007</v>
       </c>
       <c r="B374" s="2">
-        <v>2.85924099</v>
+        <v>4.6566817610062898</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,7 +8464,7 @@
         <v>9.3360669999999999</v>
       </c>
       <c r="B375" s="2">
-        <v>2.8544725799999999</v>
+        <v>4.6491371069182392</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>9.3610969999999991</v>
       </c>
       <c r="B376" s="2">
-        <v>2.8497041699999999</v>
+        <v>4.6415924528301886</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8480,7 +8480,7 @@
         <v>9.3861260000000009</v>
       </c>
       <c r="B377" s="2">
-        <v>2.8449357599999998</v>
+        <v>4.634047798742138</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>9.4111560000000001</v>
       </c>
       <c r="B378" s="2">
-        <v>2.8401665549999997</v>
+        <v>4.626501886792453</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8496,7 +8496,7 @@
         <v>9.4361859999999993</v>
       </c>
       <c r="B379" s="2">
-        <v>2.8353981449999996</v>
+        <v>4.6189572327044024</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
         <v>9.4612149999999993</v>
       </c>
       <c r="B380" s="2">
-        <v>2.830629735</v>
+        <v>4.6114125786163518</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>9.4862450000000003</v>
       </c>
       <c r="B381" s="2">
-        <v>2.8258605299999999</v>
+        <v>4.6038666666666668</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>9.5112749999999995</v>
       </c>
       <c r="B382" s="2">
-        <v>2.8210921199999999</v>
+        <v>4.5963220125786162</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8528,7 @@
         <v>9.5363039999999994</v>
       </c>
       <c r="B383" s="2">
-        <v>2.8163030399999998</v>
+        <v>4.5887446540880497</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
         <v>9.5613340000000004</v>
       </c>
       <c r="B384" s="2">
-        <v>2.8113366750000002</v>
+        <v>4.58088679245283</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
         <v>9.5863639999999997</v>
       </c>
       <c r="B385" s="2">
-        <v>2.8063703100000001</v>
+        <v>4.5730289308176104</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>9.6113929999999996</v>
       </c>
       <c r="B386" s="2">
-        <v>2.8014031499999996</v>
+        <v>4.5651698113207546</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8560,7 @@
         <v>9.6364230000000006</v>
       </c>
       <c r="B387" s="2">
-        <v>2.796436785</v>
+        <v>4.557311949685535</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,7 +8568,7 @@
         <v>9.6614529999999998</v>
       </c>
       <c r="B388" s="2">
-        <v>2.79147042</v>
+        <v>4.5494540880503145</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8576,7 +8576,7 @@
         <v>9.6864830000000008</v>
       </c>
       <c r="B389" s="2">
-        <v>2.7865032599999999</v>
+        <v>4.5415949685534596</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>9.7115120000000008</v>
       </c>
       <c r="B390" s="2">
-        <v>2.7815368949999999</v>
+        <v>4.5337371069182391</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>9.736542</v>
       </c>
       <c r="B391" s="2">
-        <v>2.7765705299999999</v>
+        <v>4.5258792452830185</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8600,7 +8600,7 @@
         <v>9.7615719999999992</v>
       </c>
       <c r="B392" s="2">
-        <v>2.7716033700000002</v>
+        <v>4.5180201257861636</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>9.7866009999999992</v>
       </c>
       <c r="B393" s="2">
-        <v>2.7666711899999998</v>
+        <v>4.5102163522012573</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8616,7 +8616,7 @@
         <v>9.8116310000000002</v>
       </c>
       <c r="B394" s="2">
-        <v>2.7620013599999997</v>
+        <v>4.5028276729559744</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8624,7 +8624,7 @@
         <v>9.8366609999999994</v>
       </c>
       <c r="B395" s="2">
-        <v>2.7573323250000001</v>
+        <v>4.4954402515723269</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
         <v>9.8616899999999994</v>
       </c>
       <c r="B396" s="2">
-        <v>2.7526632899999997</v>
+        <v>4.4880528301886793</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>9.8867200000000004</v>
       </c>
       <c r="B397" s="2">
-        <v>2.7479942550000001</v>
+        <v>4.4806654088050317</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>9.9117499999999996</v>
       </c>
       <c r="B398" s="2">
-        <v>2.7433260150000001</v>
+        <v>4.4732792452830186</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,7 +8656,7 @@
         <v>9.9367789999999996</v>
       </c>
       <c r="B399" s="2">
-        <v>2.73865698</v>
+        <v>4.465891823899371</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8664,7 +8664,7 @@
         <v>9.9618090000000006</v>
       </c>
       <c r="B400" s="2">
-        <v>2.73398874</v>
+        <v>4.4585056603773587</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>9.9868389999999998</v>
       </c>
       <c r="B401" s="2">
-        <v>2.729319705</v>
+        <v>4.4511182389937103</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
         <v>10.011868</v>
       </c>
       <c r="B402" s="2">
-        <v>2.724651465</v>
+        <v>4.443732075471698</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
         <v>10.036898000000001</v>
       </c>
       <c r="B403" s="2">
-        <v>2.719989585</v>
+        <v>4.4363559748427672</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>10.061928</v>
       </c>
       <c r="B404" s="2">
-        <v>2.7153690450000001</v>
+        <v>4.4290452830188682</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>10.086957</v>
       </c>
       <c r="B405" s="2">
-        <v>2.7107477099999997</v>
+        <v>4.4217333333333331</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8712,7 +8712,7 @@
         <v>10.111986999999999</v>
       </c>
       <c r="B406" s="2">
-        <v>2.7061271700000002</v>
+        <v>4.4144226415094341</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8720,7 +8720,7 @@
         <v>10.137017</v>
       </c>
       <c r="B407" s="2">
-        <v>2.7015066299999999</v>
+        <v>4.4071119496855342</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,7 +8728,7 @@
         <v>10.162046</v>
       </c>
       <c r="B408" s="2">
-        <v>2.696885295</v>
+        <v>4.3997999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8736,7 +8736,7 @@
         <v>10.187075999999999</v>
       </c>
       <c r="B409" s="2">
-        <v>2.6922647550000001</v>
+        <v>4.3924893081761009</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>10.212106</v>
       </c>
       <c r="B410" s="2">
-        <v>2.6876434200000001</v>
+        <v>4.3851773584905667</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>10.237135</v>
       </c>
       <c r="B411" s="2">
-        <v>2.6830228799999998</v>
+        <v>4.3778666666666668</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
         <v>10.262165</v>
       </c>
       <c r="B412" s="2">
-        <v>2.6784015450000003</v>
+        <v>4.3705547169811325</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>10.287195000000001</v>
       </c>
       <c r="B413" s="2">
-        <v>2.6737913400000002</v>
+        <v>4.3632603773584906</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,7 +8776,7 @@
         <v>10.312224000000001</v>
       </c>
       <c r="B414" s="2">
-        <v>2.6692487099999997</v>
+        <v>4.3560729559748426</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8784,7 +8784,7 @@
         <v>10.337254</v>
       </c>
       <c r="B415" s="2">
-        <v>2.6647060800000002</v>
+        <v>4.3488855345911954</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>10.362284000000001</v>
       </c>
       <c r="B416" s="2">
-        <v>2.6601634499999998</v>
+        <v>4.3416981132075474</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8800,7 +8800,7 @@
         <v>10.387313000000001</v>
       </c>
       <c r="B417" s="2">
-        <v>2.6556208200000002</v>
+        <v>4.3345106918238994</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
         <v>10.412343</v>
       </c>
       <c r="B418" s="2">
-        <v>2.6510781899999998</v>
+        <v>4.3273232704402513</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
         <v>10.437372999999999</v>
       </c>
       <c r="B419" s="2">
-        <v>2.6465355600000002</v>
+        <v>4.3201358490566042</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
         <v>10.462402000000001</v>
       </c>
       <c r="B420" s="2">
-        <v>2.6419929299999998</v>
+        <v>4.3129484276729562</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>10.487432</v>
       </c>
       <c r="B421" s="2">
-        <v>2.6374502999999998</v>
+        <v>4.3057610062893081</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8840,7 +8840,7 @@
         <v>10.512461999999999</v>
       </c>
       <c r="B422" s="2">
-        <v>2.6329068750000002</v>
+        <v>4.2985723270440257</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>10.537490999999999</v>
       </c>
       <c r="B423" s="2">
-        <v>2.62833483</v>
+        <v>4.2913383647798744</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
         <v>10.562521</v>
       </c>
       <c r="B424" s="2">
-        <v>2.623594245</v>
+        <v>4.2838377358490565</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
         <v>10.587550999999999</v>
       </c>
       <c r="B425" s="2">
-        <v>2.6188536599999996</v>
+        <v>4.2763371069182385</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
         <v>10.612579999999999</v>
       </c>
       <c r="B426" s="2">
-        <v>2.6141122800000001</v>
+        <v>4.2688352201257862</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8880,7 +8880,7 @@
         <v>10.63761</v>
       </c>
       <c r="B427" s="2">
-        <v>2.6093716950000001</v>
+        <v>4.2613345911949692</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>10.66264</v>
       </c>
       <c r="B428" s="2">
-        <v>2.6046311099999997</v>
+        <v>4.2538339622641503</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>10.687669</v>
       </c>
       <c r="B429" s="2">
-        <v>2.5998905249999997</v>
+        <v>4.2463333333333333</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
         <v>10.712699000000001</v>
       </c>
       <c r="B430" s="2">
-        <v>2.5951499399999998</v>
+        <v>4.2388327044025154</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>10.737729</v>
       </c>
       <c r="B431" s="2">
-        <v>2.5904085599999997</v>
+        <v>4.231330817610063</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
         <v>10.762758</v>
       </c>
       <c r="B432" s="2">
-        <v>2.5856679749999998</v>
+        <v>4.2238301886792451</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +8928,7 @@
         <v>10.787788000000001</v>
       </c>
       <c r="B433" s="2">
-        <v>2.5809727049999998</v>
+        <v>4.2164012578616354</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>10.812818</v>
       </c>
       <c r="B434" s="2">
-        <v>2.57651355</v>
+        <v>4.2093459119496854</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
         <v>10.837847</v>
       </c>
       <c r="B435" s="2">
-        <v>2.5720543949999999</v>
+        <v>4.2022905660377363</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>10.862876999999999</v>
       </c>
       <c r="B436" s="2">
-        <v>2.5675960349999998</v>
+        <v>4.1952364779874216</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,7 +8960,7 @@
         <v>10.887907</v>
       </c>
       <c r="B437" s="2">
-        <v>2.5631368800000001</v>
+        <v>4.1881811320754716</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
         <v>10.912936</v>
       </c>
       <c r="B438" s="2">
-        <v>2.5586777249999999</v>
+        <v>4.1811257861635225</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
         <v>10.937965999999999</v>
       </c>
       <c r="B439" s="2">
-        <v>2.5542193649999998</v>
+        <v>4.1740716981132078</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>10.962996</v>
       </c>
       <c r="B440" s="2">
-        <v>2.5497602100000001</v>
+        <v>4.1670163522012578</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>10.988025</v>
       </c>
       <c r="B441" s="2">
-        <v>2.54530185</v>
+        <v>4.1599622641509439</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,7 +9000,7 @@
         <v>11.013055</v>
       </c>
       <c r="B442" s="2">
-        <v>2.5408426949999998</v>
+        <v>4.1529069182389939</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
         <v>11.038085000000001</v>
       </c>
       <c r="B443" s="2">
-        <v>2.5363922849999998</v>
+        <v>4.1458654088050313</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>11.063114000000001</v>
       </c>
       <c r="B444" s="2">
-        <v>2.5319824199999998</v>
+        <v>4.1388880503144652</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
         <v>11.088144</v>
       </c>
       <c r="B445" s="2">
-        <v>2.5275717599999998</v>
+        <v>4.1319094339622637</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9032,7 +9032,7 @@
         <v>11.113174000000001</v>
       </c>
       <c r="B446" s="2">
-        <v>2.5231611000000003</v>
+        <v>4.1249308176100632</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9040,7 +9040,7 @@
         <v>11.138203000000001</v>
       </c>
       <c r="B447" s="2">
-        <v>2.5187512349999999</v>
+        <v>4.1179534591194971</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9048,7 +9048,7 @@
         <v>11.163233</v>
       </c>
       <c r="B448" s="2">
-        <v>2.5143405749999999</v>
+        <v>4.1109748427672956</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9056,7 +9056,7 @@
         <v>11.188262999999999</v>
       </c>
       <c r="B449" s="2">
-        <v>2.5099299149999998</v>
+        <v>4.1039962264150942</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,7 +9064,7 @@
         <v>11.213291999999999</v>
       </c>
       <c r="B450" s="2">
-        <v>2.5055200499999999</v>
+        <v>4.0970188679245281</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>11.238322</v>
       </c>
       <c r="B451" s="2">
-        <v>2.5011093899999999</v>
+        <v>4.0900402515723266</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>11.263351999999999</v>
       </c>
       <c r="B452" s="2">
-        <v>2.4966995249999999</v>
+        <v>4.0830628930817614</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,7 +9088,7 @@
         <v>11.288380999999999</v>
       </c>
       <c r="B453" s="2">
-        <v>2.4923270249999998</v>
+        <v>4.0761446540880506</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9096,7 +9096,7 @@
         <v>11.313411</v>
       </c>
       <c r="B454" s="2">
-        <v>2.4881230649999999</v>
+        <v>4.0694930817610064</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9104,7 +9104,7 @@
         <v>11.338441</v>
       </c>
       <c r="B455" s="2">
-        <v>2.48391831</v>
+        <v>4.062840251572327</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>11.36347</v>
       </c>
       <c r="B456" s="2">
-        <v>2.479713555</v>
+        <v>4.0561874213836475</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9120,7 +9120,7 @@
         <v>11.388500000000001</v>
       </c>
       <c r="B457" s="2">
-        <v>2.4755088000000001</v>
+        <v>4.0495345911949689</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9128,7 +9128,7 @@
         <v>11.41353</v>
       </c>
       <c r="B458" s="2">
-        <v>2.4713040449999997</v>
+        <v>4.0428817610062895</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9136,7 +9136,7 @@
         <v>11.438559</v>
       </c>
       <c r="B459" s="2">
-        <v>2.4670992899999997</v>
+        <v>4.03622893081761</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9144,7 +9144,7 @@
         <v>11.463589000000001</v>
       </c>
       <c r="B460" s="2">
-        <v>2.4628953300000003</v>
+        <v>4.0295773584905659</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>11.488619</v>
       </c>
       <c r="B461" s="2">
-        <v>2.4586905749999999</v>
+        <v>4.0229245283018864</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9160,7 +9160,7 @@
         <v>11.513648</v>
       </c>
       <c r="B462" s="2">
-        <v>2.4544858199999999</v>
+        <v>4.0162716981132078</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9168,7 @@
         <v>11.538678000000001</v>
       </c>
       <c r="B463" s="2">
-        <v>2.450308095</v>
+        <v>4.0096616352201258</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>11.563708</v>
       </c>
       <c r="B464" s="2">
-        <v>2.4462376950000002</v>
+        <v>4.0032213836477988</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9184,7 +9184,7 @@
         <v>11.588737</v>
       </c>
       <c r="B465" s="2">
-        <v>2.44216809</v>
+        <v>3.9967823899371067</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9192,7 +9192,7 @@
         <v>11.613766999999999</v>
       </c>
       <c r="B466" s="2">
-        <v>2.4380984849999998</v>
+        <v>3.990343396226415</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>11.638797</v>
       </c>
       <c r="B467" s="2">
-        <v>2.4340288800000001</v>
+        <v>3.9839044025157224</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>11.663826</v>
       </c>
       <c r="B468" s="2">
-        <v>2.4299584799999998</v>
+        <v>3.9774641509433963</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
         <v>11.688855999999999</v>
       </c>
       <c r="B469" s="2">
-        <v>2.4258888750000001</v>
+        <v>3.9710251572327038</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9224,7 +9224,7 @@
         <v>11.713886</v>
       </c>
       <c r="B470" s="2">
-        <v>2.4218192699999999</v>
+        <v>3.9645861635220121</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9232,7 +9232,7 @@
         <v>11.738915</v>
       </c>
       <c r="B471" s="2">
-        <v>2.4177496649999997</v>
+        <v>3.9581471698113204</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9240,7 +9240,7 @@
         <v>11.763945</v>
       </c>
       <c r="B472" s="2">
-        <v>2.4136800599999999</v>
+        <v>3.9517081761006287</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9248,7 +9248,7 @@
         <v>11.788975000000001</v>
       </c>
       <c r="B473" s="2">
-        <v>2.4096454349999998</v>
+        <v>3.9453245283018865</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>11.814005</v>
       </c>
       <c r="B474" s="2">
-        <v>2.4057411900000001</v>
+        <v>3.9391471698113203</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>11.839034</v>
       </c>
       <c r="B475" s="2">
-        <v>2.4018369449999999</v>
+        <v>3.932969811320755</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>11.864064000000001</v>
       </c>
       <c r="B476" s="2">
-        <v>2.3979326999999997</v>
+        <v>3.9267924528301879</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,7 +9280,7 @@
         <v>11.889094</v>
       </c>
       <c r="B477" s="2">
-        <v>2.39402925</v>
+        <v>3.9206163522012578</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9288,7 +9288,7 @@
         <v>11.914123</v>
       </c>
       <c r="B478" s="2">
-        <v>2.3901250049999998</v>
+        <v>3.9144389937106916</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
         <v>11.939152999999999</v>
       </c>
       <c r="B479" s="2">
-        <v>2.3862215550000001</v>
+        <v>3.9082628930817607</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
         <v>11.964183</v>
       </c>
       <c r="B480" s="2">
-        <v>2.3823173099999999</v>
+        <v>3.9020855345911944</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>11.989212</v>
       </c>
       <c r="B481" s="2">
-        <v>2.3784138599999998</v>
+        <v>3.8959094339622635</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9320,7 @@
         <v>12.014241999999999</v>
       </c>
       <c r="B482" s="2">
-        <v>2.374509615</v>
+        <v>3.8897320754716982</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9328,7 +9328,7 @@
         <v>12.039272</v>
       </c>
       <c r="B483" s="2">
-        <v>2.3706061649999999</v>
+        <v>3.8835559748427664</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9336,7 +9336,7 @@
         <v>12.064301</v>
       </c>
       <c r="B484" s="2">
-        <v>2.3667019200000001</v>
+        <v>3.877378616352201</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9344,7 +9344,7 @@
         <v>12.089331</v>
       </c>
       <c r="B485" s="2">
-        <v>2.36279847</v>
+        <v>3.8712025157232701</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>12.114361000000001</v>
       </c>
       <c r="B486" s="2">
-        <v>2.3588942249999998</v>
+        <v>3.8650251572327039</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9360,7 +9360,7 @@
         <v>12.139390000000001</v>
       </c>
       <c r="B487" s="2">
-        <v>2.35498998</v>
+        <v>3.8588477987421377</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9368,7 +9368,7 @@
         <v>12.16442</v>
       </c>
       <c r="B488" s="2">
-        <v>2.3510857349999998</v>
+        <v>3.8526704402515723</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
         <v>12.189450000000001</v>
       </c>
       <c r="B489" s="2">
-        <v>2.3471822849999997</v>
+        <v>3.8464943396226414</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9384,7 +9384,7 @@
         <v>12.214479000000001</v>
       </c>
       <c r="B490" s="2">
-        <v>2.34327804</v>
+        <v>3.8403169811320752</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>12.239509</v>
       </c>
       <c r="B491" s="2">
-        <v>2.3393730000000001</v>
+        <v>3.8341383647798737</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,7 +9400,7 @@
         <v>12.264538999999999</v>
       </c>
       <c r="B492" s="2">
-        <v>2.335468755</v>
+        <v>3.8279610062893084</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,7 +9408,7 @@
         <v>12.289567999999999</v>
       </c>
       <c r="B493" s="2">
-        <v>2.3315732549999999</v>
+        <v>3.8217974842767295</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
         <v>12.314598</v>
       </c>
       <c r="B494" s="2">
-        <v>2.3277079649999997</v>
+        <v>3.8156817610062892</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
         <v>12.339627999999999</v>
       </c>
       <c r="B495" s="2">
-        <v>2.3238418799999998</v>
+        <v>3.8095647798742136</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>12.364656999999999</v>
       </c>
       <c r="B496" s="2">
-        <v>2.31997659</v>
+        <v>3.8034490566037733</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>12.389687</v>
       </c>
       <c r="B497" s="2">
-        <v>2.3161105050000002</v>
+        <v>3.7973320754716977</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>12.414717</v>
       </c>
       <c r="B498" s="2">
-        <v>2.3122452149999999</v>
+        <v>3.7912163522012574</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>12.439746</v>
       </c>
       <c r="B499" s="2">
-        <v>2.3083791300000001</v>
+        <v>3.7850993710691818</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9464,7 +9464,7 @@
         <v>12.464776000000001</v>
       </c>
       <c r="B500" s="2">
-        <v>2.3045130449999998</v>
+        <v>3.7789823899371062</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>12.489806</v>
       </c>
       <c r="B501" s="2">
-        <v>2.300647755</v>
+        <v>3.7728666666666668</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9480,7 +9480,7 @@
         <v>12.514835</v>
       </c>
       <c r="B502" s="2">
-        <v>2.2967816699999997</v>
+        <v>3.7667496855345908</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9488,7 +9488,7 @@
         <v>12.539865000000001</v>
       </c>
       <c r="B503" s="2">
-        <v>2.292898095</v>
+        <v>3.7606050314465405</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,7 +9496,7 @@
         <v>12.564895</v>
       </c>
       <c r="B504" s="2">
-        <v>2.2889604599999998</v>
+        <v>3.7543748427672954</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9504,7 @@
         <v>12.589924</v>
       </c>
       <c r="B505" s="2">
-        <v>2.2850220299999999</v>
+        <v>3.7481433962264146</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,7 +9512,7 @@
         <v>12.614954000000001</v>
       </c>
       <c r="B506" s="2">
-        <v>2.2810843949999997</v>
+        <v>3.7419132075471695</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
         <v>12.639984</v>
       </c>
       <c r="B507" s="2">
-        <v>2.2771467599999999</v>
+        <v>3.735683018867924</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>12.665013</v>
       </c>
       <c r="B508" s="2">
-        <v>2.2732091249999997</v>
+        <v>3.7294528301886789</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>12.690042999999999</v>
       </c>
       <c r="B509" s="2">
-        <v>2.2692706949999999</v>
+        <v>3.7232213836477981</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9544,7 +9544,7 @@
         <v>12.715073</v>
       </c>
       <c r="B510" s="2">
-        <v>2.2653330599999997</v>
+        <v>3.716991194968553</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>12.740102</v>
       </c>
       <c r="B511" s="2">
-        <v>2.2613954249999999</v>
+        <v>3.7107610062893075</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
         <v>12.765131999999999</v>
       </c>
       <c r="B512" s="2">
-        <v>2.2574577899999997</v>
+        <v>3.7045308176100624</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9568,7 +9568,7 @@
         <v>12.790162</v>
       </c>
       <c r="B513" s="2">
-        <v>2.2535463899999999</v>
+        <v>3.6983421383647794</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9576,7 +9576,7 @@
         <v>12.815191</v>
       </c>
       <c r="B514" s="2">
-        <v>2.2497144900000001</v>
+        <v>3.6922792452830184</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9584,7 +9584,7 @@
         <v>12.840221</v>
       </c>
       <c r="B515" s="2">
-        <v>2.2458825899999999</v>
+        <v>3.6862163522012574</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>12.865251000000001</v>
       </c>
       <c r="B516" s="2">
-        <v>2.2420514850000002</v>
+        <v>3.6801547169811317</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>12.890280000000001</v>
       </c>
       <c r="B517" s="2">
-        <v>2.238219585</v>
+        <v>3.6740918238993707</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9608,7 +9608,7 @@
         <v>12.91531</v>
       </c>
       <c r="B518" s="2">
-        <v>2.2343876849999997</v>
+        <v>3.6680289308176097</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9616,7 +9616,7 @@
         <v>12.940340000000001</v>
       </c>
       <c r="B519" s="2">
-        <v>2.230555785</v>
+        <v>3.6619660377358487</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>12.965369000000001</v>
       </c>
       <c r="B520" s="2">
-        <v>2.2267246799999998</v>
+        <v>3.655904402515723</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>12.990399</v>
       </c>
       <c r="B521" s="2">
-        <v>2.22289278</v>
+        <v>3.649841509433962</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9640,7 +9640,7 @@
         <v>13.015428999999999</v>
       </c>
       <c r="B522" s="2">
-        <v>2.2190616749999998</v>
+        <v>3.6437798742138363</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9648,7 +9648,7 @@
         <v>13.040457999999999</v>
       </c>
       <c r="B523" s="2">
-        <v>2.2152496500000001</v>
+        <v>3.6377484276729555</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9656,7 +9656,7 @@
         <v>13.065488</v>
       </c>
       <c r="B524" s="2">
-        <v>2.21149248</v>
+        <v>3.6318037735849056</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9664,7 +9664,7 @@
         <v>13.090517999999999</v>
       </c>
       <c r="B525" s="2">
-        <v>2.2077345149999998</v>
+        <v>3.6258578616352195</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>13.115546999999999</v>
       </c>
       <c r="B526" s="2">
-        <v>2.2039765499999997</v>
+        <v>3.6199119496855339</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9680,7 +9680,7 @@
         <v>13.140577</v>
       </c>
       <c r="B527" s="2">
-        <v>2.2002193800000001</v>
+        <v>3.613967295597484</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9688,7 +9688,7 @@
         <v>13.165607</v>
       </c>
       <c r="B528" s="2">
-        <v>2.1964614149999999</v>
+        <v>3.6080213836477983</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9696,7 +9696,7 @@
         <v>13.190636</v>
       </c>
       <c r="B529" s="2">
-        <v>2.1927034499999998</v>
+        <v>3.6020754716981127</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
         <v>13.215666000000001</v>
       </c>
       <c r="B530" s="2">
-        <v>2.1889462800000001</v>
+        <v>3.5961308176100624</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <v>13.240696</v>
       </c>
       <c r="B531" s="2">
-        <v>2.185188315</v>
+        <v>3.5901849056603772</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>13.265725</v>
       </c>
       <c r="B532" s="2">
-        <v>2.1814303499999999</v>
+        <v>3.5842389937106915</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>13.290755000000001</v>
       </c>
       <c r="B533" s="2">
-        <v>2.1777113400000001</v>
+        <v>3.5783547169811318</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9736,7 +9736,7 @@
         <v>13.315785</v>
       </c>
       <c r="B534" s="2">
-        <v>2.1740925</v>
+        <v>3.5726289308176096</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9744,7 +9744,7 @@
         <v>13.340814</v>
       </c>
       <c r="B535" s="2">
-        <v>2.1704728649999998</v>
+        <v>3.5669018867924525</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>13.365843999999999</v>
       </c>
       <c r="B536" s="2">
-        <v>2.1668540250000001</v>
+        <v>3.5611761006289306</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
         <v>13.390874</v>
       </c>
       <c r="B537" s="2">
-        <v>2.16323439</v>
+        <v>3.5554490566037735</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
         <v>13.415903</v>
       </c>
       <c r="B538" s="2">
-        <v>2.1596155499999998</v>
+        <v>3.5497232704402508</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
         <v>13.440932999999999</v>
       </c>
       <c r="B539" s="2">
-        <v>2.1559959150000001</v>
+        <v>3.5439962264150942</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
         <v>13.465963</v>
       </c>
       <c r="B540" s="2">
-        <v>2.152377075</v>
+        <v>3.5382704402515719</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>13.490992</v>
       </c>
       <c r="B541" s="2">
-        <v>2.1487574399999998</v>
+        <v>3.5325433962264143</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9800,7 +9800,7 @@
         <v>13.516022</v>
       </c>
       <c r="B542" s="2">
-        <v>2.1451385999999997</v>
+        <v>3.5268176100628925</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,7 +9808,7 @@
         <v>13.541052000000001</v>
       </c>
       <c r="B543" s="2">
-        <v>2.14148001</v>
+        <v>3.5210289308176099</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>13.566081000000001</v>
       </c>
       <c r="B544" s="2">
-        <v>2.1377268150000002</v>
+        <v>3.5150905660377356</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>13.591111</v>
       </c>
       <c r="B545" s="2">
-        <v>2.1339736199999999</v>
+        <v>3.5091522012578609</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>13.616141000000001</v>
       </c>
       <c r="B546" s="2">
-        <v>2.1302204249999996</v>
+        <v>3.503213836477987</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9840,7 +9840,7 @@
         <v>13.641170000000001</v>
       </c>
       <c r="B547" s="2">
-        <v>2.1264672299999998</v>
+        <v>3.4972754716981127</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
         <v>13.6662</v>
       </c>
       <c r="B548" s="2">
-        <v>2.122714035</v>
+        <v>3.4913371069182384</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>13.691229999999999</v>
       </c>
       <c r="B549" s="2">
-        <v>2.1189608399999997</v>
+        <v>3.4853987421383641</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,7 +9864,7 @@
         <v>13.716259000000001</v>
       </c>
       <c r="B550" s="2">
-        <v>2.11520844</v>
+        <v>3.4794616352201255</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,7 +9872,7 @@
         <v>13.741289</v>
       </c>
       <c r="B551" s="2">
-        <v>2.1114552450000001</v>
+        <v>3.4735232704402512</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,7 +9880,7 @@
         <v>13.766318999999999</v>
       </c>
       <c r="B552" s="2">
-        <v>2.1077020499999999</v>
+        <v>3.4675849056603769</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>13.791347999999999</v>
       </c>
       <c r="B553" s="2">
-        <v>2.1039830399999997</v>
+        <v>3.4617006289308172</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9896,7 +9896,7 @@
         <v>13.816378</v>
       </c>
       <c r="B554" s="2">
-        <v>2.1003427349999999</v>
+        <v>3.4559408805031442</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>13.841407999999999</v>
       </c>
       <c r="B555" s="2">
-        <v>2.0967024300000001</v>
+        <v>3.4501811320754716</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>13.866436999999999</v>
       </c>
       <c r="B556" s="2">
-        <v>2.0930621249999999</v>
+        <v>3.4444213836477986</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>13.891467</v>
       </c>
       <c r="B557" s="2">
-        <v>2.0894218199999997</v>
+        <v>3.4386616352201251</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>13.916497</v>
       </c>
       <c r="B558" s="2">
-        <v>2.0857807199999998</v>
+        <v>3.4329006289308173</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9936,7 +9936,7 @@
         <v>13.941527000000001</v>
       </c>
       <c r="B559" s="2">
-        <v>2.082140415</v>
+        <v>3.4271408805031442</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,7 +9944,7 @@
         <v>13.966556000000001</v>
       </c>
       <c r="B560" s="2">
-        <v>2.0785001099999998</v>
+        <v>3.4213811320754712</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>13.991586</v>
       </c>
       <c r="B561" s="2">
-        <v>2.0748598049999996</v>
+        <v>3.4156213836477982</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9960,7 +9960,7 @@
         <v>14.016616000000001</v>
       </c>
       <c r="B562" s="2">
-        <v>2.0712195000000002</v>
+        <v>3.4098616352201256</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,7 +9968,7 @@
         <v>14.041645000000001</v>
       </c>
       <c r="B563" s="2">
-        <v>2.0675966849999998</v>
+        <v>3.4041295597484273</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>14.066675</v>
       </c>
       <c r="B564" s="2">
-        <v>2.0640104400000001</v>
+        <v>3.3984553459119495</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9984,7 +9984,7 @@
         <v>14.091704999999999</v>
       </c>
       <c r="B565" s="2">
-        <v>2.0604249899999996</v>
+        <v>3.3927823899371061</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>14.116733999999999</v>
       </c>
       <c r="B566" s="2">
-        <v>2.0568387449999999</v>
+        <v>3.3871081761006283</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>14.141764</v>
       </c>
       <c r="B567" s="2">
-        <v>2.0532532949999998</v>
+        <v>3.3814352201257858</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10008,7 +10008,7 @@
         <v>14.166793999999999</v>
       </c>
       <c r="B568" s="2">
-        <v>2.0496678449999997</v>
+        <v>3.3757622641509428</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10016,7 +10016,7 @@
         <v>14.191822999999999</v>
       </c>
       <c r="B569" s="2">
-        <v>2.0460815999999999</v>
+        <v>3.370088050314465</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
         <v>14.216853</v>
       </c>
       <c r="B570" s="2">
-        <v>2.0424961499999998</v>
+        <v>3.3644150943396225</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>14.241883</v>
       </c>
       <c r="B571" s="2">
-        <v>2.0389099050000001</v>
+        <v>3.3587408805031447</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
         <v>14.266912</v>
       </c>
       <c r="B572" s="2">
-        <v>2.035324455</v>
+        <v>3.3530679245283013</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10048,7 +10048,7 @@
         <v>14.291942000000001</v>
       </c>
       <c r="B573" s="2">
-        <v>2.0317803449999996</v>
+        <v>3.3474603773584901</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
         <v>14.316972</v>
       </c>
       <c r="B574" s="2">
-        <v>2.0283236850000002</v>
+        <v>3.341991194968553</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
         <v>14.342001</v>
       </c>
       <c r="B575" s="2">
-        <v>2.0248670249999998</v>
+        <v>3.3365220125786159</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>14.367031000000001</v>
       </c>
       <c r="B576" s="2">
-        <v>2.0214103649999999</v>
+        <v>3.3310528301886788</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,7 +10080,7 @@
         <v>14.392061</v>
       </c>
       <c r="B577" s="2">
-        <v>2.0179544999999997</v>
+        <v>3.325584905660377</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>14.41709</v>
       </c>
       <c r="B578" s="2">
-        <v>2.0144978400000002</v>
+        <v>3.3201157232704399</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>14.442119999999999</v>
       </c>
       <c r="B579" s="2">
-        <v>2.0110411799999999</v>
+        <v>3.3146465408805028</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10104,7 +10104,7 @@
         <v>14.46715</v>
       </c>
       <c r="B580" s="2">
-        <v>2.0075853149999996</v>
+        <v>3.3091786163522006</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>14.492179</v>
       </c>
       <c r="B581" s="2">
-        <v>2.0041286549999997</v>
+        <v>3.3037094339622639</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
         <v>14.517208999999999</v>
       </c>
       <c r="B582" s="2">
-        <v>2.0006727899999999</v>
+        <v>3.2982415094339617</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>14.542239</v>
       </c>
       <c r="B583" s="2">
-        <v>1.9972177200000003</v>
+        <v>3.2927748427672952</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
         <v>14.567268</v>
       </c>
       <c r="B584" s="2">
-        <v>1.9937650350000002</v>
+        <v>3.2873119496855341</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>14.592298</v>
       </c>
       <c r="B585" s="2">
-        <v>1.9903123500000002</v>
+        <v>3.281849056603773</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10152,7 +10152,7 @@
         <v>14.617328000000001</v>
       </c>
       <c r="B586" s="2">
-        <v>1.9868588700000001</v>
+        <v>3.2763849056603767</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
         <v>14.642357000000001</v>
       </c>
       <c r="B587" s="2">
-        <v>1.983406185</v>
+        <v>3.2709220125786156</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,7 +10168,7 @@
         <v>14.667387</v>
       </c>
       <c r="B588" s="2">
-        <v>1.9799534999999999</v>
+        <v>3.265459119496855</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>14.692417000000001</v>
       </c>
       <c r="B589" s="2">
-        <v>1.9765008149999999</v>
+        <v>3.2599962264150939</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>14.717446000000001</v>
       </c>
       <c r="B590" s="2">
-        <v>1.9730481300000002</v>
+        <v>3.2545333333333328</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
         <v>14.742476</v>
       </c>
       <c r="B591" s="2">
-        <v>1.9695954450000002</v>
+        <v>3.2490704402515718</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10200,7 +10200,7 @@
         <v>14.767505999999999</v>
       </c>
       <c r="B592" s="2">
-        <v>1.9661427600000001</v>
+        <v>3.2436075471698107</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
         <v>14.792535000000001</v>
       </c>
       <c r="B593" s="2">
-        <v>1.9627703700000001</v>
+        <v>3.2382716981132069</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
         <v>14.817565</v>
       </c>
       <c r="B594" s="2">
-        <v>1.959548235</v>
+        <v>3.2331735849056602</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>14.842594999999999</v>
       </c>
       <c r="B595" s="2">
-        <v>1.9563261000000003</v>
+        <v>3.228075471698113</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>14.867623999999999</v>
       </c>
       <c r="B596" s="2">
-        <v>1.9531039650000002</v>
+        <v>3.2229773584905654</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,7 +10240,7 @@
         <v>14.892654</v>
       </c>
       <c r="B597" s="2">
-        <v>1.94988183</v>
+        <v>3.2178792452830183</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10248,7 +10248,7 @@
         <v>14.917684</v>
       </c>
       <c r="B598" s="2">
-        <v>1.9466596950000004</v>
+        <v>3.2127811320754716</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>14.942712999999999</v>
       </c>
       <c r="B599" s="2">
-        <v>1.9434375599999998</v>
+        <v>3.207683018867924</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>14.967743</v>
       </c>
       <c r="B600" s="2">
-        <v>1.9402154250000001</v>
+        <v>3.2025849056603768</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>14.992773</v>
       </c>
       <c r="B601" s="2">
-        <v>1.93699329</v>
+        <v>3.1974867924528301</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
         <v>15.017802</v>
       </c>
       <c r="B602" s="2">
-        <v>1.9337711550000003</v>
+        <v>3.1923886792452829</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
         <v>15.042832000000001</v>
       </c>
       <c r="B603" s="2">
-        <v>1.9305506100000003</v>
+        <v>3.1872930817610063</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10296,7 +10296,7 @@
         <v>15.067862</v>
       </c>
       <c r="B604" s="2">
-        <v>1.9273308599999999</v>
+        <v>3.1821987421383642</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
         <v>15.092891</v>
       </c>
       <c r="B605" s="2">
-        <v>1.9241111099999999</v>
+        <v>3.1771044025157229</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
         <v>15.117921000000001</v>
       </c>
       <c r="B606" s="2">
-        <v>1.9208905649999999</v>
+        <v>3.1720088050314459</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <v>15.142951</v>
       </c>
       <c r="B607" s="2">
-        <v>1.9176708150000004</v>
+        <v>3.1669144654088046</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>15.16798</v>
       </c>
       <c r="B608" s="2">
-        <v>1.9144510650000004</v>
+        <v>3.1618201257861633</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>15.193009999999999</v>
       </c>
       <c r="B609" s="2">
-        <v>1.911231315</v>
+        <v>3.1567257861635216</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
         <v>15.21804</v>
       </c>
       <c r="B610" s="2">
-        <v>1.908011565</v>
+        <v>3.1516314465408799</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>15.243069</v>
       </c>
       <c r="B611" s="2">
-        <v>1.9047918150000001</v>
+        <v>3.1465371069182386</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>15.268098999999999</v>
       </c>
       <c r="B612" s="2">
-        <v>1.9015720650000001</v>
+        <v>3.1414427672955973</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10368,7 +10368,7 @@
         <v>15.293129</v>
       </c>
       <c r="B613" s="2">
-        <v>1.8983276700000002</v>
+        <v>3.1363094339622637</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
         <v>15.318158</v>
       </c>
       <c r="B614" s="2">
-        <v>1.8950411400000002</v>
+        <v>3.1311094339622638</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10384,7 +10384,7 @@
         <v>15.343188</v>
       </c>
       <c r="B615" s="2">
-        <v>1.8917554050000003</v>
+        <v>3.1259106918238988</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>15.368218000000001</v>
       </c>
       <c r="B616" s="2">
-        <v>1.8884688749999998</v>
+        <v>3.1207106918238989</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>15.393247000000001</v>
       </c>
       <c r="B617" s="2">
-        <v>1.8851831399999999</v>
+        <v>3.1155119496855339</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10408,7 +10408,7 @@
         <v>15.418277</v>
       </c>
       <c r="B618" s="2">
-        <v>1.8818966099999999</v>
+        <v>3.110311949685534</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
         <v>15.443307000000001</v>
       </c>
       <c r="B619" s="2">
-        <v>1.8786108749999999</v>
+        <v>3.1051132075471695</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
         <v>15.468336000000001</v>
       </c>
       <c r="B620" s="2">
-        <v>1.8753243449999999</v>
+        <v>3.0999132075471691</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>15.493366</v>
       </c>
       <c r="B621" s="2">
-        <v>1.8720386099999999</v>
+        <v>3.0947144654088046</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>15.518395999999999</v>
       </c>
       <c r="B622" s="2">
-        <v>1.868752875</v>
+        <v>3.0895157232704396</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10448,7 +10448,7 @@
         <v>15.543424999999999</v>
       </c>
       <c r="B623" s="2">
-        <v>1.8654424950000001</v>
+        <v>3.0842779874213835</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <v>15.568455</v>
       </c>
       <c r="B624" s="2">
-        <v>1.8620939550000004</v>
+        <v>3.0789798742138363</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>15.593484999999999</v>
       </c>
       <c r="B625" s="2">
-        <v>1.8587454150000002</v>
+        <v>3.0736817610062888</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
         <v>15.618513999999999</v>
       </c>
       <c r="B626" s="2">
-        <v>1.8553968750000001</v>
+        <v>3.0683836477987416</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
         <v>15.643544</v>
       </c>
       <c r="B627" s="2">
-        <v>1.8520483350000003</v>
+        <v>3.0630855345911949</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10488,7 +10488,7 @@
         <v>15.668574</v>
       </c>
       <c r="B628" s="2">
-        <v>1.8486997950000001</v>
+        <v>3.0577874213836478</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
         <v>15.693603</v>
       </c>
       <c r="B629" s="2">
-        <v>1.845351255</v>
+        <v>3.0524893081761002</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
         <v>15.718633000000001</v>
       </c>
       <c r="B630" s="2">
-        <v>1.8420027150000002</v>
+        <v>3.0471911949685531</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>15.743663</v>
       </c>
       <c r="B631" s="2">
-        <v>1.8386541750000001</v>
+        <v>3.0418930817610059</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10520,7 +10520,7 @@
         <v>15.768692</v>
       </c>
       <c r="B632" s="2">
-        <v>1.8353056349999999</v>
+        <v>3.0365949685534583</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10528,7 +10528,7 @@
         <v>15.793722000000001</v>
       </c>
       <c r="B633" s="2">
-        <v>1.831941195</v>
+        <v>3.0312716981132071</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>15.818752</v>
       </c>
       <c r="B634" s="2">
-        <v>1.8285537000000003</v>
+        <v>3.0259119496855345</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>15.843781</v>
       </c>
       <c r="B635" s="2">
-        <v>1.8251662050000002</v>
+        <v>3.0205522012578614</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>15.868811000000001</v>
       </c>
       <c r="B636" s="2">
-        <v>1.82177871</v>
+        <v>3.0151924528301883</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10560,7 +10560,7 @@
         <v>15.893841</v>
       </c>
       <c r="B637" s="2">
-        <v>1.8183904199999998</v>
+        <v>3.00983144654088</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
         <v>15.91887</v>
       </c>
       <c r="B638" s="2">
-        <v>1.8150029250000002</v>
+        <v>3.0044716981132074</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10576,7 +10576,7 @@
         <v>15.943899999999999</v>
       </c>
       <c r="B639" s="2">
-        <v>1.81161543</v>
+        <v>2.9991119496855343</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,7 +10584,7 @@
         <v>15.96893</v>
       </c>
       <c r="B640" s="2">
-        <v>1.8082279350000003</v>
+        <v>2.9937522012578612</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>15.993959</v>
       </c>
       <c r="B641" s="2">
-        <v>1.8048396450000002</v>
+        <v>2.9883911949685529</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10600,7 @@
         <v>16.018989000000001</v>
       </c>
       <c r="B642" s="2">
-        <v>1.8014521500000005</v>
+        <v>2.9830314465408803</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>16.044018999999999</v>
       </c>
       <c r="B643" s="2">
-        <v>1.79813223</v>
+        <v>2.9777786163522011</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
         <v>16.069049</v>
       </c>
       <c r="B644" s="2">
-        <v>1.7949108899999999</v>
+        <v>2.9726817610062888</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>16.094078</v>
       </c>
       <c r="B645" s="2">
-        <v>1.7916895500000003</v>
+        <v>2.9675849056603774</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
         <v>16.119108000000001</v>
       </c>
       <c r="B646" s="2">
-        <v>1.7884682100000002</v>
+        <v>2.962488050314465</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
         <v>16.144138000000002</v>
       </c>
       <c r="B647" s="2">
-        <v>1.7852468700000002</v>
+        <v>2.9573911949685527</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>16.169167000000002</v>
       </c>
       <c r="B648" s="2">
-        <v>1.7820255300000001</v>
+        <v>2.9522943396226413</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10656,7 @@
         <v>16.194196999999999</v>
       </c>
       <c r="B649" s="2">
-        <v>1.77880419</v>
+        <v>2.947197484276729</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10664,7 +10664,7 @@
         <v>16.219227</v>
       </c>
       <c r="B650" s="2">
-        <v>1.7755828500000004</v>
+        <v>2.9421006289308176</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>16.244256</v>
       </c>
       <c r="B651" s="2">
-        <v>1.7723615100000003</v>
+        <v>2.9370037735849053</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,7 +10680,7 @@
         <v>16.269286000000001</v>
       </c>
       <c r="B652" s="2">
-        <v>1.76914017</v>
+        <v>2.931906918238993</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
         <v>16.294315999999998</v>
       </c>
       <c r="B653" s="2">
-        <v>1.7660031</v>
+        <v>2.9269433962264144</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>16.319344999999998</v>
       </c>
       <c r="B654" s="2">
-        <v>1.7629836900000002</v>
+        <v>2.9221660377358489</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>16.344374999999999</v>
       </c>
       <c r="B655" s="2">
-        <v>1.7599642800000002</v>
+        <v>2.9173886792452826</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>16.369405</v>
       </c>
       <c r="B656" s="2">
-        <v>1.756944075</v>
+        <v>2.9126100628930813</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
         <v>16.394434</v>
       </c>
       <c r="B657" s="2">
-        <v>1.753924665</v>
+        <v>2.907832704402515</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>16.419464000000001</v>
       </c>
       <c r="B658" s="2">
-        <v>1.7509052550000002</v>
+        <v>2.9030553459119495</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
         <v>16.444493999999999</v>
       </c>
       <c r="B659" s="2">
-        <v>1.7478858450000001</v>
+        <v>2.8982779874213831</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
         <v>16.469522999999999</v>
       </c>
       <c r="B660" s="2">
-        <v>1.7448664350000003</v>
+        <v>2.8935006289308176</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>16.494553</v>
       </c>
       <c r="B661" s="2">
-        <v>1.7418462299999999</v>
+        <v>2.8887220125786159</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10760,7 +10760,7 @@
         <v>16.519583000000001</v>
       </c>
       <c r="B662" s="2">
-        <v>1.7388268200000001</v>
+        <v>2.88394465408805</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10768,7 +10768,7 @@
         <v>16.544612000000001</v>
       </c>
       <c r="B663" s="2">
-        <v>1.7358670350000003</v>
+        <v>2.8792616352201255</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10776,7 +10776,7 @@
         <v>16.569642000000002</v>
       </c>
       <c r="B664" s="2">
-        <v>1.732985955</v>
+        <v>2.8747031446540876</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
         <v>16.594671999999999</v>
       </c>
       <c r="B665" s="2">
-        <v>1.73010408</v>
+        <v>2.8701433962264145</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>16.619700999999999</v>
       </c>
       <c r="B666" s="2">
-        <v>1.7272230000000002</v>
+        <v>2.865584905660377</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>16.644731</v>
       </c>
       <c r="B667" s="2">
-        <v>1.7243419200000003</v>
+        <v>2.8610264150943396</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,7 +10808,7 @@
         <v>16.669761000000001</v>
       </c>
       <c r="B668" s="2">
-        <v>1.7214600450000002</v>
+        <v>2.8564666666666665</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>16.694790000000001</v>
       </c>
       <c r="B669" s="2">
-        <v>1.7185789650000001</v>
+        <v>2.8519081761006286</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10824,7 +10824,7 @@
         <v>16.719819999999999</v>
       </c>
       <c r="B670" s="2">
-        <v>1.7156978850000002</v>
+        <v>2.8473496855345908</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>16.74485</v>
       </c>
       <c r="B671" s="2">
-        <v>1.7128160100000001</v>
+        <v>2.8427899371069181</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,7 +10840,7 @@
         <v>16.769879</v>
       </c>
       <c r="B672" s="2">
-        <v>1.7099349300000002</v>
+        <v>2.8382314465408802</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
         <v>16.794909000000001</v>
       </c>
       <c r="B673" s="2">
-        <v>1.7070610049999999</v>
+        <v>2.8336842767295591</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
         <v>16.819939000000002</v>
       </c>
       <c r="B674" s="2">
-        <v>1.7041950300000002</v>
+        <v>2.829149685534591</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
         <v>16.844968000000001</v>
       </c>
       <c r="B675" s="2">
-        <v>1.70132985</v>
+        <v>2.8246163522012573</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>16.869997999999999</v>
       </c>
       <c r="B676" s="2">
-        <v>1.6984638750000001</v>
+        <v>2.8200817610062887</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10880,7 +10880,7 @@
         <v>16.895028</v>
       </c>
       <c r="B677" s="2">
-        <v>1.6955986949999999</v>
+        <v>2.8155484276729554</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>16.920057</v>
       </c>
       <c r="B678" s="2">
-        <v>1.69273272</v>
+        <v>2.8110138364779869</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10896,7 +10896,7 @@
         <v>16.945087000000001</v>
       </c>
       <c r="B679" s="2">
-        <v>1.6898675399999998</v>
+        <v>2.8064805031446536</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
         <v>16.970116999999998</v>
       </c>
       <c r="B680" s="2">
-        <v>1.6870015650000001</v>
+        <v>2.801945911949685</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>16.995145999999998</v>
       </c>
       <c r="B681" s="2">
-        <v>1.6841363850000002</v>
+        <v>2.7974125786163522</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10920,7 +10920,7 @@
         <v>17.020175999999999</v>
       </c>
       <c r="B682" s="2">
-        <v>1.68127041</v>
+        <v>2.7928779874213832</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
         <v>17.045206</v>
       </c>
       <c r="B683" s="2">
-        <v>1.6783996650000002</v>
+        <v>2.7883358490566037</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10936,7 +10936,7 @@
         <v>17.070235</v>
       </c>
       <c r="B684" s="2">
-        <v>1.6755225600000001</v>
+        <v>2.7837836477987419</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10944,7 +10944,7 @@
         <v>17.095265000000001</v>
       </c>
       <c r="B685" s="2">
-        <v>1.6726454550000001</v>
+        <v>2.7792314465408801</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10952,7 +10952,7 @@
         <v>17.120294999999999</v>
       </c>
       <c r="B686" s="2">
-        <v>1.66976835</v>
+        <v>2.7746792452830187</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10960,7 +10960,7 @@
         <v>17.145323999999999</v>
       </c>
       <c r="B687" s="2">
-        <v>1.666891245</v>
+        <v>2.7701270440251569</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>17.170354</v>
       </c>
       <c r="B688" s="2">
-        <v>1.6640141400000001</v>
+        <v>2.765574842767295</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>17.195384000000001</v>
       </c>
       <c r="B689" s="2">
-        <v>1.6611370350000001</v>
+        <v>2.7610226415094332</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10984,7 +10984,7 @@
         <v>17.220413000000001</v>
       </c>
       <c r="B690" s="2">
-        <v>1.65825993</v>
+        <v>2.7564704402515718</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
         <v>17.245443000000002</v>
       </c>
       <c r="B691" s="2">
-        <v>1.655382825</v>
+        <v>2.75191823899371</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
         <v>17.270472999999999</v>
       </c>
       <c r="B692" s="2">
-        <v>1.6525057200000002</v>
+        <v>2.7473660377358491</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11008,7 +11008,7 @@
         <v>17.295501999999999</v>
       </c>
       <c r="B693" s="2">
-        <v>1.6496349750000001</v>
+        <v>2.7428238993710687</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>17.320532</v>
       </c>
       <c r="B694" s="2">
-        <v>1.6467721800000004</v>
+        <v>2.7382943396226413</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,7 +11024,7 @@
         <v>17.345562000000001</v>
       </c>
       <c r="B695" s="2">
-        <v>1.6439093850000002</v>
+        <v>2.7337647798742135</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>17.370591000000001</v>
       </c>
       <c r="B696" s="2">
-        <v>1.641047385</v>
+        <v>2.729236477987421</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11040,7 +11040,7 @@
         <v>17.395620999999998</v>
       </c>
       <c r="B697" s="2">
-        <v>1.6381845900000003</v>
+        <v>2.7247069182389936</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
         <v>17.420650999999999</v>
       </c>
       <c r="B698" s="2">
-        <v>1.6353217950000001</v>
+        <v>2.7201773584905657</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>17.445679999999999</v>
       </c>
       <c r="B699" s="2">
-        <v>1.6324589999999999</v>
+        <v>2.7156477987421379</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11064,7 +11064,7 @@
         <v>17.47071</v>
       </c>
       <c r="B700" s="2">
-        <v>1.6295962050000001</v>
+        <v>2.7111182389937105</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>17.495740000000001</v>
       </c>
       <c r="B701" s="2">
-        <v>1.6267342050000002</v>
+        <v>2.706589937106918</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11080,7 +11080,7 @@
         <v>17.520769000000001</v>
       </c>
       <c r="B702" s="2">
-        <v>1.62387141</v>
+        <v>2.7020603773584901</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11088,7 +11088,7 @@
         <v>17.545798999999999</v>
       </c>
       <c r="B703" s="2">
-        <v>1.62077727</v>
+        <v>2.6971647798742131</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>17.570829</v>
       </c>
       <c r="B704" s="2">
-        <v>1.6174295250000001</v>
+        <v>2.6918679245283017</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
         <v>17.595858</v>
       </c>
       <c r="B705" s="2">
-        <v>1.6140825750000001</v>
+        <v>2.6865723270440247</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11112,7 +11112,7 @@
         <v>17.620888000000001</v>
       </c>
       <c r="B706" s="2">
-        <v>1.61073483</v>
+        <v>2.6812754716981129</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11120,7 +11120,7 @@
         <v>17.645918000000002</v>
       </c>
       <c r="B707" s="2">
-        <v>1.6073878799999999</v>
+        <v>2.6759798742138359</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11128,7 +11128,7 @@
         <v>17.670947000000002</v>
       </c>
       <c r="B708" s="2">
-        <v>1.60404093</v>
+        <v>2.6706842767295593</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>17.695976999999999</v>
       </c>
       <c r="B709" s="2">
-        <v>1.600694775</v>
+        <v>2.6653899371069176</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
         <v>17.721007</v>
       </c>
       <c r="B710" s="2">
-        <v>1.5973478249999999</v>
+        <v>2.6600943396226411</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>17.746036</v>
       </c>
       <c r="B711" s="2">
-        <v>1.5940016700000001</v>
+        <v>2.6547999999999994</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11160,7 +11160,7 @@
         <v>17.771066000000001</v>
       </c>
       <c r="B712" s="2">
-        <v>1.5906555150000001</v>
+        <v>2.6495056603773581</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11168,7 +11168,7 @@
         <v>17.796095999999999</v>
       </c>
       <c r="B713" s="2">
-        <v>1.5583475099999999</v>
+        <v>2.5983874213836473</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,7 @@
         <v>17.821124999999999</v>
       </c>
       <c r="B714" s="2">
-        <v>1.4957627250000001</v>
+        <v>2.4993647798742131</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11184,7 +11184,7 @@
         <v>17.846155</v>
       </c>
       <c r="B715" s="2">
-        <v>1.4331779400000002</v>
+        <v>2.4003421383647798</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>17.871185000000001</v>
       </c>
       <c r="B716" s="2">
-        <v>1.3705931550000001</v>
+        <v>2.3013194968553456</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11200,7 +11200,7 @@
         <v>17.896214000000001</v>
       </c>
       <c r="B717" s="2">
-        <v>1.3080075750000002</v>
+        <v>2.2022955974842766</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11208,7 +11208,7 @@
         <v>17.921244000000002</v>
       </c>
       <c r="B718">
-        <v>1.2454219950000001</v>
+        <v>2.1032716981132071</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11216,7 +11216,7 @@
         <v>17.946273999999999</v>
       </c>
       <c r="B719">
-        <v>1.1828364150000001</v>
+        <v>2.0042477987421381</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11224,7 +11224,7 @@
         <v>17.971302999999999</v>
       </c>
       <c r="B720">
-        <v>1.120250835</v>
+        <v>1.9052238993710693</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11232,7 +11232,7 @@
         <v>17.996333</v>
       </c>
       <c r="B721">
-        <v>1.0576652550000001</v>
+        <v>1.8061999999999998</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
